--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-mvt-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-mvt-template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrsubra\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ocifromnewgit\oci_tenancy\SetUpOCI_Via_TF\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="520">
   <si>
     <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
 Leave "Parent Compartment" empty or mention 'root' if it is under 'root' compartment;
@@ -1688,6 +1688,24 @@
   <si>
     <t>mvt-db_Disk2</t>
   </si>
+  <si>
+    <t>Cipher Suite Name</t>
+  </si>
+  <si>
+    <t>Ciphers</t>
+  </si>
+  <si>
+    <t>cipher1</t>
+  </si>
+  <si>
+    <t>AES256-SHA,AES256-GCM-SHA384,AES128-SHA256,AES128-SHA</t>
+  </si>
+  <si>
+    <t>SSL Protocols</t>
+  </si>
+  <si>
+    <t>TLSv1.2</t>
+  </si>
 </sst>
 </file>
 
@@ -1696,7 +1714,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;**"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1745,6 +1763,12 @@
       <sz val="10"/>
       <color rgb="FF1D1E23"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2020,7 +2044,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2185,6 +2209,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2214,9 +2241,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2603,7 +2637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2630,7 +2664,7 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -2646,16 +2680,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="80"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83"/>
     </row>
     <row r="2" spans="1:8" s="66" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
@@ -2848,16 +2882,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="80"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
@@ -2901,7 +2935,7 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -2917,24 +2951,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="80"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="83"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
@@ -3018,26 +3052,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="80"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="83"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
@@ -3300,14 +3334,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="80"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="83"/>
     </row>
     <row r="2" spans="1:6" s="66" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
@@ -3434,23 +3468,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="84.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="83"/>
     </row>
     <row r="2" spans="1:15" s="8" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -3739,10 +3773,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3758,24 +3792,26 @@
     <col min="13" max="13" width="28.21875" style="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="77"/>
-    </row>
-    <row r="2" spans="1:13" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+    </row>
+    <row r="2" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
@@ -3815,8 +3851,14 @@
       <c r="M2" s="53" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="53" t="s">
+        <v>514</v>
+      </c>
+      <c r="O2" s="53" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="s">
         <v>5</v>
       </c>
@@ -3832,8 +3874,10 @@
       <c r="K3" s="57"/>
       <c r="L3" s="57"/>
       <c r="M3" s="57"/>
-    </row>
-    <row r="4" spans="1:13" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+    </row>
+    <row r="4" spans="1:15" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
         <v>6</v>
       </c>
@@ -3867,8 +3911,14 @@
       <c r="M4" s="57" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N4" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="O4" s="90" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="59"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -3888,8 +3938,10 @@
       <c r="M5" s="57" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+    </row>
+    <row r="6" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
         <v>6</v>
       </c>
@@ -3929,10 +3981,12 @@
       <c r="M6" s="59" t="s">
         <v>162</v>
       </c>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3964,24 +4018,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="80"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="83"/>
     </row>
     <row r="2" spans="1:16" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="60" t="s">
@@ -4215,26 +4269,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="77"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="80"/>
     </row>
     <row r="2" spans="1:18" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -4874,14 +4928,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="66" customFormat="1" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
     </row>
     <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
@@ -5016,12 +5070,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="66" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="74"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="77"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -5080,10 +5134,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5098,23 +5152,25 @@
     <col min="12" max="12" width="10.21875" style="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:14" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="77"/>
-    </row>
-    <row r="2" spans="1:12" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+    </row>
+    <row r="2" spans="1:14" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
@@ -5151,8 +5207,14 @@
       <c r="L2" s="32" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" s="53" t="s">
+        <v>514</v>
+      </c>
+      <c r="N2" s="53" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>5</v>
       </c>
@@ -5167,8 +5229,10 @@
       <c r="J3" s="59"/>
       <c r="K3" s="59"/>
       <c r="L3" s="59"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
         <v>6</v>
       </c>
@@ -5197,8 +5261,14 @@
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
       <c r="L4" s="59"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="N4" s="93" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="59"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59" t="s">
@@ -5219,8 +5289,10 @@
       <c r="J5" s="59"/>
       <c r="K5" s="59"/>
       <c r="L5" s="59"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
         <v>6</v>
       </c>
@@ -5257,10 +5329,12 @@
       <c r="L6" s="59">
         <v>5</v>
       </c>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5614,18 +5688,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="84" t="s">
         <v>472</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="63" t="s">
@@ -5879,16 +5953,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>339</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -6119,31 +6193,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>363</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="85"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="88"/>
     </row>
     <row r="2" spans="1:23" s="66" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
@@ -6474,31 +6548,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="3" customFormat="1" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="89" t="s">
         <v>415</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
       <c r="X1" s="5"/>
     </row>
     <row r="2" spans="1:24" s="66" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6789,31 +6863,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" ht="67.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>431</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="85"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="88"/>
     </row>
     <row r="2" spans="1:23" s="66" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
@@ -7040,11 +7114,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="66" customFormat="1" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="74"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -7139,15 +7213,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="66" customFormat="1" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>444</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="77"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
     </row>
     <row r="2" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -7194,25 +7268,25 @@
       <c r="G3" s="59"/>
     </row>
     <row r="4" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="72" t="s">
         <v>484</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="72" t="s">
         <v>471</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="73" t="s">
         <v>485</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="74" t="s">
         <v>454</v>
       </c>
-      <c r="F4" s="89" t="s">
+      <c r="F4" s="74" t="s">
         <v>477</v>
       </c>
-      <c r="G4" s="87"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="59" t="s">
@@ -7377,19 +7451,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="209.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>445</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="80"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="83"/>
     </row>
     <row r="2" spans="1:11" s="66" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
@@ -7503,10 +7577,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="66" customFormat="1" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="80"/>
+      <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
@@ -7578,15 +7652,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
     </row>
     <row r="2" spans="1:7" s="66" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
@@ -7690,25 +7764,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="80"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="83"/>
     </row>
     <row r="2" spans="1:17" s="66" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
@@ -7958,22 +8032,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="80"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="83"/>
     </row>
     <row r="2" spans="1:14" s="66" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-mvt-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-mvt-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -38,31 +38,37 @@
     <sheet name="DB_System_VM" sheetId="24" state="hidden" r:id="rId24"/>
     <sheet name="DB_System_BM" sheetId="25" state="hidden" r:id="rId25"/>
     <sheet name="DB_System_EXA" sheetId="26" state="hidden" r:id="rId26"/>
+    <sheet name="Database_Dropdown" sheetId="27" state="hidden" r:id="rId27"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId27"/>
+    <externalReference r:id="rId28"/>
+    <externalReference r:id="rId29"/>
   </externalReferences>
   <definedNames>
     <definedName name="Action_Values" localSheetId="17">'Rule Set Dropdown'!$A$2:$A$12</definedName>
     <definedName name="Allowed_Methods" localSheetId="17">'Rule Set Dropdown'!$B$2:$B$41</definedName>
     <definedName name="Attribute_Names" localSheetId="17">'Rule Set Dropdown'!$D$2:$D$5</definedName>
+    <definedName name="Header_Size" localSheetId="26">'[1]Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size">'Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Match_Style" localSheetId="18">'Rule Set Dropdown'!$C$2:$C$6</definedName>
     <definedName name="Match_Style" localSheetId="17">'Rule Set Dropdown'!$C$2:$C$6</definedName>
+    <definedName name="Response_Code" localSheetId="26">'[1]Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code">'Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Shape_Option" localSheetId="26">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="24">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="25">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="23">#REF!</definedName>
     <definedName name="Shape_Option">#REF!</definedName>
-    <definedName name="Shape_Option_DB">[1]Database!$B$10:$J$10</definedName>
-    <definedName name="VM_Shapes">DB_System_VM!$Y$397:$Y$407</definedName>
+    <definedName name="Shape_Option_DB">[2]Database!$B$10:$J$10</definedName>
+    <definedName name="VM_Shapes" localSheetId="26">Database_Dropdown!$A$2:$A$12</definedName>
+    <definedName name="VM_Shapes">DB_System_VM!#REF!</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="538">
   <si>
     <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
 Leave "Parent Compartment" empty or mention 'root' if it is under 'root' compartment;
@@ -1705,6 +1711,60 @@
   </si>
   <si>
     <t>TLSv1.2</t>
+  </si>
+  <si>
+    <t>Software Edition</t>
+  </si>
+  <si>
+    <t>DB version</t>
+  </si>
+  <si>
+    <t>License Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2.0.4 </t>
+  </si>
+  <si>
+    <t>STANDARD_EDITION</t>
+  </si>
+  <si>
+    <t>BRING_YOUR_OWN_LICENSE</t>
+  </si>
+  <si>
+    <t>12.2.0.1</t>
+  </si>
+  <si>
+    <t>ENTERPROSE_EDITION_HIGH_PERFORMANCE</t>
+  </si>
+  <si>
+    <t>18.0.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9.0.0 </t>
+  </si>
+  <si>
+    <t>18.10.0.0</t>
+  </si>
+  <si>
+    <t>18.11.0.0</t>
+  </si>
+  <si>
+    <t>19.0.0.0</t>
+  </si>
+  <si>
+    <t>19.6.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7.0.0 </t>
+  </si>
+  <si>
+    <t>19.8.0.0</t>
+  </si>
+  <si>
+    <t>20.0.0.0</t>
+  </si>
+  <si>
+    <t>20.3.0.0</t>
   </si>
 </sst>
 </file>
@@ -2044,7 +2104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2061,7 +2121,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2212,6 +2271,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2230,6 +2305,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2241,16 +2322,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2269,6 +2340,109 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Release-Info"/>
+      <sheetName val="Compartments"/>
+      <sheetName val="Groups"/>
+      <sheetName val="Policies"/>
+      <sheetName val="VCNs"/>
+      <sheetName val="VCN Info"/>
+      <sheetName val="DHCP"/>
+      <sheetName val="Subnets"/>
+      <sheetName val="RouteRulesinOCI"/>
+      <sheetName val="SecRulesinOCI"/>
+      <sheetName val="NSGs"/>
+      <sheetName val="DedicatedVMHosts"/>
+      <sheetName val="Instances"/>
+      <sheetName val="BlockVols"/>
+      <sheetName val="FSS"/>
+      <sheetName val="LB-Hostname-Certs"/>
+      <sheetName val="BackendSet-BackendServer"/>
+      <sheetName val="RuleSet"/>
+      <sheetName val="PathRouteSet"/>
+      <sheetName val="LB-Listener"/>
+      <sheetName val="Rule Set Dropdown"/>
+      <sheetName val="Tags"/>
+      <sheetName val="ADW_ATP"/>
+      <sheetName val="DB_System_VM"/>
+      <sheetName val="DB_System_BM"/>
+      <sheetName val="DB_System_EXA"/>
+      <sheetName val="Database_Dropdown"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20">
+        <row r="2">
+          <cell r="E2">
+            <v>301</v>
+          </cell>
+          <cell r="F2">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>302</v>
+          </cell>
+          <cell r="F3">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>303</v>
+          </cell>
+          <cell r="F4">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>307</v>
+          </cell>
+          <cell r="F5">
+            <v>64</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>308</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2637,17 +2811,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="167.109375" style="58" customWidth="1"/>
+    <col min="1" max="1" width="167.109375" style="57" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>443</v>
       </c>
     </row>
@@ -2670,184 +2844,184 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="23" style="58" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" style="58" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" style="58" customWidth="1"/>
-    <col min="7" max="7" width="26.77734375" style="58" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="57" customWidth="1"/>
+    <col min="2" max="2" width="23" style="57" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" style="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="57" customWidth="1"/>
+    <col min="7" max="7" width="26.77734375" style="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="83"/>
-    </row>
-    <row r="2" spans="1:8" s="66" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="89"/>
+    </row>
+    <row r="2" spans="1:8" s="65" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
         <v>448</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>509</v>
       </c>
-      <c r="D3" s="59">
+      <c r="D3" s="58">
         <v>500</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="58" t="s">
         <v>502</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="59"/>
+      <c r="H3" s="58"/>
     </row>
     <row r="4" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>448</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>510</v>
       </c>
-      <c r="D4" s="59">
+      <c r="D4" s="58">
         <v>500</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="58" t="s">
         <v>503</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="68"/>
+      <c r="H4" s="67"/>
     </row>
     <row r="5" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="58" t="s">
         <v>448</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>511</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="58">
         <v>500</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="58" t="s">
         <v>504</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="68"/>
+      <c r="H5" s="67"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="58" t="s">
         <v>448</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>512</v>
       </c>
-      <c r="D6" s="59">
+      <c r="D6" s="58">
         <v>500</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="58" t="s">
         <v>505</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="H6" s="59"/>
+      <c r="H6" s="58"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="58" t="s">
         <v>448</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="58" t="s">
         <v>513</v>
       </c>
-      <c r="D7" s="59">
+      <c r="D7" s="58">
         <v>500</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="58" t="s">
         <v>500</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="59"/>
+      <c r="H7" s="58"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2871,51 +3045,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" style="58" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="58" customWidth="1"/>
-    <col min="5" max="5" width="16" style="58" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.77734375" style="58" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" style="58" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" style="58" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="57" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" style="57" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="57" customWidth="1"/>
+    <col min="5" max="5" width="16" style="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.77734375" style="57" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" style="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" style="57" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="83"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="89"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2935,88 +3109,88 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="58" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="58" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="58" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" style="58" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" style="58" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="57" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="57" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="57" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="57" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" style="57" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" style="57" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="83"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="89"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3038,274 +3212,274 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="58" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" style="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" style="58" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" style="58" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" style="58" customWidth="1"/>
-    <col min="11" max="11" width="19" style="58" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.21875" style="58" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="57" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" style="57" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" style="57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" style="57" customWidth="1"/>
+    <col min="11" max="11" width="19" style="57" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.21875" style="57" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" style="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="83"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="89"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="25" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
     </row>
     <row r="4" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>447</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="58" t="s">
         <v>458</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="59" t="s">
+      <c r="H4" s="58"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
     </row>
     <row r="5" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="58" t="s">
         <v>447</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="58" t="s">
         <v>459</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="58" t="s">
         <v>460</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="58" t="s">
         <v>461</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="55" t="s">
         <v>458</v>
       </c>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59">
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58">
         <v>22</v>
       </c>
-      <c r="O5" s="59">
+      <c r="O5" s="58">
         <v>22</v>
       </c>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="58" t="s">
         <v>447</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>455</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="58" t="s">
         <v>462</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="56" t="s">
+      <c r="K6" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="58" t="s">
         <v>447</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="58" t="s">
         <v>456</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="58" t="s">
         <v>463</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59">
+      <c r="I7" s="55"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58">
         <v>53</v>
       </c>
-      <c r="O7" s="59">
+      <c r="O7" s="58">
         <v>53</v>
       </c>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3326,110 +3500,110 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.21875" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="58" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="83"/>
-    </row>
-    <row r="2" spans="1:6" s="66" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
+    </row>
+    <row r="2" spans="1:6" s="65" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="52" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
     </row>
     <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="57" t="s">
         <v>448</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="58" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="57" t="s">
         <v>448</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="58" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="57" t="s">
         <v>448</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="58" t="s">
         <v>446</v>
       </c>
     </row>
@@ -3451,316 +3625,316 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.44140625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="58" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="58" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="58" customWidth="1"/>
-    <col min="7" max="7" width="15" style="58" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="58" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" style="58" customWidth="1"/>
-    <col min="10" max="10" width="16" style="58" customWidth="1"/>
-    <col min="11" max="11" width="19.21875" style="58" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" style="58" customWidth="1"/>
-    <col min="13" max="13" width="12.21875" style="58" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" style="58" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="57" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="57" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="57" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="57" customWidth="1"/>
+    <col min="7" max="7" width="15" style="57" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="57" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" style="57" customWidth="1"/>
+    <col min="10" max="10" width="16" style="57" customWidth="1"/>
+    <col min="11" max="11" width="19.21875" style="57" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" style="57" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" style="57" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" style="57" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" style="57" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="84.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="83"/>
-    </row>
-    <row r="2" spans="1:15" s="8" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="89"/>
+    </row>
+    <row r="2" spans="1:15" s="7" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="18" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
     </row>
     <row r="4" spans="1:15" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>447</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42" t="s">
+      <c r="F4" s="41"/>
+      <c r="G4" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42" t="s">
+      <c r="A6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
     </row>
     <row r="7" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="58" t="s">
         <v>447</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42" t="s">
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="58" t="s">
         <v>447</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42" t="s">
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="J8" s="42" t="s">
+      <c r="J8" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="K8" s="42" t="s">
+      <c r="K8" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
     </row>
     <row r="9" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="58" t="s">
         <v>447</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42" t="s">
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="J9" s="42" t="s">
+      <c r="J9" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="K9" s="42" t="s">
+      <c r="K9" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
     </row>
     <row r="10" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="58" t="s">
         <v>447</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="I10" s="42" t="s">
+      <c r="I10" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3781,15 +3955,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="58" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="58" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="58" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" style="58" customWidth="1"/>
-    <col min="8" max="8" width="25" style="58" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="58" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" style="58" customWidth="1"/>
-    <col min="13" max="13" width="28.21875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="57" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="57" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="57" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="57" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" style="57" customWidth="1"/>
+    <col min="8" max="8" width="25" style="57" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="57" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" style="57" customWidth="1"/>
+    <col min="13" max="13" width="28.21875" style="57" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.3">
@@ -3812,177 +3986,177 @@
       <c r="O1" s="92"/>
     </row>
     <row r="2" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="L2" s="53" t="s">
+      <c r="L2" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="N2" s="53" t="s">
+      <c r="N2" s="52" t="s">
         <v>514</v>
       </c>
-      <c r="O2" s="53" t="s">
+      <c r="O2" s="52" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
     </row>
     <row r="4" spans="1:15" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>447</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>466</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="56" t="s">
         <v>464</v>
       </c>
-      <c r="F4" s="59" t="b">
+      <c r="F4" s="58" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="57" t="s">
+      <c r="G4" s="58"/>
+      <c r="H4" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59" t="s">
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="N4" s="59" t="s">
+      <c r="N4" s="58" t="s">
         <v>516</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="74" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="59" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59" t="s">
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="M5" s="57" t="s">
+      <c r="M5" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
     </row>
     <row r="6" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="58" t="s">
         <v>447</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>466</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="56" t="s">
         <v>464</v>
       </c>
-      <c r="F6" s="59" t="b">
+      <c r="F6" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="K6" s="59" t="s">
+      <c r="K6" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="M6" s="59" t="s">
+      <c r="M6" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4003,237 +4177,237 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.21875" style="58" customWidth="1"/>
-    <col min="3" max="3" width="11" style="58" customWidth="1"/>
-    <col min="4" max="5" width="10.88671875" style="58" customWidth="1"/>
-    <col min="6" max="6" width="18" style="58" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" style="58" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="58" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="58" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="58" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="58" customWidth="1"/>
-    <col min="13" max="13" width="23.6640625" style="58" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" style="58" customWidth="1"/>
-    <col min="16" max="16" width="14.77734375" style="58" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="57" customWidth="1"/>
+    <col min="3" max="3" width="11" style="57" customWidth="1"/>
+    <col min="4" max="5" width="10.88671875" style="57" customWidth="1"/>
+    <col min="6" max="6" width="18" style="57" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" style="57" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="57" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="57" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="57" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="57" customWidth="1"/>
+    <col min="13" max="13" width="23.6640625" style="57" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" style="57" customWidth="1"/>
+    <col min="16" max="16" width="14.77734375" style="57" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="87" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="83"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="89"/>
     </row>
     <row r="2" spans="1:16" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="J2" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="K2" s="60" t="s">
+      <c r="K2" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="L2" s="60" t="s">
+      <c r="L2" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="M2" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="N2" s="60" t="s">
+      <c r="N2" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="O2" s="60" t="s">
+      <c r="O2" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="19" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
     </row>
     <row r="4" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>447</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>466</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="58" t="s">
         <v>468</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="59">
+      <c r="I4" s="58">
         <v>80</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="M4" s="59" t="b">
+      <c r="M4" s="58" t="b">
         <v>1</v>
       </c>
-      <c r="N4" s="59" t="s">
+      <c r="N4" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="58" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="58" t="s">
         <v>469</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="58">
         <v>443</v>
       </c>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59" t="s">
+      <c r="J5" s="58"/>
+      <c r="K5" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="L5" s="59" t="s">
+      <c r="L5" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="M5" s="59" t="b">
+      <c r="M5" s="58" t="b">
         <v>1</v>
       </c>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59" t="s">
+      <c r="N5" s="58"/>
+      <c r="O5" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="59"/>
+      <c r="P5" s="58"/>
     </row>
     <row r="6" spans="1:16" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="58" t="s">
         <v>447</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>466</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59" t="s">
+      <c r="D6" s="58"/>
+      <c r="E6" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="58" t="s">
         <v>470</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="I6" s="59">
+      <c r="I6" s="58">
         <v>80</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="K6" s="59" t="s">
+      <c r="K6" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59" t="b">
+      <c r="L6" s="58"/>
+      <c r="M6" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59" t="s">
+      <c r="N6" s="58"/>
+      <c r="O6" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="59"/>
+      <c r="P6" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4253,634 +4427,634 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.77734375" style="58" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" style="58" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" style="58" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="58" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="58" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" style="58" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="58" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="58" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" style="58" customWidth="1"/>
-    <col min="13" max="13" width="15.21875" style="58" customWidth="1"/>
-    <col min="14" max="15" width="13.77734375" style="58" customWidth="1"/>
-    <col min="16" max="16" width="21.109375" style="58" customWidth="1"/>
-    <col min="17" max="17" width="17.21875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="57" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" style="57" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" style="57" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="57" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="57" customWidth="1"/>
+    <col min="8" max="8" width="19.21875" style="57" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="57" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="57" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" style="57" customWidth="1"/>
+    <col min="13" max="13" width="15.21875" style="57" customWidth="1"/>
+    <col min="14" max="15" width="13.77734375" style="57" customWidth="1"/>
+    <col min="16" max="16" width="21.109375" style="57" customWidth="1"/>
+    <col min="17" max="17" width="17.21875" style="57" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="84" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="80"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="86"/>
     </row>
     <row r="2" spans="1:18" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>466</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="58" t="s">
         <v>473</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59">
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58">
         <v>405</v>
       </c>
-      <c r="R4" s="59"/>
+      <c r="R4" s="58"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59" t="s">
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59" t="s">
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59" t="s">
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59" t="s">
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58" t="s">
         <v>216</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59" t="b">
+      <c r="E9" s="58"/>
+      <c r="F9" s="58" t="b">
         <v>1</v>
       </c>
-      <c r="G9" s="59">
+      <c r="G9" s="58">
         <v>32</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59" t="s">
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59" t="s">
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="I10" s="59" t="s">
+      <c r="I10" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="J10" s="59" t="s">
+      <c r="J10" s="58" t="s">
         <v>220</v>
       </c>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59" t="s">
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59" t="s">
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="I11" s="59" t="s">
+      <c r="I11" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59" t="s">
+      <c r="J11" s="58"/>
+      <c r="K11" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59" t="s">
+      <c r="L11" s="58"/>
+      <c r="M11" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="N11" s="59" t="s">
+      <c r="N11" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="O11" s="59">
+      <c r="O11" s="58">
         <v>302</v>
       </c>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59" t="s">
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59" t="s">
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="I12" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59" t="s">
+      <c r="J12" s="58"/>
+      <c r="K12" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59" t="s">
+      <c r="L12" s="58"/>
+      <c r="M12" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="N12" s="59" t="s">
+      <c r="N12" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="O12" s="59">
+      <c r="O12" s="58">
         <v>303</v>
       </c>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59" t="s">
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59" t="s">
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59" t="s">
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59" t="s">
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59" t="s">
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59" t="s">
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59" t="s">
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58" t="s">
         <v>235</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59" t="s">
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59" t="s">
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59" t="s">
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59" t="s">
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59" t="s">
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59" t="s">
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59" t="s">
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59" t="s">
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59" t="s">
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59" t="s">
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58" t="s">
         <v>245</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59" t="s">
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="58" t="s">
         <v>467</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59" t="s">
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4921,119 +5095,119 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" style="58" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" style="58" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="58" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="57" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" style="57" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="57" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" style="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="66" customFormat="1" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:6" s="65" customFormat="1" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="84" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="80"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="86"/>
     </row>
     <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>466</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="58" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="58" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59" t="s">
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58" t="s">
         <v>253</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="58" t="s">
         <v>254</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="58" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="58" t="s">
         <v>467</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="58" t="s">
         <v>257</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="58" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5063,65 +5237,65 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="40.77734375" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" style="58" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="57" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="57" customWidth="1"/>
+    <col min="3" max="3" width="40.77734375" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" style="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="66" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:4" s="65" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="77"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="83"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
         <v>474</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>475</v>
       </c>
-      <c r="D3" s="59"/>
+      <c r="D3" s="58"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>448</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>476</v>
       </c>
-      <c r="D4" s="59"/>
+      <c r="D4" s="58"/>
     </row>
     <row r="5" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5142,14 +5316,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" style="58" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="58" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="58" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="58" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" style="58" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="58" customWidth="1"/>
-    <col min="9" max="9" width="15" style="58" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="57" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="57" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="57" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="57" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" style="57" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="57" customWidth="1"/>
+    <col min="9" max="9" width="15" style="57" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" style="57" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5171,166 +5345,166 @@
       <c r="N1" s="92"/>
     </row>
     <row r="2" spans="1:14" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="52" t="s">
         <v>514</v>
       </c>
-      <c r="N2" s="53" t="s">
+      <c r="N2" s="52" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>466</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59" t="s">
+      <c r="H4" s="58"/>
+      <c r="I4" s="58" t="s">
         <v>452</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59" t="s">
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58" t="s">
         <v>516</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="75" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="58" t="s">
         <v>253</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="58" t="s">
         <v>245</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="58" t="s">
         <v>467</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="58" t="s">
         <v>269</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="K6" s="59">
+      <c r="K6" s="58">
         <v>80</v>
       </c>
-      <c r="L6" s="59">
+      <c r="L6" s="58">
         <v>5</v>
       </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5350,314 +5524,314 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="35.109375" style="58" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" style="58" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="58" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="58" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" style="57" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" style="57" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="57" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="57" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="36">
         <v>301</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>258</v>
       </c>
       <c r="D3" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="45">
         <v>302</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="45">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>228</v>
       </c>
       <c r="D4" t="s">
         <v>280</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>303</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="45">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="46">
+      <c r="D5" s="66"/>
+      <c r="E5" s="45">
         <v>307</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="45">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="E6" s="46">
+      <c r="C6" s="35"/>
+      <c r="E6" s="45">
         <v>308</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="45" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="45" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="45" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="45" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="46" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="45" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="45" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="45" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="45" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="45" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="45" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="45" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="45" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="45" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="45" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="45" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="45" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="45" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="45" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="45" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="45" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="45" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="45" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="45" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="45" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="45" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="45" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="45" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="45" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="45" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="45" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="45" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="45" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="45" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="17"/>
+      <c r="B41" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5675,255 +5849,255 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="11"/>
-    <col min="2" max="2" width="19.21875" style="58" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="58" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="58" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="58" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="58" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="58" customWidth="1"/>
-    <col min="8" max="8" width="21" style="58" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="10"/>
+    <col min="2" max="2" width="19.21875" style="57" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="57" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="57" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="57" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="57" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="57" customWidth="1"/>
+    <col min="8" max="8" width="21" style="57" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="90" t="s">
         <v>472</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="61" t="s">
         <v>312</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="61" t="s">
         <v>316</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="61" t="s">
         <v>317</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="62" t="s">
         <v>318</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="62" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="65"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="64"/>
     </row>
     <row r="4" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="42" t="s">
         <v>322</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43" t="b">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="I4" s="49" t="b">
+      <c r="I4" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="49" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43" t="s">
+      <c r="A5" s="70"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42" t="s">
         <v>325</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43" t="b">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="I5" s="49" t="b">
+      <c r="I5" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="49" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="47" t="s">
         <v>327</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44" t="s">
+      <c r="D6" s="42"/>
+      <c r="E6" s="43" t="s">
         <v>328</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="49"/>
     </row>
     <row r="7" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>447</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="42" t="s">
         <v>329</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="43" t="s">
         <v>330</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="49"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44" t="s">
+      <c r="A8" s="70"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43" t="s">
         <v>331</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="49"/>
     </row>
     <row r="9" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="44" t="s">
         <v>447</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="47" t="s">
         <v>332</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43" t="s">
+      <c r="D9" s="42"/>
+      <c r="E9" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="42" t="s">
         <v>334</v>
       </c>
-      <c r="G9" s="43" t="b">
+      <c r="G9" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="49" t="b">
+      <c r="H9" s="42"/>
+      <c r="I9" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="49" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43" t="s">
+      <c r="A10" s="49"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="49"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43" t="s">
+      <c r="A11" s="70"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="49"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43" t="s">
+      <c r="A12" s="70"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42" t="s">
         <v>338</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5944,49 +6118,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="58" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="58" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="58" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="93" t="s">
         <v>339</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="80"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6156,137 +6330,137 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y407"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="58" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="58" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="58" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" style="58" customWidth="1"/>
-    <col min="7" max="7" width="15" style="58" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42" style="58" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.77734375" style="58" customWidth="1"/>
-    <col min="11" max="11" width="17.21875" style="58" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" style="58" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="58" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" style="58" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" style="58" customWidth="1"/>
-    <col min="16" max="16" width="11.21875" style="58" customWidth="1"/>
-    <col min="17" max="17" width="8.77734375" style="58" customWidth="1"/>
-    <col min="18" max="18" width="23.21875" style="58" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.44140625" style="58" customWidth="1"/>
-    <col min="20" max="20" width="13.44140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.44140625" style="58" customWidth="1"/>
-    <col min="22" max="22" width="13.109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.21875" style="58" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.77734375" style="58" customWidth="1"/>
-    <col min="25" max="25" width="18.21875" style="58" customWidth="1"/>
-    <col min="26" max="33" width="8.77734375" style="58" customWidth="1"/>
-    <col min="34" max="16384" width="8.77734375" style="58"/>
+    <col min="1" max="1" width="8.77734375" style="57" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="57" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="57" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" style="57" customWidth="1"/>
+    <col min="7" max="7" width="15" style="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42" style="57" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.77734375" style="57" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" style="57" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" style="57" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="57" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="57" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" style="57" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" style="57" customWidth="1"/>
+    <col min="17" max="17" width="8.77734375" style="57" customWidth="1"/>
+    <col min="18" max="18" width="23.21875" style="57" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.44140625" style="57" customWidth="1"/>
+    <col min="20" max="20" width="13.44140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.44140625" style="57" customWidth="1"/>
+    <col min="22" max="22" width="13.109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.21875" style="57" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.77734375" style="57" customWidth="1"/>
+    <col min="25" max="25" width="18.21875" style="57" customWidth="1"/>
+    <col min="26" max="33" width="8.77734375" style="57" customWidth="1"/>
+    <col min="34" max="16384" width="8.77734375" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="94" t="s">
         <v>363</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="88"/>
-    </row>
-    <row r="2" spans="1:23" s="66" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="96"/>
+    </row>
+    <row r="2" spans="1:23" s="65" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="Q2" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="U2" s="22" t="s">
+      <c r="U2" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="W2" s="22" t="s">
+      <c r="W2" s="21" t="s">
         <v>383</v>
       </c>
     </row>
@@ -6294,10 +6468,10 @@
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>385</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -6351,13 +6525,13 @@
       <c r="T3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="W3" s="9">
+      <c r="W3" s="8">
         <v>10</v>
       </c>
     </row>
@@ -6365,10 +6539,10 @@
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>402</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -6422,79 +6596,19 @@
       <c r="T4" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="W4" s="9">
+      <c r="W4" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="45" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="396" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y396" s="6" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="397" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y397" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="398" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y398" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="399" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y399" s="9" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="400" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y400" s="9" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="401" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y401" s="9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="402" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y402" s="9" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="403" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y403" s="9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="404" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y404" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="405" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y405" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="406" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y406" s="9" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="407" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y407" s="9" t="s">
-        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -6502,147 +6616,181 @@
     <mergeCell ref="A1:W1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F3:F401">
-      <formula1>$Y$397:$Y$407</formula1>
-    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F2 H2"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Database_Dropdown!$A$2:$A$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Database_Dropdown!$B$2:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3:H1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Database_Dropdown!$G$2:$G$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K3:K1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Database_Dropdown!$C$2:$C$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>N3:N1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Database_Dropdown!$D$2:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>R3:R1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y398"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="58" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="58" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" style="58" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="58" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" style="58" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="58" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42" style="58" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.77734375" style="58" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" style="58" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="58" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" style="58" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" style="58" customWidth="1"/>
-    <col min="16" max="16" width="11.21875" style="58" customWidth="1"/>
-    <col min="17" max="18" width="23.21875" style="58" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.44140625" style="58" customWidth="1"/>
-    <col min="20" max="20" width="13.44140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.44140625" style="58" customWidth="1"/>
-    <col min="22" max="22" width="13.109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.21875" style="58" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.77734375" style="58" customWidth="1"/>
-    <col min="25" max="25" width="14.88671875" style="58" bestFit="1" customWidth="1"/>
-    <col min="26" max="33" width="8.77734375" style="58" customWidth="1"/>
-    <col min="34" max="16384" width="8.77734375" style="58"/>
+    <col min="1" max="1" width="8.77734375" style="57" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="57" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="57" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="57" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" style="57" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42" style="57" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.77734375" style="57" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" style="57" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="57" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="57" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" style="57" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" style="57" customWidth="1"/>
+    <col min="17" max="18" width="23.21875" style="57" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.44140625" style="57" customWidth="1"/>
+    <col min="20" max="20" width="13.44140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.44140625" style="57" customWidth="1"/>
+    <col min="22" max="22" width="13.109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.21875" style="57" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.77734375" style="57" customWidth="1"/>
+    <col min="25" max="25" width="14.88671875" style="57" bestFit="1" customWidth="1"/>
+    <col min="26" max="33" width="8.77734375" style="57" customWidth="1"/>
+    <col min="34" max="16384" width="8.77734375" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="3" customFormat="1" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="97" t="s">
         <v>415</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
       <c r="X1" s="5"/>
     </row>
-    <row r="2" spans="1:24" s="66" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:24" s="65" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="Q2" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="U2" s="22" t="s">
+      <c r="U2" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="W2" s="22" t="s">
+      <c r="W2" s="21" t="s">
         <v>383</v>
       </c>
     </row>
@@ -6650,10 +6798,10 @@
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>385</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -6707,13 +6855,13 @@
       <c r="T3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="W3" s="9">
+      <c r="W3" s="8">
         <v>10</v>
       </c>
     </row>
@@ -6721,10 +6869,10 @@
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>402</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -6778,34 +6926,19 @@
       <c r="T4" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="W4" s="9">
+      <c r="W4" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="45" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="396" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y396" s="6" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="397" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y397" s="9" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="398" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y398" s="9" t="s">
-        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -6813,150 +6946,184 @@
     <mergeCell ref="A1:W1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F3:F396">
-      <formula1>$Y$397:$Y$398</formula1>
-    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G5">
       <formula1>Shape_Option</formula1>
     </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F2"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Database_Dropdown!$F$2:$F$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Database_Dropdown!$B$2:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3:H1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Database_Dropdown!$G$2:$G$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K3:K1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Database_Dropdown!$C$2:$C$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>N3:N1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Database_Dropdown!$D$2:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>R3:R1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y402"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="58" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="58" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="58" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" style="58" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="58" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.77734375" style="58" customWidth="1"/>
-    <col min="11" max="11" width="17.21875" style="58" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" style="58" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="58" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" style="58" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" style="58" customWidth="1"/>
-    <col min="16" max="16" width="11.21875" style="58" customWidth="1"/>
-    <col min="17" max="18" width="23.21875" style="58" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23" style="58" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.44140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.44140625" style="58" customWidth="1"/>
-    <col min="22" max="22" width="13.109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.21875" style="58" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.77734375" style="58" customWidth="1"/>
-    <col min="25" max="25" width="18.21875" style="58" bestFit="1" customWidth="1"/>
-    <col min="26" max="33" width="8.77734375" style="58" customWidth="1"/>
-    <col min="34" max="16384" width="8.77734375" style="58"/>
+    <col min="1" max="1" width="8.77734375" style="57" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="57" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="57" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" style="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.77734375" style="57" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" style="57" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" style="57" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="57" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="57" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" style="57" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" style="57" customWidth="1"/>
+    <col min="17" max="18" width="23.21875" style="57" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23" style="57" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.44140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.44140625" style="57" customWidth="1"/>
+    <col min="22" max="22" width="13.109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.21875" style="57" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.77734375" style="57" customWidth="1"/>
+    <col min="25" max="25" width="18.21875" style="57" bestFit="1" customWidth="1"/>
+    <col min="26" max="33" width="8.77734375" style="57" customWidth="1"/>
+    <col min="34" max="16384" width="8.77734375" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" ht="67.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="94" t="s">
         <v>431</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="88"/>
-    </row>
-    <row r="2" spans="1:23" s="66" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="96"/>
+    </row>
+    <row r="2" spans="1:23" s="65" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>432</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="Q2" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="U2" s="22" t="s">
+      <c r="U2" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="W2" s="22" t="s">
+      <c r="W2" s="21" t="s">
         <v>383</v>
       </c>
     </row>
@@ -6964,7 +7131,7 @@
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>384</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -7021,77 +7188,317 @@
       <c r="T3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="W3" s="9">
+      <c r="W3" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="1"/>
-    </row>
-    <row r="395" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y395" s="6" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="396" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y396" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="397" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y397" s="9" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="398" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y398" s="9" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="399" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y399" s="9" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="400" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y400" s="9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="401" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y401" s="9" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="402" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y402" s="9" t="s">
-        <v>435</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:W1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G395">
-      <formula1>$Y$396:$Y$402</formula1>
-    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H4">
       <formula1>Shape_Option</formula1>
     </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G2"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Database_Dropdown!$E$2:$E$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>G3:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Database_Dropdown!$G$2:$G$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K3:K1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Database_Dropdown!$C$2:$C$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>N3:N1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Database_Dropdown!$D$2:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>R3:R1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.21875" style="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" style="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="57"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>436</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>430</v>
+      </c>
+      <c r="G1" s="78" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>397</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>437</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>418</v>
+      </c>
+      <c r="G2" s="79" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="58" t="s">
+        <v>407</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>524</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>393</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>423</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>438</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>426</v>
+      </c>
+      <c r="G3" s="67" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="58" t="s">
+        <v>408</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>526</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58" t="s">
+        <v>439</v>
+      </c>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>527</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>528</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58" t="s">
+        <v>529</v>
+      </c>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58" t="s">
+        <v>441</v>
+      </c>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="58" t="s">
+        <v>387</v>
+      </c>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58" t="s">
+        <v>530</v>
+      </c>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58" t="s">
+        <v>442</v>
+      </c>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="58" t="s">
+        <v>410</v>
+      </c>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58" t="s">
+        <v>531</v>
+      </c>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58" t="s">
+        <v>435</v>
+      </c>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="58" t="s">
+        <v>411</v>
+      </c>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58" t="s">
+        <v>532</v>
+      </c>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="58" t="s">
+        <v>412</v>
+      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58" t="s">
+        <v>533</v>
+      </c>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="58" t="s">
+        <v>413</v>
+      </c>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58" t="s">
+        <v>536</v>
+      </c>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58" t="s">
+        <v>537</v>
+      </c>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>$G$2:$G$3</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7108,79 +7515,79 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.77734375" style="58" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="57" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.77734375" style="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="66" customFormat="1" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:3" s="65" customFormat="1" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="83"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="58" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+    <row r="3" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
         <v>449</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="58" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+    <row r="4" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>477</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="58" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
+    <row r="5" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="58" t="s">
         <v>451</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="58" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
+    <row r="6" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="58" t="s">
         <v>480</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="58" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="s">
+    <row r="7" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7204,217 +7611,217 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="58" customWidth="1"/>
-    <col min="4" max="4" width="16" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.21875" style="58" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="28.44140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="57" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="57" customWidth="1"/>
+    <col min="4" max="4" width="16" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.21875" style="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="28.44140625" style="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="66" customFormat="1" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:7" s="65" customFormat="1" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="84" t="s">
         <v>444</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
-    </row>
-    <row r="2" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="86"/>
+    </row>
+    <row r="2" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
         <v>453</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>471</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="58" t="s">
         <v>482</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="67" t="s">
         <v>449</v>
       </c>
-      <c r="G3" s="59"/>
+      <c r="G3" s="58"/>
     </row>
     <row r="4" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="71" t="s">
         <v>484</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="71" t="s">
         <v>471</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="72" t="s">
         <v>485</v>
       </c>
-      <c r="E4" s="74" t="s">
+      <c r="E4" s="73" t="s">
         <v>454</v>
       </c>
-      <c r="F4" s="74" t="s">
+      <c r="F4" s="73" t="s">
         <v>477</v>
       </c>
-      <c r="G4" s="72"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="58" t="s">
         <v>486</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>471</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="58" t="s">
         <v>487</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="58" t="s">
         <v>480</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="58" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59" t="s">
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58" t="s">
         <v>488</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="58" t="s">
         <v>480</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="58" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59" t="s">
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58" t="s">
         <v>489</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="58" t="s">
         <v>480</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="58" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59" t="s">
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58" t="s">
         <v>490</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="58" t="s">
         <v>480</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="58" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59" t="s">
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58" t="s">
         <v>454</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="58" t="s">
         <v>480</v>
       </c>
-      <c r="G9" s="59"/>
+      <c r="G9" s="58"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="58" t="s">
         <v>471</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="58" t="s">
         <v>492</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="58" t="s">
         <v>493</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="58" t="s">
         <v>451</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="58" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59" t="s">
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58" t="s">
         <v>454</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="58" t="s">
         <v>451</v>
       </c>
-      <c r="G11" s="59"/>
+      <c r="G11" s="58"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7437,116 +7844,116 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="58" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" style="58" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="58" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" style="58" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" style="58" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" style="58" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="58" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" style="58" customWidth="1"/>
-    <col min="11" max="11" width="26.44140625" style="58" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="57" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="57" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="57" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="57" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="57" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="57" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" style="57" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="57" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="57" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" style="57" customWidth="1"/>
+    <col min="11" max="11" width="26.44140625" style="57" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="209.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="87" t="s">
         <v>445</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="83"/>
-    </row>
-    <row r="2" spans="1:11" s="66" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="89"/>
+    </row>
+    <row r="2" spans="1:11" s="65" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="51" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+    <row r="3" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
         <v>474</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>494</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="58" t="s">
         <v>495</v>
       </c>
-      <c r="K3" s="59"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7570,53 +7977,53 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.21875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="41.44140625" style="58" customWidth="1"/>
-    <col min="3" max="10" width="9.21875" style="58" customWidth="1"/>
-    <col min="11" max="16384" width="9.21875" style="58"/>
+    <col min="1" max="1" width="32.21875" style="57" customWidth="1"/>
+    <col min="2" max="2" width="41.44140625" style="57" customWidth="1"/>
+    <col min="3" max="10" width="9.21875" style="57" customWidth="1"/>
+    <col min="11" max="16384" width="9.21875" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="66" customFormat="1" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:2" s="65" customFormat="1" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="83"/>
+      <c r="B1" s="89"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="58"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="58" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="58" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7642,59 +8049,59 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="58" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="58" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" style="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="57" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="57" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="57" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83"/>
-    </row>
-    <row r="2" spans="1:7" s="66" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="89"/>
+    </row>
+    <row r="2" spans="1:7" s="65" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
     </row>
     <row r="4" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4"/>
@@ -7745,253 +8152,253 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="58" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" style="58" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" style="58" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="58" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="58" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" style="58" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" style="58" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.44140625" style="58" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="58" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="58" customWidth="1"/>
-    <col min="13" max="13" width="15.77734375" style="58" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="58" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" style="58" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" style="58" customWidth="1"/>
-    <col min="17" max="17" width="10" style="58" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="57" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="57" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="57" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="57" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" style="57" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" style="57" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.44140625" style="57" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="57" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="57" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" style="57" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="57" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" style="57" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" style="57" customWidth="1"/>
+    <col min="17" max="17" width="10" style="57" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="83"/>
-    </row>
-    <row r="2" spans="1:17" s="66" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="89"/>
+    </row>
+    <row r="2" spans="1:17" s="65" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+    <row r="3" spans="1:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
         <v>474</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>494</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="58" t="s">
         <v>497</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="68" t="s">
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="69" t="s">
+      <c r="L3" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="69" t="s">
+      <c r="M3" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="69" t="s">
+      <c r="N3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="69" t="s">
+      <c r="O3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="69" t="s">
+      <c r="P3" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="70"/>
-    </row>
-    <row r="4" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="Q3" s="69"/>
+    </row>
+    <row r="4" spans="1:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>474</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>494</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="58" t="s">
         <v>498</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="58" t="s">
         <v>499</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59" t="s">
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="69" t="s">
+      <c r="L4" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="69" t="s">
+      <c r="M4" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="70"/>
-    </row>
-    <row r="5" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58" t="s">
+      <c r="Q4" s="69"/>
+    </row>
+    <row r="5" spans="1:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="58" t="s">
         <v>474</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>494</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="58" t="s">
         <v>500</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="58" t="s">
         <v>501</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59" t="s">
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="69" t="s">
+      <c r="L5" s="68" t="s">
         <v>457</v>
       </c>
-      <c r="M5" s="69" t="s">
+      <c r="M5" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="69" t="s">
+      <c r="N5" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="69" t="s">
+      <c r="O5" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="70"/>
-    </row>
-    <row r="6" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
+      <c r="Q5" s="69"/>
+    </row>
+    <row r="6" spans="1:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8015,281 +8422,281 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.21875" style="58" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" style="58" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" style="58" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" style="58" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.77734375" style="58" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" style="58" customWidth="1"/>
-    <col min="11" max="11" width="26.77734375" style="58" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" style="58" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.21875" style="58" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.21875" style="58" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="57" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" style="57" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" style="57" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" style="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" style="57" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.77734375" style="57" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" style="57" customWidth="1"/>
+    <col min="11" max="11" width="26.77734375" style="57" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" style="57" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.21875" style="57" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.21875" style="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="83"/>
-    </row>
-    <row r="2" spans="1:14" s="66" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+    </row>
+    <row r="2" spans="1:14" s="65" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="L2" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="52" t="s">
+      <c r="M2" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="N2" s="52" t="s">
+      <c r="N2" s="51" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
         <v>448</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="58" t="s">
         <v>502</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="58" t="s">
         <v>446</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="58" t="s">
         <v>506</v>
       </c>
-      <c r="G3" s="59" t="b">
+      <c r="G3" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59" t="s">
+      <c r="H3" s="58"/>
+      <c r="I3" s="58" t="s">
         <v>465</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>448</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="58" t="s">
         <v>503</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="58" t="s">
         <v>506</v>
       </c>
-      <c r="G4" s="59" t="b">
+      <c r="G4" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59" t="s">
+      <c r="H4" s="58"/>
+      <c r="I4" s="58" t="s">
         <v>465</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="67" t="s">
         <v>346</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="58" t="s">
         <v>448</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="58" t="s">
         <v>504</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="58" t="s">
         <v>446</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="58" t="s">
         <v>507</v>
       </c>
-      <c r="G5" s="59" t="b">
+      <c r="G5" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="59" t="s">
+      <c r="H5" s="67"/>
+      <c r="I5" s="58" t="s">
         <v>465</v>
       </c>
-      <c r="J5" s="59" t="s">
+      <c r="J5" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="K5" s="59" t="s">
+      <c r="K5" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="67" t="s">
         <v>346</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="58" t="s">
         <v>448</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="58" t="s">
         <v>505</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="58" t="s">
         <v>507</v>
       </c>
-      <c r="G6" s="59" t="b">
+      <c r="G6" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="59" t="s">
+      <c r="H6" s="67"/>
+      <c r="I6" s="58" t="s">
         <v>465</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="K6" s="59" t="s">
+      <c r="K6" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="67" t="s">
         <v>346</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="67" t="s">
         <v>448</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="67" t="s">
         <v>500</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="58" t="s">
         <v>446</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="58" t="s">
         <v>508</v>
       </c>
-      <c r="G7" s="59" t="b">
+      <c r="G7" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59" t="s">
+      <c r="H7" s="58"/>
+      <c r="I7" s="58" t="s">
         <v>465</v>
       </c>
-      <c r="J7" s="59" t="s">
+      <c r="J7" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="K7" s="59" t="s">
+      <c r="K7" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-mvt-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-mvt-template.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="539">
   <si>
     <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
 Leave "Parent Compartment" empty or mention 'root' if it is under 'root' compartment;
@@ -93,11 +93,6 @@
   </si>
   <si>
     <t>Phoenix</t>
-  </si>
-  <si>
-    <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-Group "Name" is mandatory field;
-Enter "Region" as your tenancy's Home Region for Group Creation.</t>
   </si>
   <si>
     <t>Compartment Name</t>
@@ -1765,6 +1760,15 @@
   </si>
   <si>
     <t>20.3.0.0</t>
+  </si>
+  <si>
+    <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+Group "Name" is mandatory field;
+"Matching Rule" - Specify the matching rule for creating Dynamic Groups; else leave it empty.
+Enter "Region" as your tenancy's Home Region for Group Creation.</t>
+  </si>
+  <si>
+    <t>Matching Rule</t>
   </si>
 </sst>
 </file>
@@ -2104,7 +2108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2292,6 +2296,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2347,6 +2360,7 @@
       <sheetName val="Compartments"/>
       <sheetName val="Groups"/>
       <sheetName val="Policies"/>
+      <sheetName val="Tags"/>
       <sheetName val="VCNs"/>
       <sheetName val="VCN Info"/>
       <sheetName val="DHCP"/>
@@ -2364,7 +2378,6 @@
       <sheetName val="PathRouteSet"/>
       <sheetName val="LB-Listener"/>
       <sheetName val="Rule Set Dropdown"/>
-      <sheetName val="Tags"/>
       <sheetName val="ADW_ATP"/>
       <sheetName val="DB_System_VM"/>
       <sheetName val="DB_System_BM"/>
@@ -2372,27 +2385,28 @@
       <sheetName val="Database_Dropdown"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21">
         <row r="2">
           <cell r="E2">
             <v>301</v>
@@ -2431,11 +2445,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
     </sheetDataSet>
   </externalBook>
@@ -2822,7 +2835,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -2854,160 +2867,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="89"/>
+      <c r="A1" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="92"/>
     </row>
     <row r="2" spans="1:8" s="65" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>113</v>
-      </c>
       <c r="H2" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D3" s="58">
         <v>500</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G3" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H3" s="58"/>
     </row>
     <row r="4" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="58" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D4" s="58">
         <v>500</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G4" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H4" s="67"/>
     </row>
     <row r="5" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="58" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D5" s="58">
         <v>500</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H5" s="67"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="58" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D6" s="58">
         <v>500</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G6" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H6" s="58"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D7" s="58">
         <v>500</v>
       </c>
       <c r="E7" s="58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G7" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H7" s="58"/>
     </row>
@@ -3056,41 +3069,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="89"/>
+      <c r="A1" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="92"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="H2" s="17" t="s">
         <v>58</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3125,73 +3138,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="89"/>
+      <c r="A1" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="92"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="H2" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="I2" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="K2" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="L2" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="M2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="N2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="O2" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="17" t="s">
-        <v>72</v>
-      </c>
       <c r="P2" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3226,81 +3239,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="89"/>
+      <c r="A1" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="92"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="25" t="s">
+      <c r="I2" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="26" t="s">
+      <c r="J2" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="M2" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" s="25" t="s">
         <v>58</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3330,30 +3343,30 @@
         <v>6</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E4" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="G4" s="58" t="s">
         <v>78</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>79</v>
       </c>
       <c r="H4" s="58"/>
       <c r="I4" s="55"/>
       <c r="J4" s="58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K4" s="58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="58"/>
       <c r="M4" s="58"/>
@@ -3368,28 +3381,28 @@
         <v>6</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="58" t="s">
+        <v>458</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="58" t="s">
         <v>459</v>
       </c>
-      <c r="E5" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="58" t="s">
+      <c r="G5" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="58" t="s">
         <v>460</v>
       </c>
-      <c r="G5" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="58" t="s">
-        <v>461</v>
-      </c>
       <c r="I5" s="55" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J5" s="58"/>
       <c r="K5" s="58"/>
@@ -3410,28 +3423,28 @@
         <v>6</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E6" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="G6" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="J6" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="58" t="s">
+      <c r="K6" s="55" t="s">
         <v>80</v>
-      </c>
-      <c r="K6" s="55" t="s">
-        <v>81</v>
       </c>
       <c r="L6" s="58"/>
       <c r="M6" s="58"/>
@@ -3446,25 +3459,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E7" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="58" t="s">
-        <v>84</v>
-      </c>
       <c r="G7" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="58" t="s">
         <v>79</v>
-      </c>
-      <c r="H7" s="58" t="s">
-        <v>80</v>
       </c>
       <c r="I7" s="55"/>
       <c r="J7" s="58"/>
@@ -3508,33 +3521,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
+      <c r="A1" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="92"/>
     </row>
     <row r="2" spans="1:6" s="65" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="E2" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="F2" s="52" t="s">
         <v>88</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3552,19 +3565,19 @@
         <v>6</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C4" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>91</v>
-      </c>
       <c r="F4" s="58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3572,19 +3585,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C5" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="58" t="s">
-        <v>93</v>
-      </c>
       <c r="E5" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3592,19 +3605,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -3642,69 +3655,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="84.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="89"/>
+      <c r="A1" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="92"/>
     </row>
     <row r="2" spans="1:15" s="7" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="K2" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="M2" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="N2" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="O2" s="18" t="s">
         <v>126</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -3731,26 +3744,26 @@
         <v>6</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="F4" s="41"/>
       <c r="G4" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="I4" s="41" t="s">
         <v>131</v>
-      </c>
-      <c r="I4" s="41" t="s">
-        <v>132</v>
       </c>
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
@@ -3769,13 +3782,13 @@
       <c r="G5" s="41"/>
       <c r="H5" s="41"/>
       <c r="I5" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="K5" s="41" t="s">
         <v>133</v>
-      </c>
-      <c r="K5" s="41" t="s">
-        <v>134</v>
       </c>
       <c r="L5" s="41"/>
       <c r="M5" s="41"/>
@@ -3791,13 +3804,13 @@
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
       <c r="I6" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J6" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="41" t="s">
         <v>135</v>
-      </c>
-      <c r="K6" s="41" t="s">
-        <v>136</v>
       </c>
       <c r="L6" s="41"/>
       <c r="M6" s="41"/>
@@ -3809,24 +3822,24 @@
         <v>6</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="F7" s="41"/>
       <c r="G7" s="41"/>
       <c r="H7" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" s="41" t="s">
         <v>137</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>138</v>
       </c>
       <c r="J7" s="41"/>
       <c r="K7" s="41"/>
@@ -3840,30 +3853,30 @@
         <v>6</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F8" s="41"/>
       <c r="G8" s="41"/>
       <c r="H8" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="I8" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="J8" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="J8" s="41" t="s">
-        <v>142</v>
-      </c>
       <c r="K8" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L8" s="41"/>
       <c r="M8" s="41"/>
@@ -3875,30 +3888,30 @@
         <v>6</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
       <c r="H9" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="I9" s="41" t="s">
-        <v>141</v>
-      </c>
       <c r="J9" s="41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K9" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L9" s="41"/>
       <c r="M9" s="41"/>
@@ -3910,24 +3923,24 @@
         <v>6</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
       <c r="H10" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" s="41" t="s">
         <v>146</v>
-      </c>
-      <c r="I10" s="41" t="s">
-        <v>147</v>
       </c>
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
@@ -3967,69 +3980,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
+      <c r="A1" s="94" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
     </row>
     <row r="2" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="E2" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="F2" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="G2" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="52" t="s">
+      <c r="I2" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="J2" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="K2" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="L2" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="M2" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="M2" s="52" t="s">
-        <v>158</v>
-      </c>
       <c r="N2" s="52" t="s">
+        <v>513</v>
+      </c>
+      <c r="O2" s="52" t="s">
         <v>514</v>
-      </c>
-      <c r="O2" s="52" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4056,40 +4069,40 @@
         <v>6</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F4" s="58" t="b">
         <v>1</v>
       </c>
       <c r="G4" s="58"/>
       <c r="H4" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" s="58" t="s">
         <v>160</v>
-      </c>
-      <c r="I4" s="58" t="s">
-        <v>161</v>
       </c>
       <c r="J4" s="58"/>
       <c r="K4" s="58"/>
       <c r="L4" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="M4" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="M4" s="56" t="s">
-        <v>163</v>
-      </c>
       <c r="N4" s="58" t="s">
+        <v>515</v>
+      </c>
+      <c r="O4" s="74" t="s">
         <v>516</v>
-      </c>
-      <c r="O4" s="74" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -4102,15 +4115,15 @@
       <c r="G5" s="58"/>
       <c r="H5" s="56"/>
       <c r="I5" s="58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J5" s="58"/>
       <c r="K5" s="58"/>
       <c r="L5" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="M5" s="56" t="s">
         <v>162</v>
-      </c>
-      <c r="M5" s="56" t="s">
-        <v>163</v>
       </c>
       <c r="N5" s="58"/>
       <c r="O5" s="58"/>
@@ -4120,40 +4133,40 @@
         <v>6</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F6" s="58" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H6" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="J6" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="K6" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="J6" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="K6" s="58" t="s">
-        <v>168</v>
-      </c>
       <c r="L6" s="58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M6" s="58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N6" s="58"/>
       <c r="O6" s="58"/>
@@ -4192,73 +4205,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="89"/>
+      <c r="A1" s="90" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="92"/>
     </row>
     <row r="2" spans="1:16" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E2" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="G2" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="H2" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="I2" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="J2" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="K2" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="K2" s="59" t="s">
+      <c r="L2" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="M2" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="M2" s="59" t="s">
+      <c r="N2" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="N2" s="59" t="s">
+      <c r="O2" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="O2" s="59" t="s">
+      <c r="P2" s="19" t="s">
         <v>180</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -4286,47 +4299,47 @@
         <v>6</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D4" s="58"/>
       <c r="E4" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>467</v>
+      </c>
+      <c r="G4" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="58" t="s">
-        <v>468</v>
-      </c>
-      <c r="G4" s="58" t="s">
+      <c r="H4" s="58" t="s">
         <v>183</v>
-      </c>
-      <c r="H4" s="58" t="s">
-        <v>184</v>
       </c>
       <c r="I4" s="58">
         <v>80</v>
       </c>
       <c r="J4" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="K4" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="L4" s="58" t="s">
         <v>186</v>
-      </c>
-      <c r="L4" s="58" t="s">
-        <v>187</v>
       </c>
       <c r="M4" s="58" t="b">
         <v>1</v>
       </c>
       <c r="N4" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O4" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P4" s="58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -4334,36 +4347,36 @@
       <c r="B5" s="58"/>
       <c r="C5" s="58"/>
       <c r="D5" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E5" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>468</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" s="58" t="s">
         <v>188</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>469</v>
-      </c>
-      <c r="G5" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="H5" s="58" t="s">
-        <v>189</v>
       </c>
       <c r="I5" s="58">
         <v>443</v>
       </c>
       <c r="J5" s="58"/>
       <c r="K5" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="L5" s="58" t="s">
         <v>190</v>
-      </c>
-      <c r="L5" s="58" t="s">
-        <v>191</v>
       </c>
       <c r="M5" s="58" t="b">
         <v>1</v>
       </c>
       <c r="N5" s="58"/>
       <c r="O5" s="58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P5" s="58"/>
     </row>
@@ -4372,32 +4385,32 @@
         <v>6</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D6" s="58"/>
       <c r="E6" s="58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G6" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="58" t="s">
         <v>183</v>
-      </c>
-      <c r="H6" s="58" t="s">
-        <v>184</v>
       </c>
       <c r="I6" s="58">
         <v>80</v>
       </c>
       <c r="J6" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K6" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L6" s="58"/>
       <c r="M6" s="58" t="b">
@@ -4405,7 +4418,7 @@
       </c>
       <c r="N6" s="58"/>
       <c r="O6" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P6" s="58"/>
     </row>
@@ -4443,81 +4456,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>193</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="86"/>
+      <c r="A1" s="87" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="89"/>
     </row>
     <row r="2" spans="1:18" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="K2" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="M2" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="N2" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="O2" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="P2" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="Q2" s="18" t="s">
-        <v>208</v>
-      </c>
       <c r="R2" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -4547,16 +4560,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C4" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="58" t="s">
-        <v>210</v>
-      </c>
       <c r="E4" s="58" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F4" s="58"/>
       <c r="G4" s="58"/>
@@ -4580,7 +4593,7 @@
       <c r="C5" s="58"/>
       <c r="D5" s="58"/>
       <c r="E5" s="58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F5" s="58"/>
       <c r="G5" s="58"/>
@@ -4602,7 +4615,7 @@
       <c r="C6" s="58"/>
       <c r="D6" s="58"/>
       <c r="E6" s="58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F6" s="58"/>
       <c r="G6" s="58"/>
@@ -4624,7 +4637,7 @@
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
       <c r="E7" s="58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F7" s="58"/>
       <c r="G7" s="58"/>
@@ -4646,7 +4659,7 @@
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
       <c r="E8" s="58" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F8" s="58"/>
       <c r="G8" s="58"/>
@@ -4667,7 +4680,7 @@
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
       <c r="D9" s="58" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E9" s="58"/>
       <c r="F9" s="58" t="b">
@@ -4693,19 +4706,19 @@
       <c r="B10" s="58"/>
       <c r="C10" s="58"/>
       <c r="D10" s="58" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E10" s="58"/>
       <c r="F10" s="58"/>
       <c r="G10" s="58"/>
       <c r="H10" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="I10" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="I10" s="58" t="s">
+      <c r="J10" s="58" t="s">
         <v>219</v>
-      </c>
-      <c r="J10" s="58" t="s">
-        <v>220</v>
       </c>
       <c r="K10" s="58"/>
       <c r="L10" s="58"/>
@@ -4721,27 +4734,27 @@
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
       <c r="D11" s="58" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E11" s="58"/>
       <c r="F11" s="58"/>
       <c r="G11" s="58"/>
       <c r="H11" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="I11" s="58" t="s">
         <v>222</v>
-      </c>
-      <c r="I11" s="58" t="s">
-        <v>223</v>
       </c>
       <c r="J11" s="58"/>
       <c r="K11" s="58" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L11" s="58"/>
       <c r="M11" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="N11" s="58" t="s">
         <v>225</v>
-      </c>
-      <c r="N11" s="58" t="s">
-        <v>226</v>
       </c>
       <c r="O11" s="58">
         <v>302</v>
@@ -4755,27 +4768,27 @@
       <c r="B12" s="58"/>
       <c r="C12" s="58"/>
       <c r="D12" s="58" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E12" s="58"/>
       <c r="F12" s="58"/>
       <c r="G12" s="58"/>
       <c r="H12" s="58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I12" s="58" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J12" s="58"/>
       <c r="K12" s="58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L12" s="58"/>
       <c r="M12" s="58" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N12" s="58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O12" s="58">
         <v>303</v>
@@ -4789,7 +4802,7 @@
       <c r="B13" s="58"/>
       <c r="C13" s="58"/>
       <c r="D13" s="58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E13" s="58"/>
       <c r="F13" s="58"/>
@@ -4799,13 +4812,13 @@
       <c r="J13" s="58"/>
       <c r="K13" s="58"/>
       <c r="L13" s="58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M13" s="58"/>
       <c r="N13" s="58"/>
       <c r="O13" s="58"/>
       <c r="P13" s="58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q13" s="58"/>
       <c r="R13" s="58"/>
@@ -4815,7 +4828,7 @@
       <c r="B14" s="58"/>
       <c r="C14" s="58"/>
       <c r="D14" s="58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E14" s="58"/>
       <c r="F14" s="58"/>
@@ -4825,7 +4838,7 @@
       <c r="J14" s="58"/>
       <c r="K14" s="58"/>
       <c r="L14" s="58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M14" s="58"/>
       <c r="N14" s="58"/>
@@ -4833,7 +4846,7 @@
       <c r="P14" s="58"/>
       <c r="Q14" s="58"/>
       <c r="R14" s="58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -4841,7 +4854,7 @@
       <c r="B15" s="58"/>
       <c r="C15" s="58"/>
       <c r="D15" s="58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E15" s="58"/>
       <c r="F15" s="58"/>
@@ -4851,7 +4864,7 @@
       <c r="J15" s="58"/>
       <c r="K15" s="58"/>
       <c r="L15" s="58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M15" s="58"/>
       <c r="N15" s="58"/>
@@ -4865,7 +4878,7 @@
       <c r="B16" s="58"/>
       <c r="C16" s="58"/>
       <c r="D16" s="58" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E16" s="58"/>
       <c r="F16" s="58"/>
@@ -4875,7 +4888,7 @@
       <c r="J16" s="58"/>
       <c r="K16" s="58"/>
       <c r="L16" s="58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M16" s="58"/>
       <c r="N16" s="58"/>
@@ -4883,7 +4896,7 @@
       <c r="P16" s="58"/>
       <c r="Q16" s="58"/>
       <c r="R16" s="58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
@@ -4891,7 +4904,7 @@
       <c r="B17" s="58"/>
       <c r="C17" s="58"/>
       <c r="D17" s="58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E17" s="58"/>
       <c r="F17" s="58"/>
@@ -4901,7 +4914,7 @@
       <c r="J17" s="58"/>
       <c r="K17" s="58"/>
       <c r="L17" s="58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M17" s="58"/>
       <c r="N17" s="58"/>
@@ -4915,7 +4928,7 @@
       <c r="B18" s="58"/>
       <c r="C18" s="58"/>
       <c r="D18" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E18" s="58"/>
       <c r="F18" s="58"/>
@@ -4925,13 +4938,13 @@
       <c r="J18" s="58"/>
       <c r="K18" s="58"/>
       <c r="L18" s="58" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M18" s="58"/>
       <c r="N18" s="58"/>
       <c r="O18" s="58"/>
       <c r="P18" s="58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q18" s="58"/>
       <c r="R18" s="58"/>
@@ -4960,13 +4973,13 @@
       <c r="A20" s="58"/>
       <c r="B20" s="58"/>
       <c r="C20" s="58" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D20" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" s="58" t="s">
         <v>210</v>
-      </c>
-      <c r="E20" s="58" t="s">
-        <v>211</v>
       </c>
       <c r="F20" s="58"/>
       <c r="G20" s="58"/>
@@ -4988,7 +5001,7 @@
       <c r="C21" s="58"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F21" s="58"/>
       <c r="G21" s="58"/>
@@ -5009,16 +5022,16 @@
         <v>6</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D22" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" s="58" t="s">
         <v>210</v>
-      </c>
-      <c r="E22" s="58" t="s">
-        <v>211</v>
       </c>
       <c r="F22" s="58"/>
       <c r="G22" s="58"/>
@@ -5040,7 +5053,7 @@
       <c r="C23" s="58"/>
       <c r="D23" s="58"/>
       <c r="E23" s="58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F23" s="58"/>
       <c r="G23" s="58"/>
@@ -5102,33 +5115,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="65" customFormat="1" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>247</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="86"/>
+      <c r="A1" s="87" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
     </row>
     <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>248</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -5146,19 +5159,19 @@
         <v>6</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C4" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="D4" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>251</v>
-      </c>
       <c r="F4" s="58" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -5166,29 +5179,29 @@
       <c r="B5" s="58"/>
       <c r="C5" s="58"/>
       <c r="D5" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="58"/>
       <c r="B6" s="58"/>
       <c r="C6" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="58" t="s">
         <v>253</v>
       </c>
-      <c r="D6" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="E6" s="58" t="s">
+      <c r="F6" s="58" t="s">
         <v>254</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -5196,19 +5209,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C7" s="58" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="D7" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" s="58" t="s">
+      <c r="F7" s="58" t="s">
         <v>257</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -5267,25 +5280,25 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B3" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="C3" s="58" t="s">
         <v>474</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>475</v>
       </c>
       <c r="D3" s="58"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="58" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D4" s="58"/>
     </row>
@@ -5327,65 +5340,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
-        <v>259</v>
-      </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
+      <c r="A1" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
     </row>
     <row r="2" spans="1:14" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="L2" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="L2" s="31" t="s">
-        <v>266</v>
-      </c>
       <c r="M2" s="52" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="N2" s="52" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -5411,52 +5424,52 @@
         <v>6</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G4" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="58"/>
       <c r="I4" s="58" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J4" s="58"/>
       <c r="K4" s="58"/>
       <c r="L4" s="58"/>
       <c r="M4" s="58" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N4" s="75" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="58"/>
       <c r="B5" s="58"/>
       <c r="C5" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D5" s="58"/>
       <c r="E5" s="58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="58"/>
       <c r="I5" s="58"/>
@@ -5471,31 +5484,31 @@
         <v>6</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D6" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="E6" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="F6" s="58" t="s">
+      <c r="G6" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="I6" s="58" t="s">
         <v>269</v>
       </c>
-      <c r="G6" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="I6" s="58" t="s">
-        <v>270</v>
-      </c>
       <c r="J6" s="58" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K6" s="58">
         <v>80</v>
@@ -5534,36 +5547,36 @@
   <sheetData>
     <row r="1" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="C1" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="37" t="s">
         <v>275</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E2" s="36">
         <v>301</v>
@@ -5574,16 +5587,16 @@
     </row>
     <row r="3" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E3" s="45">
         <v>302</v>
@@ -5594,16 +5607,16 @@
     </row>
     <row r="4" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B4" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" t="s">
         <v>279</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" t="s">
-        <v>280</v>
       </c>
       <c r="E4" s="45">
         <v>303</v>
@@ -5614,13 +5627,13 @@
     </row>
     <row r="5" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D5" s="66"/>
       <c r="E5" s="45">
@@ -5632,10 +5645,10 @@
     </row>
     <row r="6" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C6" s="35"/>
       <c r="E6" s="45">
@@ -5645,189 +5658,189 @@
     </row>
     <row r="7" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
       <c r="B12" s="45" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="45" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="45" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="45" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="45" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="45" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="45" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="45" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="45" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="45" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="45" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="45" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="45" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="45" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="45" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="45" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="45" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="45" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="45" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5862,49 +5875,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
-        <v>472</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
+      <c r="A1" s="93" t="s">
+        <v>471</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="61" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" s="61" t="s">
         <v>312</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="E2" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="F2" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="G2" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="H2" s="61" t="s">
         <v>316</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="I2" s="62" t="s">
         <v>317</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="J2" s="62" t="s">
         <v>318</v>
-      </c>
-      <c r="J2" s="62" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -5926,29 +5939,29 @@
         <v>6</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C4" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" s="42" t="s">
         <v>320</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="E4" s="42" t="s">
         <v>321</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>322</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="42" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I4" s="48" t="b">
         <v>1</v>
       </c>
       <c r="J4" s="49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -5957,20 +5970,20 @@
       <c r="C5" s="47"/>
       <c r="D5" s="42"/>
       <c r="E5" s="42" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F5" s="42"/>
       <c r="G5" s="42" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I5" s="48" t="b">
         <v>1</v>
       </c>
       <c r="J5" s="49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5978,14 +5991,14 @@
         <v>6</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D6" s="42"/>
       <c r="E6" s="43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F6" s="43"/>
       <c r="G6" s="42"/>
@@ -5998,16 +6011,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="E7" s="43" t="s">
         <v>329</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>330</v>
       </c>
       <c r="F7" s="43"/>
       <c r="G7" s="42"/>
@@ -6021,7 +6034,7 @@
       <c r="C8" s="47"/>
       <c r="D8" s="42"/>
       <c r="E8" s="43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F8" s="43"/>
       <c r="G8" s="42"/>
@@ -6034,17 +6047,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="F9" s="42" t="s">
         <v>333</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>334</v>
       </c>
       <c r="G9" s="42" t="b">
         <v>1</v>
@@ -6054,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -6063,7 +6076,7 @@
       <c r="C10" s="47"/>
       <c r="D10" s="42"/>
       <c r="E10" s="42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
@@ -6077,7 +6090,7 @@
       <c r="C11" s="50"/>
       <c r="D11" s="42"/>
       <c r="E11" s="42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
@@ -6091,7 +6104,7 @@
       <c r="C12" s="50"/>
       <c r="D12" s="42"/>
       <c r="E12" s="42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
@@ -6127,58 +6140,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
-        <v>339</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="86"/>
+      <c r="A1" s="96" t="s">
+        <v>338</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="89"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>344</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3" t="s">
         <v>346</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>347</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>348</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -6187,24 +6200,24 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B4" t="s">
         <v>346</v>
       </c>
-      <c r="B4" t="s">
-        <v>347</v>
-      </c>
       <c r="C4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4" t="s">
         <v>352</v>
       </c>
-      <c r="D4" t="s">
-        <v>353</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -6213,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -6221,16 +6234,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D5" t="s">
         <v>355</v>
       </c>
-      <c r="D5" t="s">
-        <v>356</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -6239,7 +6252,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -6247,16 +6260,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D6" t="s">
         <v>357</v>
       </c>
-      <c r="D6" t="s">
-        <v>358</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -6265,24 +6278,24 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C7" t="s">
         <v>359</v>
       </c>
-      <c r="B7" t="s">
-        <v>347</v>
-      </c>
-      <c r="C7" t="s">
-        <v>360</v>
-      </c>
       <c r="D7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -6291,24 +6304,24 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C8" t="s">
         <v>361</v>
       </c>
-      <c r="B8" t="s">
-        <v>347</v>
-      </c>
-      <c r="C8" t="s">
-        <v>362</v>
-      </c>
       <c r="D8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -6317,7 +6330,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -6367,101 +6380,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>363</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="96"/>
+      <c r="A1" s="97" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="99"/>
     </row>
     <row r="2" spans="1:23" s="65" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="21" t="s">
+      <c r="H2" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="I2" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="K2" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="L2" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="M2" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="N2" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="O2" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="P2" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="Q2" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="R2" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="S2" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="T2" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="U2" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="V2" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="W2" s="21" t="s">
         <v>382</v>
-      </c>
-      <c r="W2" s="21" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
@@ -6469,67 +6482,67 @@
         <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>387</v>
       </c>
       <c r="G3" s="4">
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I3" s="4">
         <v>256</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="U3" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="T3" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="U3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>399</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>400</v>
       </c>
       <c r="W3" s="8">
         <v>10</v>
@@ -6540,67 +6553,67 @@
         <v>6</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="G4" s="4">
         <v>2</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I4" s="4">
         <v>256</v>
       </c>
       <c r="J4" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>390</v>
-      </c>
       <c r="L4" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="U4" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="T4" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="8" t="s">
         <v>399</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>400</v>
       </c>
       <c r="W4" s="8">
         <v>15</v>
@@ -6696,31 +6709,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="3" customFormat="1" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
-        <v>415</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
+      <c r="A1" s="100" t="s">
+        <v>414</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
       <c r="X1" s="5"/>
     </row>
     <row r="2" spans="1:24" s="65" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6728,70 +6741,70 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>366</v>
-      </c>
       <c r="F2" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H2" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="K2" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="L2" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="M2" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="N2" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="O2" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="P2" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="Q2" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="R2" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="S2" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="T2" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="U2" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="V2" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="W2" s="21" t="s">
         <v>382</v>
-      </c>
-      <c r="W2" s="21" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
@@ -6799,67 +6812,67 @@
         <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>385</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>417</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>418</v>
       </c>
       <c r="G3" s="4">
         <v>2</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I3" s="4">
         <v>256</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>390</v>
-      </c>
       <c r="L3" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="S3" s="4" t="s">
-        <v>424</v>
-      </c>
       <c r="T3" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U3" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="V3" s="8" t="s">
         <v>399</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>400</v>
       </c>
       <c r="W3" s="8">
         <v>10</v>
@@ -6870,67 +6883,67 @@
         <v>6</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>402</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>426</v>
       </c>
       <c r="G4" s="4">
         <v>2</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I4" s="4">
         <v>256</v>
       </c>
       <c r="J4" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>390</v>
-      </c>
       <c r="L4" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>429</v>
-      </c>
       <c r="P4" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="R4" s="4" t="s">
-        <v>397</v>
-      </c>
       <c r="S4" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U4" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="V4" s="8" t="s">
         <v>399</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>400</v>
       </c>
       <c r="W4" s="8">
         <v>15</v>
@@ -7030,101 +7043,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" ht="67.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>431</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="96"/>
+      <c r="A1" s="97" t="s">
+        <v>430</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="99"/>
     </row>
     <row r="2" spans="1:23" s="65" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>432</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>366</v>
-      </c>
       <c r="G2" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I2" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="J2" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="K2" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="L2" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="M2" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="N2" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="O2" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="P2" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="Q2" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="R2" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="S2" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="T2" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="U2" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="V2" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="W2" s="21" t="s">
         <v>382</v>
-      </c>
-      <c r="W2" s="21" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7132,22 +7145,22 @@
         <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>435</v>
       </c>
       <c r="H3" s="4">
         <v>2</v>
@@ -7156,43 +7169,43 @@
         <v>256</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>390</v>
-      </c>
       <c r="L3" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M3" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="U3" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="T3" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="U3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>399</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>400</v>
       </c>
       <c r="W3" s="8">
         <v>10</v>
@@ -7271,159 +7284,159 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B1" s="76" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1" s="77" t="s">
         <v>520</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="D1" s="77" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>435</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>429</v>
+      </c>
+      <c r="G1" s="78" t="s">
         <v>521</v>
-      </c>
-      <c r="D1" s="77" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1" s="76" t="s">
-        <v>436</v>
-      </c>
-      <c r="F1" s="76" t="s">
-        <v>430</v>
-      </c>
-      <c r="G1" s="78" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E2" s="58" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F2" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G2" s="79" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B3" s="80" t="s">
+        <v>523</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>392</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>422</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>437</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>425</v>
+      </c>
+      <c r="G3" s="67" t="s">
         <v>524</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>393</v>
-      </c>
-      <c r="D3" s="67" t="s">
-        <v>423</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>438</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>426</v>
-      </c>
-      <c r="G3" s="67" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="58" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D4" s="58"/>
       <c r="E4" s="58" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F4" s="58"/>
       <c r="G4" s="58"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="58" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B5" s="58" t="s">
+        <v>526</v>
+      </c>
+      <c r="C5" s="58" t="s">
         <v>527</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>528</v>
       </c>
       <c r="D5" s="58"/>
       <c r="E5" s="58" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F5" s="58"/>
       <c r="G5" s="58"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="58" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B6" s="58"/>
       <c r="C6" s="58" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D6" s="58"/>
       <c r="E6" s="58" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F6" s="58"/>
       <c r="G6" s="58"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B7" s="58"/>
       <c r="C7" s="58" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D7" s="58"/>
       <c r="E7" s="58" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F7" s="58"/>
       <c r="G7" s="58"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="58" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B8" s="58"/>
       <c r="C8" s="58" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D8" s="58"/>
       <c r="E8" s="58" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F8" s="58"/>
       <c r="G8" s="58"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="58" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B9" s="58"/>
       <c r="C9" s="58" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D9" s="58"/>
       <c r="E9" s="58"/>
@@ -7432,11 +7445,11 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="58" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B10" s="58"/>
       <c r="C10" s="58" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D10" s="58"/>
       <c r="E10" s="58"/>
@@ -7445,11 +7458,11 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="58" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B11" s="58"/>
       <c r="C11" s="58" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
@@ -7458,11 +7471,11 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="58" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B12" s="58"/>
       <c r="C12" s="58" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D12" s="58"/>
       <c r="E12" s="58"/>
@@ -7473,7 +7486,7 @@
       <c r="A13" s="58"/>
       <c r="B13" s="58"/>
       <c r="C13" s="58" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D13" s="58"/>
       <c r="E13" s="58"/>
@@ -7484,7 +7497,7 @@
       <c r="A14" s="58"/>
       <c r="B14" s="58"/>
       <c r="C14" s="58" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D14" s="58"/>
       <c r="E14" s="58"/>
@@ -7507,7 +7520,7 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -7518,16 +7531,18 @@
     <col min="1" max="1" width="9.21875" style="57" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" style="57" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.77734375" style="57" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="65" customFormat="1" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="83"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="65" customFormat="1" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="84" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -7537,61 +7552,69 @@
       <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="51" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B3" s="58" t="s">
+        <v>448</v>
+      </c>
+      <c r="C3" s="58" t="s">
         <v>449</v>
       </c>
-      <c r="C3" s="58" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="58"/>
+    </row>
+    <row r="4" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="58" t="s">
+        <v>476</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>477</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="D4" s="58"/>
+    </row>
+    <row r="5" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="58" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>450</v>
+      </c>
+      <c r="C5" s="58" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58" t="s">
-        <v>346</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>451</v>
-      </c>
-      <c r="C5" s="58" t="s">
+      <c r="D5" s="58"/>
+    </row>
+    <row r="6" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" s="58" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
-        <v>346</v>
-      </c>
-      <c r="B6" s="58" t="s">
+      <c r="C6" s="58" t="s">
         <v>480</v>
       </c>
-      <c r="C6" s="58" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="58"/>
+    </row>
+    <row r="7" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="58"/>
       <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -7620,15 +7643,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="65" customFormat="1" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="86"/>
+      <c r="A1" s="87" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="89"/>
     </row>
     <row r="2" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -7638,39 +7661,39 @@
         <v>2</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D3" s="58" t="s">
+        <v>481</v>
+      </c>
+      <c r="E3" s="58" t="s">
         <v>482</v>
       </c>
-      <c r="E3" s="58" t="s">
-        <v>483</v>
-      </c>
       <c r="F3" s="67" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G3" s="58"/>
     </row>
@@ -7679,43 +7702,43 @@
         <v>6</v>
       </c>
       <c r="B4" s="71" t="s">
+        <v>483</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>470</v>
+      </c>
+      <c r="D4" s="72" t="s">
         <v>484</v>
       </c>
-      <c r="C4" s="71" t="s">
-        <v>471</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>485</v>
-      </c>
       <c r="E4" s="73" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F4" s="73" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="58" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B5" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>470</v>
+      </c>
+      <c r="D5" s="58" t="s">
         <v>486</v>
       </c>
-      <c r="C5" s="58" t="s">
-        <v>471</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>487</v>
-      </c>
       <c r="E5" s="58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -7724,13 +7747,13 @@
       <c r="C6" s="58"/>
       <c r="D6" s="58"/>
       <c r="E6" s="58" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G6" s="58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -7739,13 +7762,13 @@
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
       <c r="E7" s="58" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G7" s="58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -7754,13 +7777,13 @@
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
       <c r="E8" s="58" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F8" s="58" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G8" s="58" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -7769,34 +7792,34 @@
       <c r="C9" s="58"/>
       <c r="D9" s="58"/>
       <c r="E9" s="58" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F9" s="58" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G9" s="58"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="58" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B10" s="58" t="s">
+        <v>490</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>470</v>
+      </c>
+      <c r="D10" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="C10" s="58" t="s">
-        <v>471</v>
-      </c>
-      <c r="D10" s="58" t="s">
+      <c r="E10" s="58" t="s">
         <v>492</v>
       </c>
-      <c r="E10" s="58" t="s">
-        <v>493</v>
-      </c>
       <c r="F10" s="58" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G10" s="58" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -7805,10 +7828,10 @@
       <c r="C11" s="58"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G11" s="58"/>
     </row>
@@ -7858,85 +7881,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="209.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
-        <v>445</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="89"/>
+      <c r="A1" s="90" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
     </row>
     <row r="2" spans="1:11" s="65" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="E2" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="F2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="G2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="H2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="I2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="J2" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="K2" s="51" t="s">
         <v>20</v>
-      </c>
-      <c r="K2" s="51" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C3" s="58" t="s">
+        <v>493</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="58" t="s">
         <v>494</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="58" t="s">
-        <v>495</v>
       </c>
       <c r="K3" s="58"/>
     </row>
@@ -7984,47 +8007,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="65" customFormat="1" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="89"/>
+      <c r="A1" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="92"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="58"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="58" t="s">
         <v>30</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -8059,37 +8082,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="89"/>
+      <c r="A1" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="92"/>
     </row>
     <row r="2" spans="1:7" s="65" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8171,77 +8194,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="89"/>
+      <c r="A1" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:17" s="65" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="F2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="H2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="K2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="M2" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="N2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="O2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="P2" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="18" t="s">
-        <v>50</v>
-      </c>
       <c r="Q2" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -8249,43 +8272,43 @@
         <v>6</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D3" s="58" t="s">
+        <v>495</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="58" t="s">
         <v>496</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>497</v>
       </c>
       <c r="H3" s="58"/>
       <c r="I3" s="58"/>
       <c r="J3" s="58"/>
       <c r="K3" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="68" t="s">
-        <v>25</v>
-      </c>
       <c r="M3" s="68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N3" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="68" t="s">
         <v>24</v>
-      </c>
-      <c r="O3" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="68" t="s">
-        <v>25</v>
       </c>
       <c r="Q3" s="69"/>
     </row>
@@ -8294,43 +8317,43 @@
         <v>6</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D4" s="58" t="s">
+        <v>497</v>
+      </c>
+      <c r="E4" s="58" t="s">
         <v>498</v>
       </c>
-      <c r="E4" s="58" t="s">
-        <v>499</v>
-      </c>
       <c r="F4" s="58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" s="58"/>
       <c r="I4" s="58"/>
       <c r="J4" s="58"/>
       <c r="K4" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="68" t="s">
-        <v>25</v>
-      </c>
       <c r="M4" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="68" t="s">
-        <v>25</v>
-      </c>
       <c r="O4" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="68" t="s">
         <v>24</v>
-      </c>
-      <c r="P4" s="68" t="s">
-        <v>25</v>
       </c>
       <c r="Q4" s="69"/>
     </row>
@@ -8339,43 +8362,43 @@
         <v>6</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D5" s="58" t="s">
+        <v>499</v>
+      </c>
+      <c r="E5" s="58" t="s">
         <v>500</v>
       </c>
-      <c r="E5" s="58" t="s">
-        <v>501</v>
-      </c>
       <c r="F5" s="58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H5" s="58"/>
       <c r="I5" s="58"/>
       <c r="J5" s="58"/>
       <c r="K5" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="68" t="s">
+        <v>456</v>
+      </c>
+      <c r="M5" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="68" t="s">
-        <v>457</v>
-      </c>
-      <c r="M5" s="68" t="s">
+      <c r="O5" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="68" t="s">
         <v>24</v>
-      </c>
-      <c r="N5" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="68" t="s">
-        <v>25</v>
       </c>
       <c r="Q5" s="69"/>
     </row>
@@ -8439,98 +8462,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
+      <c r="A1" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="92"/>
     </row>
     <row r="2" spans="1:14" s="65" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="51" t="s">
+      <c r="K2" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="K2" s="51" t="s">
+      <c r="L2" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="M2" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="N2" s="51" t="s">
         <v>101</v>
-      </c>
-      <c r="N2" s="51" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G3" s="58" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="58"/>
       <c r="I3" s="58" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J3" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="58" t="s">
         <v>106</v>
-      </c>
-      <c r="K3" s="58" t="s">
-        <v>107</v>
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
@@ -8538,35 +8561,35 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="58" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G4" s="58" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="58"/>
       <c r="I4" s="58" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J4" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="58" t="s">
         <v>106</v>
-      </c>
-      <c r="K4" s="58" t="s">
-        <v>107</v>
       </c>
       <c r="L4" s="58"/>
       <c r="M4" s="58"/>
@@ -8574,35 +8597,35 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G5" s="58" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="67"/>
       <c r="I5" s="58" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J5" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="58" t="s">
         <v>106</v>
-      </c>
-      <c r="K5" s="58" t="s">
-        <v>107</v>
       </c>
       <c r="L5" s="58"/>
       <c r="M5" s="58"/>
@@ -8610,35 +8633,35 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G6" s="58" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="67"/>
       <c r="I6" s="58" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J6" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="58" t="s">
         <v>106</v>
-      </c>
-      <c r="K6" s="58" t="s">
-        <v>107</v>
       </c>
       <c r="L6" s="58"/>
       <c r="M6" s="58"/>
@@ -8646,35 +8669,35 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="67" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C7" s="67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E7" s="58" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G7" s="58" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="58"/>
       <c r="I7" s="58" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J7" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="58" t="s">
         <v>106</v>
-      </c>
-      <c r="K7" s="58" t="s">
-        <v>107</v>
       </c>
       <c r="L7" s="58"/>
       <c r="M7" s="58"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-mvt-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-mvt-template.xlsx
@@ -2480,6 +2480,7 @@
       <sheetName val="TagServer"/>
       <sheetName val="TagVolume"/>
       <sheetName val="NSGs"/>
+      <sheetName val="Sheet 2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -2530,6 +2531,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-mvt-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-mvt-template.xlsx
@@ -3661,36 +3661,6 @@
   </si>
   <si>
     <r>
-      <t>Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
-If the shape is VM.Standard.E3.Flex then specify it as VM.Standard.E3.Flex::&lt;ocpus&gt;
-"Defined Tags" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
-                               </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
 LBR Subnets:</t>
     </r>
@@ -4586,79 +4556,6 @@
   <si>
     <r>
       <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-"Attached To Instance"  - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Make sure to enter the exact name as entered in "Display Name" column of Instances Tab.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Backup Policy" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Leave it empty to not attach any backup policy to the block volume.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Defined Tags"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
-                              </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
 Columns: Region, Compartment Name, Availability Domain, MountTarget Name, MountTarget SubnetName, FSS name, Path are mandatory.
 Freeform and Defined Tags - If specified, Applies to FSS object only and not to other components like Mount Target.
 Enter subnet name as : </t>
@@ -5128,6 +5025,142 @@
   </si>
   <si>
     <t>image::Linux</t>
+  </si>
+  <si>
+    <r>
+      <t>Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
+If the shape is VM.Standard.E3.Flex then specify it as VM.Standard.E3.Flex::&lt;ocpus&gt;
+"Defined Tags" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
+                               </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Example: Operations.CostCenter=01;Users.Name=user01
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Backup Policy"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Leave it empty to not attach any backup policy to the boot volume.
+                                   Values can be either of the following: Gold | Silver | Bronze</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+"Attached To Instance"  - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Make sure to enter the exact name as entered in "Display Name" column of Instances Tab.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Backup Policy" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Leave it empty to not attach any backup policy to the block volume.
+                                  Values can be either of the following: Gold | Silver | Bronze
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Defined Tags"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
+                              </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
@@ -5894,27 +5927,27 @@
       <sheetName val="Database_Dropdown"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
       <sheetData sheetId="21">
         <row r="2">
           <cell r="E2">
@@ -5954,10 +5987,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
       <sheetData sheetId="26">
         <row r="2">
           <cell r="A2" t="str">
@@ -6779,7 +6812,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="102" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B1" s="102"/>
       <c r="C1" s="102"/>
@@ -6858,7 +6891,7 @@
         <v>325</v>
       </c>
       <c r="I4" s="79" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J4" s="56"/>
     </row>
@@ -6932,7 +6965,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="61" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="88" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
@@ -7131,7 +7164,7 @@
         <v>15</v>
       </c>
       <c r="X4" s="43" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
@@ -7205,7 +7238,7 @@
         <v>15</v>
       </c>
       <c r="X5" s="43" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -7276,7 +7309,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="61" customFormat="1" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="94" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
@@ -7475,7 +7508,7 @@
         <v>15</v>
       </c>
       <c r="X4" s="41" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
@@ -7593,7 +7626,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:1" ht="58.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="87" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -7654,10 +7687,10 @@
         <v>322</v>
       </c>
       <c r="B3" s="43" t="s">
+        <v>491</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>492</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>493</v>
       </c>
       <c r="D3" s="43"/>
       <c r="E3" s="43"/>
@@ -7670,7 +7703,7 @@
         <v>376</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D4" s="43"/>
       <c r="E4" s="43"/>
@@ -7758,10 +7791,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>495</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>496</v>
       </c>
       <c r="D4" s="43"/>
       <c r="E4" s="43"/>
@@ -7774,7 +7807,7 @@
         <v>379</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
@@ -7784,10 +7817,10 @@
         <v>322</v>
       </c>
       <c r="B6" s="43" t="s">
+        <v>497</v>
+      </c>
+      <c r="C6" s="43" t="s">
         <v>498</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>499</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
@@ -7885,7 +7918,7 @@
         <v>455</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F3" s="52" t="s">
         <v>377</v>
@@ -7898,19 +7931,19 @@
         <v>5</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>399</v>
       </c>
       <c r="D4" s="85" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E4" s="86" t="s">
         <v>382</v>
       </c>
       <c r="F4" s="86" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G4" s="56"/>
       <c r="H4" s="43"/>
@@ -7920,19 +7953,19 @@
         <v>322</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>399</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E5" s="43" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G5" s="84" t="s">
         <v>376</v>
@@ -7945,10 +7978,10 @@
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
       <c r="E6" s="43" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G6" s="84" t="s">
         <v>376</v>
@@ -7961,10 +7994,10 @@
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
       <c r="E7" s="43" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G7" s="84" t="s">
         <v>376</v>
@@ -7977,13 +8010,13 @@
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
       <c r="E8" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G8" s="84" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H8" s="43"/>
     </row>
@@ -7996,7 +8029,7 @@
         <v>382</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G9" s="84"/>
       <c r="H9" s="43"/>
@@ -8006,22 +8039,22 @@
         <v>322</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C10" s="43" t="s">
         <v>399</v>
       </c>
       <c r="D10" s="43" t="s">
+        <v>508</v>
+      </c>
+      <c r="E10" s="43" t="s">
         <v>509</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>510</v>
       </c>
       <c r="F10" s="43" t="s">
         <v>379</v>
       </c>
       <c r="G10" s="84" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H10" s="43"/>
     </row>
@@ -8089,7 +8122,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="209.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="88" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
@@ -8097,7 +8130,7 @@
       <c r="E1" s="89"/>
       <c r="F1" s="90"/>
       <c r="G1" s="88" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H1" s="89"/>
       <c r="I1" s="89"/>
@@ -8148,10 +8181,10 @@
         <v>322</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D3" s="43" t="s">
         <v>21</v>
@@ -8172,7 +8205,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="43" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K3" s="43"/>
       <c r="L3" s="38"/>
@@ -8388,7 +8421,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="94" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
@@ -8535,7 +8568,7 @@
       <c r="R4" s="43"/>
       <c r="S4" s="43"/>
       <c r="T4" s="41" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8790,13 +8823,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E3" s="43" t="s">
         <v>46</v>
@@ -8805,7 +8838,7 @@
         <v>47</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
@@ -8836,16 +8869,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D4" s="43" t="s">
+        <v>514</v>
+      </c>
+      <c r="E4" s="43" t="s">
         <v>515</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>516</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>47</v>
@@ -8882,16 +8915,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D5" s="43" t="s">
+        <v>516</v>
+      </c>
+      <c r="E5" s="43" t="s">
         <v>517</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>518</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>47</v>
@@ -8988,7 +9021,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="103" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -8997,7 +9030,7 @@
       <c r="F1" s="104"/>
       <c r="G1" s="105"/>
       <c r="H1" s="103" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="I1" s="104"/>
       <c r="J1" s="104"/>
@@ -9033,7 +9066,7 @@
         <v>86</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J2" s="36" t="s">
         <v>78</v>
@@ -9065,20 +9098,20 @@
         <v>48</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E3" s="43" t="s">
         <v>374</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G3" s="43" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="43"/>
       <c r="I3" s="43" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>95</v>
@@ -9102,20 +9135,20 @@
         <v>48</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E4" s="43" t="s">
         <v>97</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G4" s="43" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="43"/>
       <c r="I4" s="43" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J4" s="43" t="s">
         <v>95</v>
@@ -9139,20 +9172,20 @@
         <v>48</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E5" s="43" t="s">
         <v>374</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G5" s="43" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="52"/>
       <c r="I5" s="43" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J5" s="43" t="s">
         <v>95</v>
@@ -9176,20 +9209,20 @@
         <v>48</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E6" s="43" t="s">
         <v>97</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G6" s="43" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="52"/>
       <c r="I6" s="43" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J6" s="43" t="s">
         <v>95</v>
@@ -9213,20 +9246,20 @@
         <v>48</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E7" s="43" t="s">
         <v>374</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G7" s="43" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="43"/>
       <c r="I7" s="43" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>95</v>
@@ -9264,7 +9297,7 @@
     <mergeCell ref="H1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9293,9 +9326,9 @@
     <col min="10" max="16384" width="8.88671875" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="94" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
@@ -9343,7 +9376,7 @@
         <v>376</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D3" s="43">
         <v>500</v>
@@ -9352,7 +9385,7 @@
         <v>48</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G3" s="43" t="s">
         <v>102</v>
@@ -9368,7 +9401,7 @@
         <v>376</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D4" s="43">
         <v>500</v>
@@ -9377,7 +9410,7 @@
         <v>48</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G4" s="43" t="s">
         <v>102</v>
@@ -9393,7 +9426,7 @@
         <v>376</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D5" s="43">
         <v>500</v>
@@ -9402,7 +9435,7 @@
         <v>48</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G5" s="43" t="s">
         <v>102</v>
@@ -9418,7 +9451,7 @@
         <v>376</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D6" s="43">
         <v>500</v>
@@ -9427,7 +9460,7 @@
         <v>48</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G6" s="43" t="s">
         <v>102</v>
@@ -9443,7 +9476,7 @@
         <v>376</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D7" s="43">
         <v>500</v>
@@ -9452,7 +9485,7 @@
         <v>48</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G7" s="43" t="s">
         <v>102</v>
@@ -9699,7 +9732,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="103" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -9709,7 +9742,7 @@
       <c r="G1" s="104"/>
       <c r="H1" s="105"/>
       <c r="I1" s="106" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J1" s="106"/>
       <c r="K1" s="106"/>
@@ -9830,7 +9863,7 @@
         <v>459</v>
       </c>
       <c r="Q4" s="41" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -10074,7 +10107,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="61" customFormat="1" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="94" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
@@ -10272,7 +10305,7 @@
         <v>10</v>
       </c>
       <c r="X4" s="41" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
@@ -10571,7 +10604,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="94" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
@@ -10634,7 +10667,7 @@
         <v>94</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10711,7 +10744,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="94" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
@@ -10840,7 +10873,7 @@
         <v>452</v>
       </c>
       <c r="P4" s="41" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-mvt-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-mvt-template.xlsx
@@ -2176,90 +2176,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
-"Compartment Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Specify compartment as 'root' to create the Tags in 'root' compartment.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Is Cost Tracking" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Defaults to"FALSE", if left empty.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Region" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Specify your tenancy's Home Region for creating Tags.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Validator"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - This field is equivalent to specifying a list of values to Defined Tags during its creation (in OCI Console).
-                    For entering values of type "list" use ENUM::&lt;values in double quotes separated by comma&gt;.
-                    For type "string" use ENUM::"&lt;value&gt;".</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
 "Parent Compartment" -</t>
     </r>
@@ -3461,77 +3377,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>release verion-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>v7.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Major Features - Jinja Template, Terraform Upgrade, Events and Notifications, Export of all the components except DBs, New feature support for Groups,Tags, Instances and LBR.
 </t>
     </r>
   </si>
@@ -5457,6 +5302,162 @@
   </si>
   <si>
     <t>mvt-db_Disk2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>release version-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v7.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Major Features - Jinja Template, Terraform Upgrade, Events and Notifications, Export of all the components except DBs, New feature support for Groups,Tags, Instances and LBR.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
+"Compartment Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Specify compartment as 'root' to create the Tags in 'root' compartment.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Is Cost Tracking" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Defaults to"FALSE", if left empty.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Region" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Specify your tenancy's Home Region for creating Tags.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Validator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - This field is equivalent to specifying a list of values to Defined Tags during its creation (in OCI Console).
+                     For entering values of type "list" use ENUM::&lt;values in double quotes separated by comma&gt;.
+                    Usage of comma is prohibited in the content of the value.e.g. value cannot be "dev,test"
+                    For type "string" use ENUM::"&lt;value&gt;".</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6127,6 +6128,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6181,9 +6185,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6586,7 +6587,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:1" ht="58.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="87" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -6626,25 +6627,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="117" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
-        <v>504</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="96" t="s">
-        <v>494</v>
-      </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="98"/>
+      <c r="A1" s="99" t="s">
+        <v>502</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="99" t="s">
+        <v>492</v>
+      </c>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="101"/>
     </row>
     <row r="2" spans="1:15" s="53" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
@@ -6672,7 +6673,7 @@
         <v>86</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J2" s="39" t="s">
         <v>78</v>
@@ -6704,20 +6705,20 @@
         <v>48</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E3" s="46" t="s">
         <v>370</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G3" s="46" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="46"/>
       <c r="I3" s="46" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J3" s="46" t="s">
         <v>95</v>
@@ -6741,20 +6742,20 @@
         <v>48</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E4" s="46" t="s">
         <v>97</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G4" s="46" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="46"/>
       <c r="I4" s="46" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J4" s="46" t="s">
         <v>95</v>
@@ -6778,20 +6779,20 @@
         <v>48</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E5" s="46" t="s">
         <v>370</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G5" s="46" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="55"/>
       <c r="I5" s="46" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J5" s="46" t="s">
         <v>95</v>
@@ -6815,20 +6816,20 @@
         <v>48</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E6" s="46" t="s">
         <v>97</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G6" s="46" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="55"/>
       <c r="I6" s="46" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J6" s="46" t="s">
         <v>95</v>
@@ -6852,20 +6853,20 @@
         <v>48</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E7" s="46" t="s">
         <v>370</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G7" s="46" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="46"/>
       <c r="I7" s="46" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J7" s="46" t="s">
         <v>95</v>
@@ -6931,17 +6932,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
-        <v>493</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
+      <c r="A1" s="91" t="s">
+        <v>491</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
     </row>
     <row r="2" spans="1:9" s="53" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -6980,7 +6981,7 @@
         <v>372</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D3" s="46">
         <v>500</v>
@@ -6989,7 +6990,7 @@
         <v>48</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G3" s="46" t="s">
         <v>102</v>
@@ -7005,7 +7006,7 @@
         <v>372</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D4" s="46">
         <v>500</v>
@@ -7014,7 +7015,7 @@
         <v>48</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G4" s="46" t="s">
         <v>102</v>
@@ -7030,7 +7031,7 @@
         <v>372</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D5" s="46">
         <v>500</v>
@@ -7039,7 +7040,7 @@
         <v>48</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G5" s="46" t="s">
         <v>102</v>
@@ -7055,7 +7056,7 @@
         <v>372</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D6" s="46">
         <v>500</v>
@@ -7064,7 +7065,7 @@
         <v>48</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G6" s="46" t="s">
         <v>102</v>
@@ -7080,7 +7081,7 @@
         <v>372</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D7" s="46">
         <v>500</v>
@@ -7089,7 +7090,7 @@
         <v>48</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G7" s="46" t="s">
         <v>102</v>
@@ -7144,17 +7145,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
-        <v>472</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
+      <c r="A1" s="91" t="s">
+        <v>471</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -7218,25 +7219,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
-        <v>473</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
+      <c r="A1" s="91" t="s">
+        <v>472</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -7325,28 +7326,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
-        <v>480</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
+      <c r="A1" s="91" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -7473,7 +7474,7 @@
       <c r="R4" s="46"/>
       <c r="S4" s="46"/>
       <c r="T4" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7630,15 +7631,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
-        <v>481</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
+      <c r="A1" s="91" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
     </row>
     <row r="2" spans="1:7" s="53" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
@@ -7694,7 +7695,7 @@
         <v>94</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7776,27 +7777,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
-        <v>492</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99" t="s">
-        <v>482</v>
-      </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
+      <c r="A1" s="99" t="s">
+        <v>490</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102" t="s">
+        <v>481</v>
+      </c>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -7908,7 +7909,7 @@
         <v>455</v>
       </c>
       <c r="Q4" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8135,24 +8136,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
-        <v>474</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
+      <c r="A1" s="91" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
     </row>
     <row r="2" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -8265,7 +8266,7 @@
         <v>448</v>
       </c>
       <c r="P4" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -8371,29 +8372,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
-        <v>501</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="91"/>
+      <c r="A1" s="92" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="94"/>
     </row>
     <row r="2" spans="1:21" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
@@ -8427,7 +8428,7 @@
         <v>159</v>
       </c>
       <c r="K2" s="47" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L2" s="47" t="s">
         <v>160</v>
@@ -8454,10 +8455,10 @@
         <v>397</v>
       </c>
       <c r="T2" s="40" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="U2" s="40" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -8673,29 +8674,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="92" t="s">
         <v>464</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="92" t="s">
-        <v>497</v>
-      </c>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="101"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="95" t="s">
+        <v>495</v>
+      </c>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="104"/>
     </row>
     <row r="2" spans="1:19" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -8741,7 +8742,7 @@
         <v>188</v>
       </c>
       <c r="O2" s="40" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>189</v>
@@ -9364,13 +9365,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="53" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
-        <v>467</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
+      <c r="A1" s="91" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
@@ -9394,10 +9395,10 @@
         <v>322</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
@@ -9410,7 +9411,7 @@
         <v>372</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -9450,14 +9451,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="53" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="105" t="s">
         <v>465</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="104"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="107"/>
     </row>
     <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -9594,24 +9595,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
-        <v>500</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
+      <c r="A1" s="91" t="s">
+        <v>498</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
     </row>
     <row r="2" spans="1:16" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -9657,10 +9658,10 @@
         <v>397</v>
       </c>
       <c r="O2" s="40" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="P2" s="40" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -10152,17 +10153,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
-        <v>495</v>
-      </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
+      <c r="A1" s="108" t="s">
+        <v>493</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -10232,7 +10233,7 @@
         <v>325</v>
       </c>
       <c r="I4" s="82" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J4" s="59"/>
     </row>
@@ -10306,32 +10307,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="64" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
-        <v>483</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="91"/>
+      <c r="A1" s="92" t="s">
+        <v>482</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="94"/>
     </row>
     <row r="2" spans="1:24" s="80" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
@@ -10506,7 +10507,7 @@
         <v>15</v>
       </c>
       <c r="X4" s="46" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
@@ -10580,7 +10581,7 @@
         <v>15</v>
       </c>
       <c r="X5" s="46" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -10650,32 +10651,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="64" customFormat="1" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
-        <v>484</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
+      <c r="A1" s="91" t="s">
+        <v>483</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
     </row>
     <row r="2" spans="1:24" s="80" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
@@ -10850,7 +10851,7 @@
         <v>15</v>
       </c>
       <c r="X4" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
@@ -10990,32 +10991,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="64" customFormat="1" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
-        <v>491</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
+      <c r="A1" s="91" t="s">
+        <v>489</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
     </row>
     <row r="2" spans="1:24" s="80" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
@@ -11189,7 +11190,7 @@
         <v>10</v>
       </c>
       <c r="X4" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
@@ -11394,7 +11395,7 @@
       </c>
       <c r="D9" s="46"/>
       <c r="E9" s="46" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F9" s="46"/>
       <c r="G9" s="46"/>
@@ -11407,7 +11408,7 @@
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="46" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F10" s="46"/>
       <c r="G10" s="46"/>
@@ -11420,7 +11421,7 @@
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="46" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
@@ -11481,17 +11482,17 @@
     <col min="2" max="2" width="16.5546875" style="45" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" style="45" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="53" customFormat="1" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
-        <v>468</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
+      <c r="A1" s="91" t="s">
+        <v>467</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -11528,10 +11529,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -11544,7 +11545,7 @@
         <v>375</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
@@ -11554,10 +11555,10 @@
         <v>322</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
@@ -11606,16 +11607,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="53" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
-        <v>469</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
+      <c r="A1" s="91" t="s">
+        <v>468</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
     </row>
     <row r="2" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -11657,12 +11658,12 @@
         <v>451</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F3" s="55" t="s">
         <v>373</v>
       </c>
-      <c r="G3" s="106"/>
+      <c r="G3" s="88"/>
       <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -11670,19 +11671,19 @@
         <v>5</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C4" s="59" t="s">
         <v>395</v>
       </c>
-      <c r="D4" s="107" t="s">
-        <v>515</v>
-      </c>
-      <c r="E4" s="108" t="s">
+      <c r="D4" s="89" t="s">
+        <v>513</v>
+      </c>
+      <c r="E4" s="90" t="s">
         <v>378</v>
       </c>
-      <c r="F4" s="108" t="s">
-        <v>508</v>
+      <c r="F4" s="90" t="s">
+        <v>506</v>
       </c>
       <c r="G4" s="59"/>
       <c r="H4" s="46"/>
@@ -11692,21 +11693,21 @@
         <v>322</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C5" s="46" t="s">
         <v>395</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E5" s="46" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>511</v>
-      </c>
-      <c r="G5" s="106" t="s">
+        <v>509</v>
+      </c>
+      <c r="G5" s="88" t="s">
         <v>372</v>
       </c>
       <c r="H5" s="46"/>
@@ -11717,12 +11718,12 @@
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
       <c r="E6" s="46" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>511</v>
-      </c>
-      <c r="G6" s="106" t="s">
+        <v>509</v>
+      </c>
+      <c r="G6" s="88" t="s">
         <v>372</v>
       </c>
       <c r="H6" s="46"/>
@@ -11733,12 +11734,12 @@
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
       <c r="E7" s="46" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>511</v>
-      </c>
-      <c r="G7" s="106" t="s">
+        <v>509</v>
+      </c>
+      <c r="G7" s="88" t="s">
         <v>372</v>
       </c>
       <c r="H7" s="46"/>
@@ -11749,13 +11750,13 @@
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
       <c r="E8" s="46" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>511</v>
-      </c>
-      <c r="G8" s="106" t="s">
-        <v>505</v>
+        <v>509</v>
+      </c>
+      <c r="G8" s="88" t="s">
+        <v>503</v>
       </c>
       <c r="H8" s="46"/>
     </row>
@@ -11768,9 +11769,9 @@
         <v>378</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>511</v>
-      </c>
-      <c r="G9" s="106"/>
+        <v>509</v>
+      </c>
+      <c r="G9" s="88"/>
       <c r="H9" s="46"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -11778,22 +11779,22 @@
         <v>322</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C10" s="46" t="s">
         <v>395</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F10" s="46" t="s">
         <v>375</v>
       </c>
-      <c r="G10" s="106" t="s">
-        <v>505</v>
+      <c r="G10" s="88" t="s">
+        <v>503</v>
       </c>
       <c r="H10" s="46"/>
     </row>
@@ -11808,7 +11809,7 @@
       <c r="F11" s="46" t="s">
         <v>375</v>
       </c>
-      <c r="G11" s="106"/>
+      <c r="G11" s="88"/>
       <c r="H11" s="46"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -11820,7 +11821,7 @@
       <c r="D12" s="46"/>
       <c r="E12" s="46"/>
       <c r="F12" s="46"/>
-      <c r="G12" s="106"/>
+      <c r="G12" s="88"/>
       <c r="H12" s="46"/>
     </row>
   </sheetData>
@@ -11854,20 +11855,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
-        <v>466</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="92" t="s">
-        <v>503</v>
-      </c>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
+      <c r="A1" s="92" t="s">
+        <v>543</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="95" t="s">
+        <v>501</v>
+      </c>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
@@ -12130,22 +12131,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="45" customFormat="1" ht="187.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
-        <v>486</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="89" t="s">
-        <v>487</v>
-      </c>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="91"/>
+      <c r="A1" s="92" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="92" t="s">
+        <v>485</v>
+      </c>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="94"/>
     </row>
     <row r="2" spans="1:12" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -12190,10 +12191,10 @@
         <v>322</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>21</v>
@@ -12214,7 +12215,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="46" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="K3" s="46"/>
       <c r="L3" s="41"/>
@@ -12265,10 +12266,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="53" customFormat="1" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="91" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="94"/>
+      <c r="B1" s="97"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -12341,16 +12342,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
-        <v>470</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
+      <c r="A1" s="91" t="s">
+        <v>469</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
     </row>
     <row r="2" spans="1:8" s="53" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -12432,28 +12433,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="173.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="92" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="95" t="s">
-        <v>471</v>
-      </c>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="98" t="s">
+        <v>470</v>
+      </c>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
     </row>
     <row r="2" spans="1:18" s="53" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -12516,13 +12517,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C3" s="46" t="s">
+        <v>522</v>
+      </c>
+      <c r="D3" s="46" t="s">
         <v>524</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>526</v>
       </c>
       <c r="E3" s="46" t="s">
         <v>46</v>
@@ -12531,7 +12532,7 @@
         <v>47</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H3" s="46"/>
       <c r="I3" s="46"/>
@@ -12562,16 +12563,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>47</v>
@@ -12608,16 +12609,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>47</v>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-mvt-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-mvt-template.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Compartments" sheetId="2" r:id="rId2"/>
     <sheet name="Groups" sheetId="3" r:id="rId3"/>
     <sheet name="Policies" sheetId="4" r:id="rId4"/>
-    <sheet name="Tags" sheetId="22" state="hidden" r:id="rId5"/>
+    <sheet name="Tags" sheetId="22" r:id="rId5"/>
     <sheet name="VCNs" sheetId="5" r:id="rId6"/>
     <sheet name="VCN Info" sheetId="6" r:id="rId7"/>
     <sheet name="DHCP" sheetId="7" r:id="rId8"/>
@@ -5455,7 +5455,6 @@
       </rPr>
       <t xml:space="preserve"> - This field is equivalent to specifying a list of values to Defined Tags during its creation (in OCI Console).
                      For entering values of type "list" use ENUM::&lt;values in double quotes separated by comma&gt;.
-                    Usage of comma is prohibited in the content of the value.e.g. value cannot be "dev,test"
                     For type "string" use ENUM::"&lt;value&gt;".</t>
     </r>
   </si>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-mvt-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-mvt-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ocifromnewgit\oci_tenancy\SetUpOCI_Via_TF\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ATK7.0-Demo\code\oci_tenancy\SetUpOCI_Via_TF\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="651">
   <si>
     <t>Region</t>
   </si>
@@ -6637,6 +6637,9 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6700,9 +6703,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7146,26 +7146,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="102" t="s">
         <v>493</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="92" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="95" t="s">
         <v>603</v>
       </c>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="94"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="97"/>
     </row>
     <row r="2" spans="1:16" s="54" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -7462,18 +7462,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>604</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
     </row>
     <row r="2" spans="1:10" s="54" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -7685,17 +7685,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>467</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -7759,25 +7759,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>468</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -7866,28 +7866,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>475</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -8171,15 +8171,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>476</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
     </row>
     <row r="2" spans="1:7" s="54" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -8317,27 +8317,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="105" t="s">
         <v>483</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="105" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108" t="s">
         <v>477</v>
       </c>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -8676,24 +8676,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>469</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
     </row>
     <row r="2" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -8912,29 +8912,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>490</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="94"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="97"/>
     </row>
     <row r="2" spans="1:21" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="s">
@@ -9214,29 +9214,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="95" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="98" t="s">
         <v>486</v>
       </c>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="107"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="110"/>
     </row>
     <row r="2" spans="1:19" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -9905,13 +9905,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="54" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -9991,14 +9991,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>461</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="110"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="113"/>
     </row>
     <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -10135,24 +10135,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>489</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
     </row>
     <row r="2" spans="1:16" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -10693,17 +10693,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="114" t="s">
         <v>484</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -10848,32 +10848,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="65" customFormat="1" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>609</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="94"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="97"/>
     </row>
     <row r="2" spans="1:24" s="81" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="84" t="s">
@@ -11198,32 +11198,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="65" customFormat="1" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>610</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="94"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="97"/>
     </row>
     <row r="2" spans="1:24" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="84" t="s">
@@ -11547,32 +11547,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="65" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>611</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="94"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="97"/>
     </row>
     <row r="2" spans="1:24" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="84" t="s">
@@ -12571,13 +12571,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="54" customFormat="1" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -12689,16 +12689,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="54" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>464</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -12745,7 +12745,7 @@
       <c r="F3" s="56" t="s">
         <v>371</v>
       </c>
-      <c r="G3" s="112"/>
+      <c r="G3" s="91"/>
       <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" s="46" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12758,13 +12758,13 @@
       <c r="C4" s="60" t="s">
         <v>393</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="D4" s="92" t="s">
         <v>622</v>
       </c>
-      <c r="E4" s="114" t="s">
+      <c r="E4" s="93" t="s">
         <v>376</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="93" t="s">
         <v>615</v>
       </c>
       <c r="G4" s="60"/>
@@ -12789,7 +12789,7 @@
       <c r="F5" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="G5" s="112" t="s">
+      <c r="G5" s="91" t="s">
         <v>370</v>
       </c>
       <c r="H5" s="47"/>
@@ -12805,7 +12805,7 @@
       <c r="F6" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="G6" s="112" t="s">
+      <c r="G6" s="91" t="s">
         <v>370</v>
       </c>
       <c r="H6" s="47"/>
@@ -12821,7 +12821,7 @@
       <c r="F7" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="G7" s="112" t="s">
+      <c r="G7" s="91" t="s">
         <v>370</v>
       </c>
       <c r="H7" s="47"/>
@@ -12837,7 +12837,7 @@
       <c r="F8" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="G8" s="112" t="s">
+      <c r="G8" s="91" t="s">
         <v>612</v>
       </c>
       <c r="H8" s="47"/>
@@ -12853,7 +12853,7 @@
       <c r="F9" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="G9" s="112"/>
+      <c r="G9" s="91"/>
       <c r="H9" s="47"/>
     </row>
     <row r="10" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
@@ -12875,7 +12875,7 @@
       <c r="F10" s="47" t="s">
         <v>373</v>
       </c>
-      <c r="G10" s="112" t="s">
+      <c r="G10" s="91" t="s">
         <v>612</v>
       </c>
       <c r="H10" s="47"/>
@@ -12891,7 +12891,7 @@
       <c r="F11" s="47" t="s">
         <v>373</v>
       </c>
-      <c r="G11" s="112"/>
+      <c r="G11" s="91"/>
       <c r="H11" s="47"/>
     </row>
     <row r="12" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
@@ -12903,7 +12903,7 @@
       <c r="D12" s="47"/>
       <c r="E12" s="47"/>
       <c r="F12" s="47"/>
-      <c r="G12" s="112"/>
+      <c r="G12" s="91"/>
       <c r="H12" s="47"/>
     </row>
   </sheetData>
@@ -12937,20 +12937,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>495</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="95" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98" t="s">
         <v>492</v>
       </c>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="97"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="100"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
@@ -13213,22 +13213,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="46" customFormat="1" ht="187.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>478</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="92" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="95" t="s">
         <v>479</v>
       </c>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="94"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="97"/>
     </row>
     <row r="2" spans="1:12" s="54" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -13348,10 +13348,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="54" customFormat="1" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="100"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -13424,16 +13424,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>465</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" s="54" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -13487,10 +13487,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13515,28 +13515,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="173.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="98" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="101" t="s">
         <v>466</v>
       </c>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
     </row>
     <row r="2" spans="1:18" s="54" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -13754,166 +13754,6 @@
       <c r="Q6" s="47"/>
       <c r="R6" s="47"/>
     </row>
-    <row r="7" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>612</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>631</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>634</v>
-      </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="P7" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="42"/>
-    </row>
-    <row r="8" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>612</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>631</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>635</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>636</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="P8" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="47"/>
-    </row>
-    <row r="9" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>612</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>631</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>637</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>638</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="57" t="s">
-        <v>380</v>
-      </c>
-      <c r="M9" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="47"/>
-    </row>
-    <row r="10" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-mvt-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-mvt-template.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="651">
   <si>
     <t>Region</t>
   </si>
@@ -6637,6 +6637,9 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6700,9 +6703,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7146,26 +7146,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="102" t="s">
         <v>493</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="92" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="95" t="s">
         <v>603</v>
       </c>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="94"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="97"/>
     </row>
     <row r="2" spans="1:16" s="54" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -7462,18 +7462,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>604</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
     </row>
     <row r="2" spans="1:10" s="54" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -7685,17 +7685,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>467</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -7759,25 +7759,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>468</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -7866,28 +7866,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>475</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -8171,15 +8171,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>476</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
     </row>
     <row r="2" spans="1:7" s="54" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -8317,27 +8317,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="105" t="s">
         <v>483</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="105" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108" t="s">
         <v>477</v>
       </c>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -8676,24 +8676,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>469</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
     </row>
     <row r="2" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -8912,29 +8912,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>490</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="94"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="97"/>
     </row>
     <row r="2" spans="1:21" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="s">
@@ -9214,29 +9214,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="95" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="98" t="s">
         <v>486</v>
       </c>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="107"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="110"/>
     </row>
     <row r="2" spans="1:19" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -9905,13 +9905,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="54" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -9991,14 +9991,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>461</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="110"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="113"/>
     </row>
     <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -10135,24 +10135,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>489</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
     </row>
     <row r="2" spans="1:16" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -10693,17 +10693,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="114" t="s">
         <v>484</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -10848,32 +10848,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="65" customFormat="1" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>609</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="94"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="97"/>
     </row>
     <row r="2" spans="1:24" s="81" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="84" t="s">
@@ -11198,32 +11198,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="65" customFormat="1" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>610</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="94"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="97"/>
     </row>
     <row r="2" spans="1:24" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="84" t="s">
@@ -11547,32 +11547,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="65" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>611</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="94"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="97"/>
     </row>
     <row r="2" spans="1:24" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="84" t="s">
@@ -12571,13 +12571,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="54" customFormat="1" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -12689,16 +12689,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="54" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>464</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -12745,7 +12745,7 @@
       <c r="F3" s="56" t="s">
         <v>371</v>
       </c>
-      <c r="G3" s="112"/>
+      <c r="G3" s="91"/>
       <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" s="46" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12758,13 +12758,13 @@
       <c r="C4" s="60" t="s">
         <v>393</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="D4" s="92" t="s">
         <v>622</v>
       </c>
-      <c r="E4" s="114" t="s">
+      <c r="E4" s="93" t="s">
         <v>376</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="93" t="s">
         <v>615</v>
       </c>
       <c r="G4" s="60"/>
@@ -12789,7 +12789,7 @@
       <c r="F5" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="G5" s="112" t="s">
+      <c r="G5" s="91" t="s">
         <v>370</v>
       </c>
       <c r="H5" s="47"/>
@@ -12805,7 +12805,7 @@
       <c r="F6" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="G6" s="112" t="s">
+      <c r="G6" s="91" t="s">
         <v>370</v>
       </c>
       <c r="H6" s="47"/>
@@ -12821,7 +12821,7 @@
       <c r="F7" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="G7" s="112" t="s">
+      <c r="G7" s="91" t="s">
         <v>370</v>
       </c>
       <c r="H7" s="47"/>
@@ -12837,7 +12837,7 @@
       <c r="F8" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="G8" s="112" t="s">
+      <c r="G8" s="91" t="s">
         <v>612</v>
       </c>
       <c r="H8" s="47"/>
@@ -12853,7 +12853,7 @@
       <c r="F9" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="G9" s="112"/>
+      <c r="G9" s="91"/>
       <c r="H9" s="47"/>
     </row>
     <row r="10" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
@@ -12875,7 +12875,7 @@
       <c r="F10" s="47" t="s">
         <v>373</v>
       </c>
-      <c r="G10" s="112" t="s">
+      <c r="G10" s="91" t="s">
         <v>612</v>
       </c>
       <c r="H10" s="47"/>
@@ -12891,7 +12891,7 @@
       <c r="F11" s="47" t="s">
         <v>373</v>
       </c>
-      <c r="G11" s="112"/>
+      <c r="G11" s="91"/>
       <c r="H11" s="47"/>
     </row>
     <row r="12" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
@@ -12903,7 +12903,7 @@
       <c r="D12" s="47"/>
       <c r="E12" s="47"/>
       <c r="F12" s="47"/>
-      <c r="G12" s="112"/>
+      <c r="G12" s="91"/>
       <c r="H12" s="47"/>
     </row>
   </sheetData>
@@ -12937,20 +12937,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>495</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="95" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98" t="s">
         <v>492</v>
       </c>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="97"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="100"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
@@ -13213,22 +13213,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="46" customFormat="1" ht="187.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>478</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="92" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="95" t="s">
         <v>479</v>
       </c>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="94"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="97"/>
     </row>
     <row r="2" spans="1:12" s="54" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -13348,10 +13348,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="54" customFormat="1" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="100"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -13424,16 +13424,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>465</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" s="54" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -13487,10 +13487,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13515,28 +13515,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="173.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="98" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="101" t="s">
         <v>466</v>
       </c>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
     </row>
     <row r="2" spans="1:18" s="54" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -13754,166 +13754,6 @@
       <c r="Q6" s="47"/>
       <c r="R6" s="47"/>
     </row>
-    <row r="7" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>612</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>631</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>634</v>
-      </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="P7" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="42"/>
-    </row>
-    <row r="8" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>612</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>631</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>635</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>636</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="P8" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="47"/>
-    </row>
-    <row r="9" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>612</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>631</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>637</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>638</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="57" t="s">
-        <v>380</v>
-      </c>
-      <c r="M9" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="47"/>
-    </row>
-    <row r="10" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-mvt-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-mvt-template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ATK7.0-Demo\code\oci_tenancy\SetUpOCI_Via_TF\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_master\oci_tenancy\SetUpOCI_Via_TF\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="719">
   <si>
     <t>Region</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Policy Statement Compartment</t>
   </si>
   <si>
-    <t>Allow group $ to manage instance-family in compartment *</t>
-  </si>
-  <si>
     <t>VCN Name</t>
   </si>
   <si>
@@ -1192,21 +1189,12 @@
     <t>OCI_Admins</t>
   </si>
   <si>
-    <t>Admin Group</t>
-  </si>
-  <si>
     <t>Network_Admins</t>
   </si>
   <si>
     <t>Listener1</t>
   </si>
   <si>
-    <t>AdminPolicy</t>
-  </si>
-  <si>
-    <t>Allow group $ to read all-resources in tenancy</t>
-  </si>
-  <si>
     <t>Network::TCC</t>
   </si>
   <si>
@@ -1415,9 +1403,6 @@
   </si>
   <si>
     <t>DSS</t>
-  </si>
-  <si>
-    <t>Administrators</t>
   </si>
   <si>
     <t>FreeForm Tags</t>
@@ -5834,54 +5819,9 @@
     <t>Compartment for all other Resources</t>
   </si>
   <si>
-    <t>OCI_Viewers</t>
-  </si>
-  <si>
-    <t>Viewer Group</t>
-  </si>
-  <si>
     <t>Network Administrators</t>
   </si>
   <si>
-    <t>Apps_Admins</t>
-  </si>
-  <si>
-    <t>Compute Apps admins</t>
-  </si>
-  <si>
-    <t>Allow group $ to manage all-resources in tenancy</t>
-  </si>
-  <si>
-    <t>ViewerPolicy</t>
-  </si>
-  <si>
-    <t>Viewers</t>
-  </si>
-  <si>
-    <t>AppsPolicy</t>
-  </si>
-  <si>
-    <t>Apps Manage</t>
-  </si>
-  <si>
-    <t>Allow group $ to manage database-family in compartment *</t>
-  </si>
-  <si>
-    <t>Allow group $ to manage volume-family in compartment *</t>
-  </si>
-  <si>
-    <t>Allow group $ to use virtual-network-family in compartment *</t>
-  </si>
-  <si>
-    <t>InfrastructurePolicy</t>
-  </si>
-  <si>
-    <t>Infrastructure Manage</t>
-  </si>
-  <si>
-    <t>Allow group $ to manage virtual-network-family in compartment *</t>
-  </si>
-  <si>
     <t>mvt-vcn</t>
   </si>
   <si>
@@ -5940,6 +5880,270 @@
   </si>
   <si>
     <t>mvt-db_Disk2</t>
+  </si>
+  <si>
+    <t>OCI Administrators</t>
+  </si>
+  <si>
+    <t>Report_Admins</t>
+  </si>
+  <si>
+    <t>Report Administrators</t>
+  </si>
+  <si>
+    <t>Tenancy_Viewers</t>
+  </si>
+  <si>
+    <t>Tenancy Viewers</t>
+  </si>
+  <si>
+    <t>IAM_Admins</t>
+  </si>
+  <si>
+    <t>IAM Administrators</t>
+  </si>
+  <si>
+    <t>Security_Admins</t>
+  </si>
+  <si>
+    <t>Security Administrators</t>
+  </si>
+  <si>
+    <t>Compute_Admins</t>
+  </si>
+  <si>
+    <t>Compute Administrators</t>
+  </si>
+  <si>
+    <t>Database_Admins</t>
+  </si>
+  <si>
+    <t>Database Administrators</t>
+  </si>
+  <si>
+    <t>Storage_Admins</t>
+  </si>
+  <si>
+    <t>Storage Administrators</t>
+  </si>
+  <si>
+    <t>Monitoring_Admins</t>
+  </si>
+  <si>
+    <t>Monitoring Administrators</t>
+  </si>
+  <si>
+    <t>Compute_Ops</t>
+  </si>
+  <si>
+    <t>Compute Operations</t>
+  </si>
+  <si>
+    <t>Database_Ops</t>
+  </si>
+  <si>
+    <t>Database Operations</t>
+  </si>
+  <si>
+    <t>Netwok_Ops</t>
+  </si>
+  <si>
+    <t>Network Operations</t>
+  </si>
+  <si>
+    <t>OCI_Admins_Policy</t>
+  </si>
+  <si>
+    <t>Policy for OCI_Admins</t>
+  </si>
+  <si>
+    <t>Allow group OCI_Admins to manage all-resources in tenancy</t>
+  </si>
+  <si>
+    <t>Tenancy_Viewers_Policy</t>
+  </si>
+  <si>
+    <t>Policy for Tenancy_Viewers</t>
+  </si>
+  <si>
+    <t>Allow group Tenancy_Viewers to read all-resources in tenancy</t>
+  </si>
+  <si>
+    <t>IAM_Admins_Policy</t>
+  </si>
+  <si>
+    <t>Policy for IAM_Admins</t>
+  </si>
+  <si>
+    <t>Allow group IAM_Admins to manage compartments in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group IAM_Admins to manage users in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group IAM_Admins to manage groups in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group IAM_Admins to manage dynamic-groups in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group IAM_Admins to manage policies in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group IAM_Admins to use users in tenancy where target.group.name != 'Administrators'</t>
+  </si>
+  <si>
+    <t>Allow group IAM_Admins to use groups in tenancy where target.group.name != 'Administrators'</t>
+  </si>
+  <si>
+    <t>Network_Admins_Policy</t>
+  </si>
+  <si>
+    <t>Policy for Network_Admins</t>
+  </si>
+  <si>
+    <t>Allow group Network_Admins to manage virtual-network-family in tenancy</t>
+  </si>
+  <si>
+    <t>Security_Admins_Policy</t>
+  </si>
+  <si>
+    <t>Policy for Security_Admins</t>
+  </si>
+  <si>
+    <t>Allow group Security_Admins to manage vaults in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Security_Admins to manage keys in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Security_Admins to manage secret-family in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Security_Admins to Manage cloud-guard-family in tenancy</t>
+  </si>
+  <si>
+    <t>Compute_Admins_Policy</t>
+  </si>
+  <si>
+    <t>Policy for Compute_Admins</t>
+  </si>
+  <si>
+    <t>Allow group Compute_Admins to manage instance-family in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Compute_Admins to manage compute-management-family in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Compute_Admins to use volume-family in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Compute_Admins to use file-family in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Compute_Admins to use buckets in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Compute_Admins to use objects in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Compute_Admins to use virtual-network-family in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Compute_Admins to use keys in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Compute_Admins to manage function-family in tenancy</t>
+  </si>
+  <si>
+    <t>Database_Admins_Policy</t>
+  </si>
+  <si>
+    <t>Policy for Database_Admins</t>
+  </si>
+  <si>
+    <t>Allow group Database_Admins to manage database-family in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Database_Admins to manage buckets in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Database_Admins to manage objects in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Database_Admins to use virtual-network-family in tenancy</t>
+  </si>
+  <si>
+    <t>Storage_Admins_Policy</t>
+  </si>
+  <si>
+    <t>Policy for Storage_Admins</t>
+  </si>
+  <si>
+    <t>Allow group Storage_Admins to manage volume-family in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Storage_Admins to use volume-backups in tenancy where request.permission='VOLUME_BACKUP_COPY'</t>
+  </si>
+  <si>
+    <t>Allow group Storage_Admins to use boot-volume-backups in tenancy where request.permission='BOOT_VOLUME_BACKUP_COPY'</t>
+  </si>
+  <si>
+    <t>Allow group Storage_Admins to manage object-family in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Storage_Admins to manage file-family in tenancy</t>
+  </si>
+  <si>
+    <t>Monitoring_Admins_Policy</t>
+  </si>
+  <si>
+    <t>Policy for Monitoring_Admins</t>
+  </si>
+  <si>
+    <t>Allow group Monitoring_Admins to manage alarms in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Monitoring_Admins to use metrics in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Monitoring_Admins to manage ons-topics in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Monitoring_Admins to manage ons-subscriptions in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Monitoring_Admins to manage cloudevents-rules in tenancy</t>
+  </si>
+  <si>
+    <t>Network_Ops_Policy</t>
+  </si>
+  <si>
+    <t>Policy for Network_Ops</t>
+  </si>
+  <si>
+    <t>Allow group Network_Ops to use virtual-network-family in tenancy</t>
+  </si>
+  <si>
+    <t>Compute_Ops_Policy</t>
+  </si>
+  <si>
+    <t>Policy for Compute_Ops</t>
+  </si>
+  <si>
+    <t>Allow group Compute_Ops to use instance-family in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Compute_Ops to use compute-management-family in tenancy</t>
+  </si>
+  <si>
+    <t>Database_Ops_Policy</t>
+  </si>
+  <si>
+    <t>Policy for Database_Ops</t>
+  </si>
+  <si>
+    <t>Allow group Database_Ops to use database-family in tenancy</t>
   </si>
 </sst>
 </file>
@@ -6427,7 +6631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6637,9 +6841,14 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -7097,15 +7306,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="167.109375" style="46" customWidth="1"/>
+    <col min="1" max="1" width="167.08984375" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:1" ht="58.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="88" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -7125,49 +7334,49 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.21875" style="46" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.77734375" style="46" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" style="46" customWidth="1"/>
-    <col min="11" max="11" width="26.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" style="46" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.81640625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="22.08984375" style="46" customWidth="1"/>
+    <col min="11" max="11" width="26.81640625" style="46" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="46" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" style="46" customWidth="1"/>
-    <col min="14" max="14" width="19.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" style="46" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" customWidth="1"/>
+    <col min="14" max="14" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.36328125" style="46" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="102" t="s">
-        <v>493</v>
-      </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="95" t="s">
-        <v>603</v>
-      </c>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="97"/>
-    </row>
-    <row r="2" spans="1:16" s="54" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="103" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="96" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="98"/>
+    </row>
+    <row r="2" spans="1:16" s="54" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
@@ -7175,79 +7384,79 @@
         <v>6</v>
       </c>
       <c r="C2" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>468</v>
+      </c>
+      <c r="J2" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>473</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>78</v>
-      </c>
       <c r="K2" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="M2" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="N2" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="M2" s="12" t="s">
-        <v>602</v>
-      </c>
-      <c r="N2" s="40" t="s">
+      <c r="O2" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="O2" s="40" t="s">
-        <v>91</v>
-      </c>
       <c r="P2" s="40" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="46" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="46" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="G3" s="47" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="47"/>
       <c r="I3" s="47" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="J3" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="47" t="s">
         <v>95</v>
-      </c>
-      <c r="K3" s="47" t="s">
-        <v>96</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -7255,37 +7464,37 @@
       <c r="O3" s="47"/>
       <c r="P3" s="47"/>
     </row>
-    <row r="4" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="G4" s="47" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="47" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="J4" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="47" t="s">
         <v>95</v>
-      </c>
-      <c r="K4" s="47" t="s">
-        <v>96</v>
       </c>
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
@@ -7293,37 +7502,37 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
     </row>
-    <row r="5" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="56" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="G5" s="47" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="56"/>
       <c r="I5" s="47" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="J5" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" s="47" t="s">
         <v>95</v>
-      </c>
-      <c r="K5" s="47" t="s">
-        <v>96</v>
       </c>
       <c r="L5" s="47"/>
       <c r="M5" s="47"/>
@@ -7331,37 +7540,37 @@
       <c r="O5" s="47"/>
       <c r="P5" s="47"/>
     </row>
-    <row r="6" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="56" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="G6" s="47" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="56"/>
       <c r="I6" s="47" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="J6" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="47" t="s">
         <v>95</v>
-      </c>
-      <c r="K6" s="47" t="s">
-        <v>96</v>
       </c>
       <c r="L6" s="47"/>
       <c r="M6" s="47"/>
@@ -7369,37 +7578,37 @@
       <c r="O6" s="47"/>
       <c r="P6" s="47"/>
     </row>
-    <row r="7" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="56" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="G7" s="47" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="47" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="J7" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="47" t="s">
         <v>95</v>
-      </c>
-      <c r="K7" s="47" t="s">
-        <v>96</v>
       </c>
       <c r="L7" s="47"/>
       <c r="M7" s="47"/>
@@ -7407,7 +7616,7 @@
       <c r="O7" s="47"/>
       <c r="P7" s="47"/>
     </row>
-    <row r="8" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="56" t="s">
         <v>4</v>
       </c>
@@ -7448,34 +7657,34 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
     <col min="2" max="2" width="23" style="46" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="26.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" style="46" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
-        <v>604</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="97"/>
-    </row>
-    <row r="2" spans="1:10" s="54" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="114.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="96" t="s">
+        <v>599</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="98"/>
+    </row>
+    <row r="2" spans="1:10" s="54" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -7483,161 +7692,161 @@
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>101</v>
-      </c>
       <c r="H2" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="D3" s="47">
         <v>500</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="D4" s="47">
         <v>500</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H4" s="56"/>
       <c r="I4" s="47"/>
       <c r="J4" s="45"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
       <c r="D5" s="47">
         <v>500</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H5" s="56"/>
       <c r="I5" s="47"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="D6" s="47">
         <v>500</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
       <c r="J6" s="47"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="D7" s="47">
         <v>500</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
       <c r="J7" s="47"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="56" t="s">
         <v>4</v>
       </c>
@@ -7671,33 +7880,33 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" style="46" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="46" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" style="46" customWidth="1"/>
     <col min="5" max="5" width="16" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.77734375" style="46" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" style="46" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.81640625" style="46" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="46" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>467</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="95" t="s">
+        <v>462</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -7705,25 +7914,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="I2" s="40" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -7746,40 +7955,40 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="46" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="46" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" style="46" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="33.08984375" style="46" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.08984375" style="46" customWidth="1"/>
+    <col min="17" max="17" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>468</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="95" t="s">
+        <v>463</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -7787,49 +7996,49 @@
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="P2" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="40" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -7848,48 +8057,48 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" style="46" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" style="46" customWidth="1"/>
     <col min="11" max="11" width="19" style="46" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.08984375" style="46" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>475</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="95" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -7897,61 +8106,61 @@
         <v>6</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="I2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="15" t="s">
+      <c r="J2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="M2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>53</v>
-      </c>
       <c r="S2" s="80" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="T2" s="80" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -7975,35 +8184,35 @@
       <c r="S3" s="47"/>
       <c r="T3" s="47"/>
     </row>
-    <row r="4" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E4" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="G4" s="47" t="s">
         <v>70</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>71</v>
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="44"/>
       <c r="J4" s="47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K4" s="47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
@@ -8014,36 +8223,36 @@
       <c r="R4" s="47"/>
       <c r="S4" s="47"/>
       <c r="T4" s="45" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" s="47" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="J5" s="47"/>
       <c r="K5" s="47"/>
@@ -8061,33 +8270,33 @@
       <c r="S5" s="47"/>
       <c r="T5" s="47"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E6" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="G6" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="J6" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="K6" s="44" t="s">
         <v>72</v>
-      </c>
-      <c r="K6" s="44" t="s">
-        <v>73</v>
       </c>
       <c r="L6" s="47"/>
       <c r="M6" s="47"/>
@@ -8099,33 +8308,33 @@
       <c r="S6" s="47"/>
       <c r="T6" s="47"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E7" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="47" t="s">
-        <v>75</v>
-      </c>
       <c r="G7" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="47" t="s">
-        <v>72</v>
-      </c>
       <c r="I7" s="44" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="J7" s="47"/>
       <c r="K7" s="47"/>
@@ -8160,28 +8369,28 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="46" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>476</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-    </row>
-    <row r="2" spans="1:7" s="54" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="95" t="s">
+        <v>471</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+    </row>
+    <row r="2" spans="1:7" s="54" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
@@ -8189,22 +8398,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="E2" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="F2" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="41" t="s">
-        <v>79</v>
-      </c>
       <c r="G2" s="41" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -8215,68 +8424,68 @@
       <c r="F3" s="47"/>
       <c r="G3" s="47"/>
     </row>
-    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C4" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>81</v>
-      </c>
       <c r="F4" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C5" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="47" t="s">
-        <v>83</v>
-      </c>
       <c r="E5" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G5" s="47"/>
     </row>
-    <row r="6" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G6" s="47"/>
     </row>
@@ -8296,50 +8505,50 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.44140625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="46" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" style="46" customWidth="1"/>
     <col min="7" max="7" width="15" style="46" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="46" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" style="46" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" style="46" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" style="46" customWidth="1"/>
     <col min="10" max="10" width="16" style="46" customWidth="1"/>
-    <col min="11" max="11" width="19.21875" style="46" customWidth="1"/>
-    <col min="12" max="12" width="7.77734375" style="46" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" style="46" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" style="46" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" style="46" customWidth="1"/>
-    <col min="16" max="16" width="18.88671875" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" style="46" customWidth="1"/>
+    <col min="12" max="12" width="7.81640625" style="46" customWidth="1"/>
+    <col min="13" max="13" width="8.453125" style="46" customWidth="1"/>
+    <col min="14" max="14" width="17.08984375" style="46" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" style="46" customWidth="1"/>
+    <col min="16" max="16" width="18.90625" customWidth="1"/>
+    <col min="17" max="17" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
-        <v>483</v>
-      </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108" t="s">
-        <v>477</v>
-      </c>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="106" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="109" t="s">
+        <v>472</v>
+      </c>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -8347,52 +8556,52 @@
         <v>6</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="O2" s="12" t="s">
-        <v>114</v>
-      </c>
       <c r="P2" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -8413,31 +8622,31 @@
       <c r="P3" s="47"/>
       <c r="Q3" s="47"/>
     </row>
-    <row r="4" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="I4" s="30" t="s">
         <v>117</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>118</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
@@ -8446,13 +8655,13 @@
       <c r="N4" s="30"/>
       <c r="O4" s="30"/>
       <c r="P4" s="45" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="Q4" s="45" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="30"/>
       <c r="B5" s="47"/>
       <c r="C5" s="30"/>
@@ -8462,13 +8671,13 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="K5" s="30" t="s">
         <v>119</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>120</v>
       </c>
       <c r="L5" s="30"/>
       <c r="M5" s="30"/>
@@ -8477,7 +8686,7 @@
       <c r="P5" s="47"/>
       <c r="Q5" s="47"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -8486,13 +8695,13 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J6" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6" s="30" t="s">
         <v>121</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>122</v>
       </c>
       <c r="L6" s="30"/>
       <c r="M6" s="30"/>
@@ -8501,29 +8710,29 @@
       <c r="P6" s="47"/>
       <c r="Q6" s="47"/>
     </row>
-    <row r="7" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="30" t="s">
         <v>123</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>124</v>
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
@@ -8534,74 +8743,74 @@
       <c r="P7" s="47"/>
       <c r="Q7" s="47"/>
     </row>
-    <row r="8" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
       <c r="H8" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="I8" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="J8" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="J8" s="30" t="s">
-        <v>128</v>
-      </c>
       <c r="K8" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L8" s="30"/>
       <c r="M8" s="30"/>
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
       <c r="P8" s="47" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="Q8" s="47"/>
     </row>
-    <row r="9" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="I9" s="30" t="s">
-        <v>127</v>
-      </c>
       <c r="J9" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
@@ -8610,29 +8819,29 @@
       <c r="P9" s="47"/>
       <c r="Q9" s="47"/>
     </row>
-    <row r="10" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
       <c r="H10" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10" s="30" t="s">
         <v>132</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>133</v>
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
@@ -8661,41 +8870,41 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="46" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" style="46" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" style="46" customWidth="1"/>
+    <col min="6" max="6" width="18.90625" style="46" customWidth="1"/>
     <col min="8" max="8" width="25" style="46" customWidth="1"/>
-    <col min="9" max="9" width="31.109375" style="46" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" style="46" customWidth="1"/>
-    <col min="13" max="13" width="28.21875" style="46" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="31.08984375" style="46" customWidth="1"/>
+    <col min="11" max="11" width="7.453125" style="46" customWidth="1"/>
+    <col min="13" max="13" width="28.1796875" style="46" customWidth="1"/>
+    <col min="14" max="14" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>469</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-    </row>
-    <row r="2" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="122.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="95" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+    </row>
+    <row r="2" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -8703,49 +8912,49 @@
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="21" t="s">
+      <c r="I2" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="K2" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="L2" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="M2" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="M2" s="21" t="s">
-        <v>143</v>
-      </c>
       <c r="N2" s="21" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="45" t="s">
         <v>4</v>
       </c>
@@ -8765,51 +8974,51 @@
       <c r="O3" s="47"/>
       <c r="P3" s="47"/>
     </row>
-    <row r="4" spans="1:16" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F4" s="47" t="b">
         <v>1</v>
       </c>
       <c r="G4" s="47"/>
       <c r="H4" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="47" t="s">
         <v>145</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>146</v>
       </c>
       <c r="J4" s="47"/>
       <c r="K4" s="47"/>
       <c r="L4" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="M4" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="M4" s="45" t="s">
-        <v>148</v>
-      </c>
       <c r="N4" s="47" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="O4" s="78" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="P4" s="45" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="37.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -8819,59 +9028,59 @@
       <c r="G5" s="47"/>
       <c r="H5" s="45"/>
       <c r="I5" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J5" s="47"/>
       <c r="K5" s="47"/>
       <c r="L5" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="M5" s="45" t="s">
         <v>147</v>
-      </c>
-      <c r="M5" s="45" t="s">
-        <v>148</v>
       </c>
       <c r="N5" s="47"/>
       <c r="O5" s="47"/>
       <c r="P5" s="47"/>
     </row>
-    <row r="6" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F6" s="47" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H6" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="J6" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="J6" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="K6" s="47" t="s">
-        <v>153</v>
-      </c>
       <c r="L6" s="47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M6" s="47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N6" s="47"/>
       <c r="O6" s="47"/>
@@ -8894,49 +9103,49 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.21875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" style="46" customWidth="1"/>
     <col min="3" max="3" width="11" style="46" customWidth="1"/>
-    <col min="4" max="5" width="10.88671875" style="46" customWidth="1"/>
+    <col min="4" max="5" width="10.90625" style="46" customWidth="1"/>
     <col min="6" max="6" width="18" style="46" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" style="46" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="46" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="46" customWidth="1"/>
-    <col min="10" max="11" width="14.6640625" style="46" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="46" customWidth="1"/>
-    <col min="14" max="14" width="23.6640625" style="46" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="46" customWidth="1"/>
-    <col min="17" max="17" width="14.77734375" style="46" customWidth="1"/>
-    <col min="21" max="21" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" style="46" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" style="46" customWidth="1"/>
+    <col min="9" max="9" width="11.90625" style="46" customWidth="1"/>
+    <col min="10" max="11" width="14.6328125" style="46" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" style="46" customWidth="1"/>
+    <col min="14" max="14" width="23.6328125" style="46" customWidth="1"/>
+    <col min="16" max="16" width="12.6328125" style="46" customWidth="1"/>
+    <col min="17" max="17" width="14.81640625" style="46" customWidth="1"/>
+    <col min="21" max="21" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
-        <v>490</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="97"/>
-    </row>
-    <row r="2" spans="1:21" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="87.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="96" t="s">
+        <v>485</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="98"/>
+    </row>
+    <row r="2" spans="1:21" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
@@ -8944,64 +9153,64 @@
         <v>6</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E2" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="G2" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="H2" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="I2" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="J2" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="K2" s="48" t="s">
+        <v>486</v>
+      </c>
+      <c r="L2" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="K2" s="48" t="s">
-        <v>491</v>
-      </c>
-      <c r="L2" s="48" t="s">
+      <c r="M2" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="N2" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="O2" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="P2" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="Q2" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>165</v>
-      </c>
       <c r="R2" s="41" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="S2" s="41" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="T2" s="41" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="U2" s="41" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -9026,61 +9235,61 @@
       <c r="T3" s="47"/>
       <c r="U3" s="47"/>
     </row>
-    <row r="4" spans="1:21" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D4" s="47"/>
       <c r="E4" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>386</v>
+      </c>
+      <c r="G4" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="47" t="s">
-        <v>390</v>
-      </c>
-      <c r="G4" s="47" t="s">
+      <c r="H4" s="47" t="s">
         <v>167</v>
-      </c>
-      <c r="H4" s="47" t="s">
-        <v>168</v>
       </c>
       <c r="I4" s="47">
         <v>80</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K4" s="47">
         <v>10000</v>
       </c>
       <c r="L4" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="M4" s="47" t="s">
         <v>170</v>
-      </c>
-      <c r="M4" s="47" t="s">
-        <v>171</v>
       </c>
       <c r="N4" s="47" t="b">
         <v>1</v>
       </c>
       <c r="O4" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P4" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R4" s="47" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="S4" s="79" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="T4" s="47">
         <v>2</v>
@@ -9089,24 +9298,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E5" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>387</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" s="47" t="s">
         <v>172</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>391</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>173</v>
       </c>
       <c r="I5" s="47">
         <v>443</v>
@@ -9114,17 +9323,17 @@
       <c r="J5" s="47"/>
       <c r="K5" s="47"/>
       <c r="L5" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="M5" s="47" t="s">
         <v>174</v>
-      </c>
-      <c r="M5" s="47" t="s">
-        <v>175</v>
       </c>
       <c r="N5" s="47" t="b">
         <v>1</v>
       </c>
       <c r="O5" s="47"/>
       <c r="P5" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="47"/>
       <c r="R5" s="47"/>
@@ -9132,38 +9341,38 @@
       <c r="T5" s="47"/>
       <c r="U5" s="47"/>
     </row>
-    <row r="6" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G6" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="H6" s="47" t="s">
         <v>167</v>
-      </c>
-      <c r="H6" s="47" t="s">
-        <v>168</v>
       </c>
       <c r="I6" s="47">
         <v>80</v>
       </c>
       <c r="J6" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K6" s="47"/>
       <c r="L6" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M6" s="47"/>
       <c r="N6" s="47" t="b">
@@ -9171,7 +9380,7 @@
       </c>
       <c r="O6" s="47"/>
       <c r="P6" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="47"/>
       <c r="R6" s="47"/>
@@ -9196,108 +9405,108 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.77734375" style="46" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" style="46" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="46" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="46" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" style="46" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="46" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" style="46" customWidth="1"/>
-    <col min="13" max="13" width="15.21875" style="46" customWidth="1"/>
-    <col min="14" max="16" width="13.77734375" style="46" customWidth="1"/>
-    <col min="17" max="17" width="21.109375" style="46" customWidth="1"/>
-    <col min="18" max="18" width="17.21875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" style="46" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="46" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" style="46" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" style="46" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" style="46" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" style="46" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" style="46" customWidth="1"/>
+    <col min="14" max="16" width="13.81640625" style="46" customWidth="1"/>
+    <col min="17" max="17" width="21.08984375" style="46" customWidth="1"/>
+    <col min="18" max="18" width="17.1796875" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
-        <v>460</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="98" t="s">
-        <v>486</v>
-      </c>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="110"/>
-    </row>
-    <row r="2" spans="1:19" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="96" t="s">
+        <v>455</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="99" t="s">
+        <v>481</v>
+      </c>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="111"/>
+    </row>
+    <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="41" t="s">
+        <v>480</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="O2" s="41" t="s">
-        <v>485</v>
-      </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="R2" s="12" t="s">
-        <v>191</v>
-      </c>
       <c r="S2" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -9320,21 +9529,21 @@
       <c r="R3" s="47"/>
       <c r="S3" s="47"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C4" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="D4" s="47" t="s">
-        <v>193</v>
-      </c>
       <c r="E4" s="47" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
@@ -9353,13 +9562,13 @@
       </c>
       <c r="S4" s="47"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
       <c r="E5" s="47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
@@ -9376,13 +9585,13 @@
       <c r="R5" s="47"/>
       <c r="S5" s="47"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
       <c r="C6" s="47"/>
       <c r="D6" s="47"/>
       <c r="E6" s="47" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
@@ -9399,13 +9608,13 @@
       <c r="R6" s="47"/>
       <c r="S6" s="47"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="47"/>
       <c r="B7" s="47"/>
       <c r="C7" s="47"/>
       <c r="D7" s="47"/>
       <c r="E7" s="47" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="47"/>
@@ -9422,13 +9631,13 @@
       <c r="R7" s="47"/>
       <c r="S7" s="47"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
       <c r="D8" s="47"/>
       <c r="E8" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="47"/>
@@ -9445,12 +9654,12 @@
       <c r="R8" s="47"/>
       <c r="S8" s="47"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="47"/>
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
       <c r="D9" s="47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E9" s="47"/>
       <c r="F9" s="47" t="b">
@@ -9472,24 +9681,24 @@
       <c r="R9" s="47"/>
       <c r="S9" s="47"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
       <c r="D10" s="47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E10" s="47"/>
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
       <c r="H10" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="I10" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="J10" s="47" t="s">
         <v>202</v>
-      </c>
-      <c r="J10" s="47" t="s">
-        <v>203</v>
       </c>
       <c r="K10" s="47"/>
       <c r="L10" s="47"/>
@@ -9501,32 +9710,32 @@
       <c r="R10" s="47"/>
       <c r="S10" s="47"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="47"/>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
       <c r="D11" s="47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E11" s="47"/>
       <c r="F11" s="47"/>
       <c r="G11" s="47"/>
       <c r="H11" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="I11" s="47" t="s">
         <v>205</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>206</v>
       </c>
       <c r="J11" s="47"/>
       <c r="K11" s="47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L11" s="47"/>
       <c r="M11" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="N11" s="47" t="s">
         <v>208</v>
-      </c>
-      <c r="N11" s="47" t="s">
-        <v>209</v>
       </c>
       <c r="O11" s="47"/>
       <c r="P11" s="47">
@@ -9536,32 +9745,32 @@
       <c r="R11" s="47"/>
       <c r="S11" s="47"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="47"/>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
       <c r="D12" s="47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="47"/>
       <c r="G12" s="47"/>
       <c r="H12" s="47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I12" s="47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J12" s="47"/>
       <c r="K12" s="47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L12" s="47"/>
       <c r="M12" s="47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N12" s="47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O12" s="47"/>
       <c r="P12" s="47">
@@ -9571,12 +9780,12 @@
       <c r="R12" s="47"/>
       <c r="S12" s="47"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="47"/>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
       <c r="D13" s="47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E13" s="47"/>
       <c r="F13" s="47"/>
@@ -9586,24 +9795,24 @@
       <c r="J13" s="47"/>
       <c r="K13" s="47"/>
       <c r="L13" s="47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M13" s="47"/>
       <c r="N13" s="47"/>
       <c r="O13" s="47"/>
       <c r="P13" s="47"/>
       <c r="Q13" s="47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R13" s="47"/>
       <c r="S13" s="47"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
       <c r="D14" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E14" s="47"/>
       <c r="F14" s="47"/>
@@ -9613,7 +9822,7 @@
       <c r="J14" s="47"/>
       <c r="K14" s="47"/>
       <c r="L14" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M14" s="47"/>
       <c r="N14" s="47"/>
@@ -9622,15 +9831,15 @@
       <c r="Q14" s="47"/>
       <c r="R14" s="47"/>
       <c r="S14" s="47" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="47"/>
       <c r="B15" s="47"/>
       <c r="C15" s="47"/>
       <c r="D15" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E15" s="47"/>
       <c r="F15" s="47"/>
@@ -9640,7 +9849,7 @@
       <c r="J15" s="47"/>
       <c r="K15" s="47"/>
       <c r="L15" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M15" s="47"/>
       <c r="N15" s="47"/>
@@ -9650,12 +9859,12 @@
       <c r="R15" s="47"/>
       <c r="S15" s="47"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="47"/>
       <c r="B16" s="47"/>
       <c r="C16" s="47"/>
       <c r="D16" s="47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
@@ -9665,7 +9874,7 @@
       <c r="J16" s="47"/>
       <c r="K16" s="47"/>
       <c r="L16" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M16" s="47"/>
       <c r="N16" s="47"/>
@@ -9674,15 +9883,15 @@
       <c r="Q16" s="47"/>
       <c r="R16" s="47"/>
       <c r="S16" s="47" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="47"/>
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
       <c r="D17" s="47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
@@ -9692,7 +9901,7 @@
       <c r="J17" s="47"/>
       <c r="K17" s="47"/>
       <c r="L17" s="47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M17" s="47"/>
       <c r="N17" s="47"/>
@@ -9702,12 +9911,12 @@
       <c r="R17" s="47"/>
       <c r="S17" s="47"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="47"/>
       <c r="B18" s="47"/>
       <c r="C18" s="47"/>
       <c r="D18" s="47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="47"/>
@@ -9717,19 +9926,19 @@
       <c r="J18" s="47"/>
       <c r="K18" s="47"/>
       <c r="L18" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M18" s="47"/>
       <c r="N18" s="47"/>
       <c r="O18" s="47"/>
       <c r="P18" s="47"/>
       <c r="Q18" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R18" s="47"/>
       <c r="S18" s="47"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="47"/>
       <c r="B19" s="47"/>
       <c r="C19" s="47"/>
@@ -9750,17 +9959,17 @@
       <c r="R19" s="47"/>
       <c r="S19" s="47"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="47"/>
       <c r="B20" s="47"/>
       <c r="C20" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D20" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" s="47" t="s">
         <v>193</v>
-      </c>
-      <c r="E20" s="47" t="s">
-        <v>194</v>
       </c>
       <c r="F20" s="47"/>
       <c r="G20" s="47"/>
@@ -9777,13 +9986,13 @@
       <c r="R20" s="47"/>
       <c r="S20" s="47"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="47"/>
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
       <c r="E21" s="47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F21" s="47"/>
       <c r="G21" s="47"/>
@@ -9800,21 +10009,21 @@
       <c r="R21" s="47"/>
       <c r="S21" s="47"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D22" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="47" t="s">
         <v>193</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>194</v>
       </c>
       <c r="F22" s="47"/>
       <c r="G22" s="47"/>
@@ -9831,13 +10040,13 @@
       <c r="R22" s="47"/>
       <c r="S22" s="47"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="47"/>
       <c r="B23" s="47"/>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
       <c r="E23" s="47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
@@ -9892,28 +10101,28 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="40.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" style="46" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="40.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.54296875" style="46" customWidth="1"/>
+    <col min="5" max="5" width="25.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="54" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>462</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="54" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="95" t="s">
+        <v>457</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
@@ -9927,36 +10136,36 @@
         <v>3</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D3" s="47"/>
       <c r="E3" s="47"/>
     </row>
-    <row r="4" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D4" s="47"/>
       <c r="E4" s="47"/>
     </row>
-    <row r="5" spans="1:5" s="46" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="46" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
@@ -9982,45 +10191,45 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" style="46" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="46" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="26.08984375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" style="46" customWidth="1"/>
+    <col min="6" max="6" width="28.6328125" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
-        <v>461</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="113"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="112" t="s">
+        <v>456</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="114"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -10030,74 +10239,74 @@
       <c r="E3" s="47"/>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C4" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="D4" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>233</v>
-      </c>
       <c r="F4" s="47" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
       <c r="C6" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="D6" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="47" t="s">
+      <c r="F6" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="F6" s="47" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C7" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="D7" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="E7" s="47" t="s">
+      <c r="F7" s="47" t="s">
         <v>239</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -10121,90 +10330,90 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" style="46" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="46" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" style="46" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" style="46" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" style="46" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="46" customWidth="1"/>
     <col min="9" max="9" width="15" style="46" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" style="46" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" style="46" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>489</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-    </row>
-    <row r="2" spans="1:16" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="88.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="95" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+    </row>
+    <row r="2" spans="1:16" ht="46.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>246</v>
-      </c>
       <c r="M2" s="41" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -10224,40 +10433,40 @@
       <c r="O3" s="47"/>
       <c r="P3" s="47"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="47" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J4" s="47"/>
       <c r="K4" s="47"/>
       <c r="L4" s="47"/>
       <c r="M4" s="47" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="N4" s="79" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="O4" s="47">
         <v>2</v>
@@ -10266,25 +10475,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="47"/>
       <c r="I5" s="47" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="J5" s="47"/>
       <c r="K5" s="47"/>
@@ -10294,36 +10503,36 @@
       <c r="O5" s="47"/>
       <c r="P5" s="47"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D6" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="E6" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="F6" s="47" t="s">
+      <c r="G6" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="G6" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>250</v>
-      </c>
       <c r="J6" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K6" s="47">
         <v>80</v>
@@ -10353,48 +10562,48 @@
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="28.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="35.109375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" style="46" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="46" customWidth="1"/>
+    <col min="1" max="1" width="35.453125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="35.08984375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" style="46" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="E1" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="F1" s="26" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>257</v>
-      </c>
       <c r="C2" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E2" s="25">
         <v>301</v>
@@ -10403,18 +10612,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E3" s="34">
         <v>302</v>
@@ -10423,18 +10632,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B4" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" t="s">
         <v>259</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" t="s">
-        <v>260</v>
       </c>
       <c r="E4" s="34">
         <v>303</v>
@@ -10443,15 +10652,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D5" s="55"/>
       <c r="E5" s="34">
@@ -10461,12 +10670,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C6" s="24"/>
       <c r="E6" s="34">
@@ -10474,194 +10683,194 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B7" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="B10" s="34" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19"/>
       <c r="B12" s="34" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="34" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="34" t="s">
+    <row r="14" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="34" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="34" t="s">
+    <row r="15" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="34" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="34" t="s">
+    <row r="16" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="34" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="34" t="s">
+    <row r="17" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="34" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="34" t="s">
+    <row r="18" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="34" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="34" t="s">
+    <row r="19" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="34" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="34" t="s">
+    <row r="20" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="34" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="34" t="s">
+    <row r="21" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="34" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="34" t="s">
+    <row r="22" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="34" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="34" t="s">
+    <row r="23" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="34" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="34" t="s">
+    <row r="24" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="34" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="34" t="s">
+    <row r="25" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="34" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="34" t="s">
+    <row r="26" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="34" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="34" t="s">
+    <row r="27" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="34" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="34" t="s">
+    <row r="28" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="34" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="34" t="s">
+    <row r="29" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="34" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="34" t="s">
+    <row r="30" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="34" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="34" t="s">
+    <row r="31" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="34" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="34" t="s">
+    <row r="32" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="34" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="34" t="s">
+    <row r="33" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="34" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="34" t="s">
+    <row r="34" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="34" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="34" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="34" t="s">
+    <row r="36" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="34" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="34" t="s">
+    <row r="38" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="34" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="34" t="s">
+    <row r="39" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="34" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="34" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="34" t="s">
+    <row r="40" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="34" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="34" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="10"/>
     </row>
   </sheetData>
@@ -10678,34 +10887,34 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" style="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="46"/>
+    <col min="3" max="3" width="16.54296875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" style="46"/>
     <col min="8" max="8" width="11" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" style="46" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="46"/>
+    <col min="9" max="9" width="13.90625" style="46" customWidth="1"/>
+    <col min="10" max="16384" width="8.90625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="114" t="s">
-        <v>484</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="115" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -10713,28 +10922,28 @@
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="82" t="s">
         <v>317</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="F2" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>321</v>
-      </c>
       <c r="I2" s="40" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="64" t="s">
         <v>4</v>
       </c>
@@ -10747,21 +10956,21 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
     </row>
-    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>394</v>
+      </c>
+      <c r="D4" s="47" t="s">
         <v>322</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>369</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>398</v>
-      </c>
-      <c r="D4" s="47" t="s">
+      <c r="E4" s="62" t="s">
         <v>323</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>324</v>
       </c>
       <c r="F4" s="47">
         <v>1</v>
@@ -10770,28 +10979,28 @@
         <v>1</v>
       </c>
       <c r="H4" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="I4" s="83" t="s">
+        <v>465</v>
+      </c>
+      <c r="J4" s="60"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>368</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" s="47" t="s">
         <v>325</v>
       </c>
-      <c r="I4" s="83" t="s">
-        <v>470</v>
-      </c>
-      <c r="J4" s="60"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>369</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>399</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>326</v>
-      </c>
       <c r="E5" s="62" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F5" s="47">
         <v>1</v>
@@ -10800,7 +11009,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="47" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I5" s="56"/>
       <c r="J5" s="60"/>
@@ -10822,60 +11031,60 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.21875" style="46" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" style="46" customWidth="1"/>
     <col min="2" max="2" width="14" style="46" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="46" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="46" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="46" customWidth="1"/>
-    <col min="8" max="8" width="27.5546875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" style="46" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" style="46" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="46" customWidth="1"/>
+    <col min="8" max="8" width="27.54296875" style="46" customWidth="1"/>
     <col min="9" max="9" width="13" style="46" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" style="46" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="68" customWidth="1"/>
-    <col min="12" max="13" width="20.5546875" style="46"/>
-    <col min="14" max="14" width="20.5546875" style="3"/>
-    <col min="15" max="17" width="20.5546875" style="46"/>
+    <col min="10" max="10" width="16.54296875" style="46" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" style="68" customWidth="1"/>
+    <col min="12" max="13" width="20.54296875" style="46"/>
+    <col min="14" max="14" width="20.54296875" style="3"/>
+    <col min="15" max="17" width="20.54296875" style="46"/>
     <col min="18" max="18" width="23" style="46" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="20.5546875" style="46"/>
-    <col min="22" max="22" width="23.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.21875" style="46" customWidth="1"/>
-    <col min="24" max="24" width="20.5546875" style="46"/>
-    <col min="25" max="25" width="23.109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="20.5546875" style="46"/>
+    <col min="19" max="21" width="20.54296875" style="46"/>
+    <col min="22" max="22" width="23.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="46" customWidth="1"/>
+    <col min="24" max="24" width="20.54296875" style="46"/>
+    <col min="25" max="25" width="23.08984375" style="46" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="20.54296875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="65" customFormat="1" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
-        <v>609</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="97"/>
-    </row>
-    <row r="2" spans="1:24" s="81" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="65" customFormat="1" ht="135.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="96" t="s">
+        <v>604</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="98"/>
+    </row>
+    <row r="2" spans="1:24" s="81" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
@@ -10883,73 +11092,73 @@
         <v>6</v>
       </c>
       <c r="C2" s="84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="85" t="s">
+        <v>396</v>
+      </c>
+      <c r="F2" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="85" t="s">
+      <c r="G2" s="84" t="s">
+        <v>397</v>
+      </c>
+      <c r="H2" s="84" t="s">
+        <v>398</v>
+      </c>
+      <c r="I2" s="84" t="s">
+        <v>399</v>
+      </c>
+      <c r="J2" s="84" t="s">
         <v>400</v>
       </c>
-      <c r="F2" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="84" t="s">
+      <c r="K2" s="85" t="s">
         <v>401</v>
       </c>
-      <c r="H2" s="84" t="s">
+      <c r="L2" s="84" t="s">
         <v>402</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="M2" s="84" t="s">
         <v>403</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="N2" s="84" t="s">
         <v>404</v>
       </c>
-      <c r="K2" s="85" t="s">
+      <c r="O2" s="84" t="s">
         <v>405</v>
       </c>
-      <c r="L2" s="84" t="s">
+      <c r="P2" s="84" t="s">
         <v>406</v>
       </c>
-      <c r="M2" s="84" t="s">
+      <c r="Q2" s="84" t="s">
         <v>407</v>
       </c>
-      <c r="N2" s="84" t="s">
+      <c r="R2" s="84" t="s">
         <v>408</v>
       </c>
-      <c r="O2" s="84" t="s">
+      <c r="S2" s="84" t="s">
+        <v>328</v>
+      </c>
+      <c r="T2" s="84" t="s">
+        <v>329</v>
+      </c>
+      <c r="U2" s="84" t="s">
+        <v>330</v>
+      </c>
+      <c r="V2" s="84" t="s">
         <v>409</v>
       </c>
-      <c r="P2" s="84" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q2" s="84" t="s">
-        <v>411</v>
-      </c>
-      <c r="R2" s="84" t="s">
-        <v>412</v>
-      </c>
-      <c r="S2" s="84" t="s">
-        <v>329</v>
-      </c>
-      <c r="T2" s="84" t="s">
-        <v>330</v>
-      </c>
-      <c r="U2" s="84" t="s">
-        <v>331</v>
-      </c>
-      <c r="V2" s="84" t="s">
-        <v>413</v>
-      </c>
       <c r="W2" s="84" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="X2" s="84" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="56" t="s">
         <v>4</v>
       </c>
@@ -10977,152 +11186,152 @@
       <c r="W3" s="47"/>
       <c r="X3" s="47"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="66" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="66" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F4" s="66" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G4" s="66">
         <v>2</v>
       </c>
       <c r="H4" s="66" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I4" s="66">
         <v>256</v>
       </c>
       <c r="J4" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="K4" s="66" t="s">
         <v>335</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="L4" s="66" t="s">
+        <v>411</v>
+      </c>
+      <c r="M4" s="66" t="s">
         <v>336</v>
       </c>
-      <c r="L4" s="66" t="s">
-        <v>415</v>
-      </c>
-      <c r="M4" s="66" t="s">
-        <v>337</v>
-      </c>
       <c r="N4" s="67" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="O4" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="P4" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="Q4" s="66" t="s">
         <v>340</v>
-      </c>
-      <c r="Q4" s="66" t="s">
-        <v>341</v>
       </c>
       <c r="R4" s="66" t="b">
         <v>1</v>
       </c>
       <c r="S4" s="66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T4" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="U4" s="47" t="s">
         <v>342</v>
-      </c>
-      <c r="U4" s="47" t="s">
-        <v>343</v>
       </c>
       <c r="V4" s="47">
         <v>15</v>
       </c>
       <c r="W4" s="47" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="X4" s="47" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="66" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="66" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F5" s="66" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G5" s="66">
         <v>1</v>
       </c>
       <c r="H5" s="66" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I5" s="66">
         <v>256</v>
       </c>
       <c r="J5" s="66" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K5" s="66" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L5" s="66" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M5" s="66" t="s">
+        <v>351</v>
+      </c>
+      <c r="N5" s="67" t="s">
+        <v>416</v>
+      </c>
+      <c r="O5" s="66" t="s">
         <v>352</v>
       </c>
-      <c r="N5" s="67" t="s">
-        <v>420</v>
-      </c>
-      <c r="O5" s="66" t="s">
-        <v>353</v>
-      </c>
       <c r="P5" s="66" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q5" s="66" t="s">
         <v>340</v>
-      </c>
-      <c r="Q5" s="66" t="s">
-        <v>341</v>
       </c>
       <c r="R5" s="66" t="b">
         <v>0</v>
       </c>
       <c r="S5" s="66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T5" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="U5" s="47" t="s">
         <v>342</v>
-      </c>
-      <c r="U5" s="47" t="s">
-        <v>343</v>
       </c>
       <c r="V5" s="47">
         <v>15</v>
       </c>
       <c r="W5" s="47" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="X5" s="47" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -11165,67 +11374,67 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" style="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.77734375" style="68" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" style="46" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.90625" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.54296875" style="46" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.81640625" style="68" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" style="46" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" style="46" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1796875" style="46" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="46" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.88671875" style="46" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.21875" style="46" customWidth="1"/>
-    <col min="24" max="24" width="15.21875" style="46" customWidth="1"/>
-    <col min="25" max="25" width="14.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.90625" style="46" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.08984375" style="46" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="46" customWidth="1"/>
+    <col min="24" max="24" width="15.1796875" style="46" customWidth="1"/>
+    <col min="25" max="25" width="14.90625" style="46" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="42" style="46" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.77734375" style="46"/>
+    <col min="27" max="27" width="15.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="65" customFormat="1" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
-        <v>610</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="97"/>
-    </row>
-    <row r="2" spans="1:24" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="65" customFormat="1" ht="133.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="96" t="s">
+        <v>605</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="98"/>
+    </row>
+    <row r="2" spans="1:24" s="81" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
@@ -11233,73 +11442,73 @@
         <v>6</v>
       </c>
       <c r="C2" s="84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="85" t="s">
+        <v>396</v>
+      </c>
+      <c r="F2" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="85" t="s">
+      <c r="G2" s="84" t="s">
+        <v>348</v>
+      </c>
+      <c r="H2" s="84" t="s">
+        <v>398</v>
+      </c>
+      <c r="I2" s="84" t="s">
+        <v>399</v>
+      </c>
+      <c r="J2" s="84" t="s">
         <v>400</v>
       </c>
-      <c r="F2" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="84" t="s">
-        <v>349</v>
-      </c>
-      <c r="H2" s="84" t="s">
+      <c r="K2" s="86" t="s">
+        <v>401</v>
+      </c>
+      <c r="L2" s="84" t="s">
         <v>402</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="M2" s="84" t="s">
         <v>403</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="N2" s="84" t="s">
         <v>404</v>
       </c>
-      <c r="K2" s="86" t="s">
+      <c r="O2" s="84" t="s">
         <v>405</v>
       </c>
-      <c r="L2" s="84" t="s">
+      <c r="P2" s="84" t="s">
         <v>406</v>
       </c>
-      <c r="M2" s="84" t="s">
+      <c r="Q2" s="84" t="s">
         <v>407</v>
       </c>
-      <c r="N2" s="84" t="s">
+      <c r="R2" s="84" t="s">
         <v>408</v>
       </c>
-      <c r="O2" s="84" t="s">
+      <c r="S2" s="84" t="s">
+        <v>328</v>
+      </c>
+      <c r="T2" s="84" t="s">
+        <v>329</v>
+      </c>
+      <c r="U2" s="84" t="s">
+        <v>330</v>
+      </c>
+      <c r="V2" s="84" t="s">
         <v>409</v>
       </c>
-      <c r="P2" s="84" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q2" s="84" t="s">
-        <v>411</v>
-      </c>
-      <c r="R2" s="84" t="s">
-        <v>412</v>
-      </c>
-      <c r="S2" s="84" t="s">
-        <v>329</v>
-      </c>
-      <c r="T2" s="84" t="s">
-        <v>330</v>
-      </c>
-      <c r="U2" s="84" t="s">
-        <v>331</v>
-      </c>
-      <c r="V2" s="84" t="s">
-        <v>413</v>
-      </c>
       <c r="W2" s="84" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="X2" s="87" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="56" t="s">
         <v>4</v>
       </c>
@@ -11327,149 +11536,149 @@
       <c r="W3" s="47"/>
       <c r="X3" s="47"/>
     </row>
-    <row r="4" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="66" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="66" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F4" s="66" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G4" s="66">
         <v>2</v>
       </c>
       <c r="H4" s="66" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I4" s="66">
         <v>256</v>
       </c>
       <c r="J4" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="K4" s="66" t="s">
         <v>335</v>
       </c>
-      <c r="K4" s="66" t="s">
-        <v>336</v>
-      </c>
       <c r="L4" s="66" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M4" s="66" t="s">
+        <v>354</v>
+      </c>
+      <c r="N4" s="66" t="s">
+        <v>337</v>
+      </c>
+      <c r="O4" s="66" t="s">
         <v>355</v>
       </c>
-      <c r="N4" s="66" t="s">
-        <v>338</v>
-      </c>
-      <c r="O4" s="66" t="s">
-        <v>356</v>
-      </c>
       <c r="P4" s="66" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q4" s="66" t="s">
         <v>340</v>
-      </c>
-      <c r="Q4" s="66" t="s">
-        <v>341</v>
       </c>
       <c r="R4" s="66" t="b">
         <v>0</v>
       </c>
       <c r="S4" s="66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T4" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="U4" s="47" t="s">
         <v>342</v>
-      </c>
-      <c r="U4" s="47" t="s">
-        <v>343</v>
       </c>
       <c r="V4" s="47">
         <v>15</v>
       </c>
       <c r="W4" s="47" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="X4" s="45" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="66" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="66" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F5" s="66" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G5" s="66">
         <v>2</v>
       </c>
       <c r="H5" s="66" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I5" s="66">
         <v>256</v>
       </c>
       <c r="J5" s="66" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K5" s="66" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L5" s="66" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M5" s="66" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="N5" s="66" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="O5" s="66" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="P5" s="66" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q5" s="66" t="s">
         <v>340</v>
-      </c>
-      <c r="Q5" s="66" t="s">
-        <v>341</v>
       </c>
       <c r="R5" s="66" t="b">
         <v>1</v>
       </c>
       <c r="S5" s="66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T5" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="U5" s="47" t="s">
         <v>342</v>
-      </c>
-      <c r="U5" s="47" t="s">
-        <v>343</v>
       </c>
       <c r="V5" s="47">
         <v>15</v>
       </c>
       <c r="W5" s="90" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="X5" s="47"/>
     </row>
@@ -11516,65 +11725,65 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" style="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="46" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.77734375" style="68" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" style="46" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.54296875" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.54296875" style="46" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.81640625" style="68" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" style="46" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" style="46" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1796875" style="46" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="46" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.88671875" style="46" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.21875" style="46" customWidth="1"/>
-    <col min="24" max="25" width="14.5546875" style="46" customWidth="1"/>
-    <col min="26" max="26" width="15.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.77734375" style="46"/>
+    <col min="19" max="19" width="13.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.90625" style="46" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.08984375" style="46" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="46" customWidth="1"/>
+    <col min="24" max="25" width="14.54296875" style="46" customWidth="1"/>
+    <col min="26" max="26" width="15.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.81640625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="65" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
-        <v>611</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="97"/>
-    </row>
-    <row r="2" spans="1:24" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="65" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="96" t="s">
+        <v>606</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="98"/>
+    </row>
+    <row r="2" spans="1:24" s="81" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
@@ -11582,73 +11791,73 @@
         <v>6</v>
       </c>
       <c r="C2" s="84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="84" t="s">
+        <v>357</v>
+      </c>
+      <c r="F2" s="85" t="s">
+        <v>396</v>
+      </c>
+      <c r="G2" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="84" t="s">
-        <v>358</v>
-      </c>
-      <c r="F2" s="85" t="s">
+      <c r="H2" s="84" t="s">
+        <v>348</v>
+      </c>
+      <c r="I2" s="84" t="s">
+        <v>399</v>
+      </c>
+      <c r="J2" s="84" t="s">
         <v>400</v>
       </c>
-      <c r="G2" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="84" t="s">
-        <v>349</v>
-      </c>
-      <c r="I2" s="84" t="s">
-        <v>403</v>
-      </c>
-      <c r="J2" s="84" t="s">
+      <c r="K2" s="85" t="s">
+        <v>401</v>
+      </c>
+      <c r="L2" s="84" t="s">
+        <v>402</v>
+      </c>
+      <c r="M2" s="84" t="s">
+        <v>316</v>
+      </c>
+      <c r="N2" s="84" t="s">
         <v>404</v>
       </c>
-      <c r="K2" s="85" t="s">
+      <c r="O2" s="84" t="s">
         <v>405</v>
       </c>
-      <c r="L2" s="84" t="s">
+      <c r="P2" s="84" t="s">
         <v>406</v>
       </c>
-      <c r="M2" s="84" t="s">
-        <v>317</v>
-      </c>
-      <c r="N2" s="84" t="s">
+      <c r="Q2" s="84" t="s">
+        <v>407</v>
+      </c>
+      <c r="R2" s="84" t="s">
         <v>408</v>
       </c>
-      <c r="O2" s="84" t="s">
+      <c r="S2" s="84" t="s">
+        <v>328</v>
+      </c>
+      <c r="T2" s="84" t="s">
+        <v>329</v>
+      </c>
+      <c r="U2" s="84" t="s">
+        <v>330</v>
+      </c>
+      <c r="V2" s="84" t="s">
         <v>409</v>
       </c>
-      <c r="P2" s="84" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q2" s="84" t="s">
-        <v>411</v>
-      </c>
-      <c r="R2" s="84" t="s">
-        <v>412</v>
-      </c>
-      <c r="S2" s="84" t="s">
-        <v>329</v>
-      </c>
-      <c r="T2" s="84" t="s">
-        <v>330</v>
-      </c>
-      <c r="U2" s="84" t="s">
-        <v>331</v>
-      </c>
-      <c r="V2" s="84" t="s">
-        <v>413</v>
-      </c>
       <c r="W2" s="84" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="X2" s="21" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="75" customFormat="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="72" t="s">
         <v>4</v>
       </c>
@@ -11675,27 +11884,27 @@
       <c r="W3" s="71"/>
       <c r="X3" s="64"/>
     </row>
-    <row r="4" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="66" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F4" s="66" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G4" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H4" s="66">
         <v>2</v>
@@ -11704,52 +11913,52 @@
         <v>256</v>
       </c>
       <c r="J4" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="K4" s="66" t="s">
         <v>335</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="L4" s="66" t="s">
+        <v>358</v>
+      </c>
+      <c r="M4" s="66" t="s">
         <v>336</v>
       </c>
-      <c r="L4" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="M4" s="66" t="s">
+      <c r="N4" s="66" t="s">
         <v>337</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="O4" s="66" t="s">
         <v>338</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="P4" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="Q4" s="66" t="s">
         <v>340</v>
-      </c>
-      <c r="Q4" s="66" t="s">
-        <v>341</v>
       </c>
       <c r="R4" s="66" t="b">
         <v>1</v>
       </c>
       <c r="S4" s="66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T4" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="U4" s="47" t="s">
         <v>342</v>
-      </c>
-      <c r="U4" s="47" t="s">
-        <v>343</v>
       </c>
       <c r="V4" s="47">
         <v>10</v>
       </c>
       <c r="W4" s="90" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="X4" s="45" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="63"/>
       <c r="B5" s="60"/>
       <c r="C5" s="70"/>
@@ -11792,756 +12001,756 @@
       <selection activeCell="I2" sqref="I2:I108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" style="46" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="46" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="46"/>
+    <col min="3" max="3" width="9.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" style="46" customWidth="1"/>
+    <col min="9" max="9" width="15.90625" style="46" customWidth="1"/>
+    <col min="10" max="16384" width="8.90625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>356</v>
+      </c>
+      <c r="G1" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="H1" s="77" t="s">
+        <v>330</v>
+      </c>
+      <c r="I1" s="77" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.45">
+      <c r="A2" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>428</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="G2" s="66" t="s">
+        <v>335</v>
+      </c>
+      <c r="H2" s="89" t="s">
+        <v>342</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.45">
+      <c r="A3" s="47" t="s">
         <v>345</v>
       </c>
-      <c r="B1" s="61" t="s">
-        <v>430</v>
-      </c>
-      <c r="C1" s="76" t="s">
-        <v>431</v>
-      </c>
-      <c r="D1" s="76" t="s">
-        <v>328</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>361</v>
-      </c>
-      <c r="F1" s="61" t="s">
-        <v>357</v>
-      </c>
-      <c r="G1" s="77" t="s">
-        <v>405</v>
-      </c>
-      <c r="H1" s="77" t="s">
-        <v>331</v>
-      </c>
-      <c r="I1" s="77" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>334</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>432</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>341</v>
-      </c>
-      <c r="E2" s="47" t="s">
+      <c r="B3" s="69" t="s">
+        <v>429</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>442</v>
+      </c>
+      <c r="E3" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F3" s="47" t="s">
+        <v>353</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="H3" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="47" t="s">
+        <v>346</v>
+      </c>
+      <c r="B4" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="G2" s="66" t="s">
-        <v>336</v>
-      </c>
-      <c r="H2" s="89" t="s">
-        <v>343</v>
-      </c>
-      <c r="I2" s="47" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="47" t="s">
-        <v>346</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>433</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>338</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>446</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>363</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>354</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>418</v>
-      </c>
-      <c r="H3" s="89" t="s">
-        <v>576</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
-        <v>347</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>351</v>
-      </c>
       <c r="C4" s="47" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D4" s="47"/>
       <c r="E4" s="47" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
       <c r="I4" s="47" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="47" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
       <c r="I5" s="47" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="47" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B6" s="47"/>
       <c r="C6" s="47" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6" s="47" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
       <c r="I6" s="47" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="47" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B7" s="47"/>
       <c r="C7" s="47" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D7" s="47"/>
       <c r="E7" s="47" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="47"/>
       <c r="I7" s="47" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D8" s="47"/>
       <c r="E8" s="47" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="47"/>
       <c r="I8" s="47" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="47"/>
       <c r="B9" s="47"/>
       <c r="C9" s="47" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D9" s="47"/>
       <c r="E9" s="47" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F9" s="47"/>
       <c r="G9" s="47"/>
       <c r="I9" s="47" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D10" s="47"/>
       <c r="E10" s="47" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
       <c r="I10" s="47" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="47"/>
       <c r="B11" s="47"/>
       <c r="C11" s="47" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D11" s="47"/>
       <c r="E11" s="47" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F11" s="47"/>
       <c r="G11" s="47"/>
       <c r="I11" s="47" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="47"/>
       <c r="B12" s="47"/>
       <c r="C12" s="47" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D12" s="47"/>
       <c r="E12" s="47"/>
       <c r="F12" s="47"/>
       <c r="G12" s="47"/>
       <c r="I12" s="47" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="47"/>
       <c r="B13" s="47"/>
       <c r="C13" s="47" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="47"/>
       <c r="F13" s="47"/>
       <c r="G13" s="47"/>
       <c r="I13" s="47" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
       <c r="C14" s="47" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D14" s="47"/>
       <c r="E14" s="47"/>
       <c r="F14" s="47"/>
       <c r="G14" s="47"/>
       <c r="I14" s="47" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I15" s="47" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I16" s="47" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I17" s="47" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I18" s="47" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I19" s="47" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I15" s="47" t="s">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I20" s="47" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I16" s="47" t="s">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I21" s="47" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I17" s="47" t="s">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I22" s="47" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I18" s="47" t="s">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I23" s="47" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I19" s="47" t="s">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I24" s="47" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I20" s="47" t="s">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I25" s="47" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I21" s="47" t="s">
+    <row r="26" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I26" s="47" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I22" s="47" t="s">
+    <row r="27" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I27" s="47" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I23" s="47" t="s">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I28" s="47" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I24" s="47" t="s">
+    <row r="29" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I29" s="47" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I25" s="47" t="s">
+    <row r="30" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I30" s="47" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I26" s="47" t="s">
+    <row r="31" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I31" s="47" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I27" s="47" t="s">
+    <row r="32" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I32" s="47" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I28" s="47" t="s">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I33" s="47" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I29" s="47" t="s">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I34" s="47" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I30" s="47" t="s">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I35" s="47" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I31" s="47" t="s">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I36" s="47" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I32" s="47" t="s">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I37" s="47" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I33" s="47" t="s">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I38" s="47" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I34" s="47" t="s">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I39" s="47" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I35" s="47" t="s">
+    <row r="40" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I40" s="47" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I36" s="47" t="s">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I41" s="47" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I37" s="47" t="s">
+    <row r="42" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I42" s="47" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I38" s="47" t="s">
+    <row r="43" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I43" s="47" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I39" s="47" t="s">
+    <row r="44" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I44" s="47" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I40" s="47" t="s">
+    <row r="45" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I45" s="47" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I41" s="47" t="s">
+    <row r="46" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I46" s="47" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I42" s="47" t="s">
+    <row r="47" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I47" s="47" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I43" s="47" t="s">
+    <row r="48" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I48" s="47" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I44" s="47" t="s">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I49" s="47" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I45" s="47" t="s">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I50" s="47" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I46" s="47" t="s">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I51" s="47" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I47" s="47" t="s">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I52" s="47" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I48" s="47" t="s">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I53" s="47" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I49" s="47" t="s">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I54" s="47" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I50" s="47" t="s">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I55" s="47" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I51" s="47" t="s">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I56" s="47" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I52" s="47" t="s">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I57" s="47" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I53" s="47" t="s">
+    <row r="58" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I58" s="47" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I54" s="47" t="s">
+    <row r="59" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I59" s="47" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I55" s="47" t="s">
+    <row r="60" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I60" s="47" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I56" s="47" t="s">
+    <row r="61" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I61" s="47" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I57" s="47" t="s">
+    <row r="62" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I62" s="47" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I58" s="47" t="s">
+    <row r="63" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I63" s="47" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I59" s="47" t="s">
+    <row r="64" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I64" s="47" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I60" s="47" t="s">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I65" s="47" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I61" s="47" t="s">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I66" s="47" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I62" s="47" t="s">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I67" s="47" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I63" s="47" t="s">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I68" s="47" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I64" s="47" t="s">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I69" s="47" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I65" s="47" t="s">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I70" s="47" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I66" s="47" t="s">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I71" s="47" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I67" s="47" t="s">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I72" s="47" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I68" s="47" t="s">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I73" s="47" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I69" s="47" t="s">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I74" s="47" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I70" s="47" t="s">
+    <row r="75" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I75" s="47" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I71" s="47" t="s">
+    <row r="76" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I76" s="47" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I72" s="47" t="s">
+    <row r="77" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I77" s="47" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I73" s="47" t="s">
+    <row r="78" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I78" s="47" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I74" s="47" t="s">
+    <row r="79" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I79" s="47" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I75" s="47" t="s">
+    <row r="80" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I80" s="47" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I76" s="47" t="s">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I81" s="47" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I77" s="47" t="s">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I82" s="47" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I78" s="47" t="s">
+    <row r="83" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I83" s="47" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I79" s="47" t="s">
+    <row r="84" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I84" s="47" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I80" s="47" t="s">
+    <row r="85" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I85" s="47" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I81" s="47" t="s">
+    <row r="86" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I86" s="47" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I82" s="47" t="s">
+    <row r="87" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I87" s="47" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I83" s="47" t="s">
+    <row r="88" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I88" s="47" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I84" s="47" t="s">
+    <row r="89" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I89" s="47" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I85" s="47" t="s">
+    <row r="90" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I90" s="47" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I86" s="47" t="s">
+    <row r="91" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I91" s="47" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I87" s="47" t="s">
+    <row r="92" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I92" s="47" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I88" s="47" t="s">
+    <row r="93" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I93" s="47" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I89" s="47" t="s">
+    <row r="94" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I94" s="47" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I90" s="47" t="s">
+    <row r="95" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I95" s="47" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I91" s="47" t="s">
+    <row r="96" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I96" s="47" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I92" s="47" t="s">
+    <row r="97" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I97" s="47" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I93" s="47" t="s">
+    <row r="98" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I98" s="47" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I94" s="47" t="s">
+    <row r="99" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I99" s="47" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I95" s="47" t="s">
+    <row r="100" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I100" s="47" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I96" s="47" t="s">
+    <row r="101" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I101" s="47" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I97" s="47" t="s">
+    <row r="102" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I102" s="47" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I98" s="47" t="s">
+    <row r="103" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I103" s="47" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I99" s="47" t="s">
+    <row r="104" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I104" s="47" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I100" s="47" t="s">
+    <row r="105" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I105" s="47" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I101" s="47" t="s">
+    <row r="106" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I106" s="47" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I102" s="47" t="s">
+    <row r="107" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I107" s="47" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I103" s="47" t="s">
+    <row r="108" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I108" s="47" t="s">
         <v>596</v>
-      </c>
-    </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I104" s="47" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I105" s="47" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I106" s="47" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I107" s="47" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I108" s="47" t="s">
-        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -12555,31 +12764,31 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" style="46" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" style="46" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="31.36328125" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="54" customFormat="1" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>463</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="54" customFormat="1" ht="105.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="95" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -12590,72 +12799,166 @@
         <v>2</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>371</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>372</v>
+        <v>321</v>
+      </c>
+      <c r="B3" s="91" t="s">
+        <v>370</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>631</v>
       </c>
       <c r="D3" s="47"/>
       <c r="E3" s="47"/>
     </row>
-    <row r="4" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
-        <v>5</v>
+        <v>321</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>615</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>616</v>
+        <v>632</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>633</v>
       </c>
       <c r="D4" s="47"/>
       <c r="E4" s="47"/>
     </row>
-    <row r="5" spans="1:5" s="46" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>373</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>617</v>
+        <v>634</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>635</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
     </row>
-    <row r="6" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>618</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>619</v>
+        <v>636</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>637</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6" s="47"/>
     </row>
-    <row r="7" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
+        <v>321</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>610</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:5" s="47" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>638</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>639</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+    </row>
+    <row r="9" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>640</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>642</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>644</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>646</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>648</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>650</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>652</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>653</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12671,36 +12974,36 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" style="46" customWidth="1"/>
     <col min="4" max="4" width="16" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" style="46" customWidth="1"/>
-    <col min="6" max="7" width="28.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="49.36328125" style="46" customWidth="1"/>
+    <col min="6" max="7" width="28.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="54" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>464</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-    </row>
-    <row r="2" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="54" customFormat="1" ht="102.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="95" t="s">
+        <v>459</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+    </row>
+    <row r="2" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -12723,188 +13026,578 @@
         <v>9</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="46" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="46" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>375</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>393</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>447</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>620</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>371</v>
-      </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="47"/>
-    </row>
-    <row r="4" spans="1:8" s="46" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>621</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>393</v>
-      </c>
-      <c r="D4" s="92" t="s">
-        <v>622</v>
-      </c>
-      <c r="E4" s="93" t="s">
-        <v>376</v>
-      </c>
-      <c r="F4" s="93" t="s">
-        <v>615</v>
-      </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="47"/>
-    </row>
-    <row r="5" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>654</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>655</v>
+      </c>
+      <c r="E3" s="93" t="s">
+        <v>656</v>
+      </c>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="94"/>
+    </row>
+    <row r="4" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>657</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>658</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+    </row>
+    <row r="5" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>623</v>
+        <v>660</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>393</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>624</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>618</v>
-      </c>
-      <c r="G5" s="91" t="s">
-        <v>370</v>
-      </c>
-      <c r="H5" s="47"/>
-    </row>
-    <row r="6" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>661</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+    </row>
+    <row r="6" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47" t="s">
-        <v>625</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>618</v>
-      </c>
-      <c r="G6" s="91" t="s">
-        <v>370</v>
-      </c>
-      <c r="H6" s="47"/>
-    </row>
-    <row r="7" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="45"/>
+      <c r="E6" s="45" t="s">
+        <v>663</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+    </row>
+    <row r="7" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47" t="s">
-        <v>626</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>618</v>
-      </c>
-      <c r="G7" s="91" t="s">
-        <v>370</v>
-      </c>
-      <c r="H7" s="47"/>
-    </row>
-    <row r="8" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="45"/>
+      <c r="E7" s="45" t="s">
+        <v>664</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+    </row>
+    <row r="8" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47" t="s">
-        <v>627</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>618</v>
-      </c>
-      <c r="G8" s="91" t="s">
-        <v>612</v>
-      </c>
-      <c r="H8" s="47"/>
-    </row>
-    <row r="9" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="45"/>
+      <c r="E8" s="45" t="s">
+        <v>665</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+    </row>
+    <row r="9" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47" t="s">
-        <v>376</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>618</v>
-      </c>
-      <c r="G9" s="91"/>
-      <c r="H9" s="47"/>
-    </row>
-    <row r="10" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>628</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>393</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>629</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>630</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>373</v>
-      </c>
-      <c r="G10" s="91" t="s">
-        <v>612</v>
-      </c>
-      <c r="H10" s="47"/>
-    </row>
-    <row r="11" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="45"/>
+      <c r="E9" s="45" t="s">
+        <v>666</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+    </row>
+    <row r="10" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="47"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45" t="s">
+        <v>667</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+    </row>
+    <row r="11" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47" t="s">
-        <v>376</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>373</v>
-      </c>
-      <c r="G11" s="91"/>
-      <c r="H11" s="47"/>
-    </row>
-    <row r="12" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="45"/>
+      <c r="E11" s="45" t="s">
+        <v>668</v>
+      </c>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+    </row>
+    <row r="12" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>669</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>670</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+    </row>
+    <row r="13" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>672</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>673</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>674</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+    </row>
+    <row r="14" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="47"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45" t="s">
+        <v>675</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+    </row>
+    <row r="15" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="47"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45" t="s">
+        <v>676</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+    </row>
+    <row r="16" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="47"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45" t="s">
+        <v>677</v>
+      </c>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+    </row>
+    <row r="17" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>678</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>679</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>680</v>
+      </c>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="47"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45" t="s">
+        <v>681</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+    </row>
+    <row r="19" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="47"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45" t="s">
+        <v>682</v>
+      </c>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+    </row>
+    <row r="20" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="47"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45" t="s">
+        <v>683</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+    </row>
+    <row r="21" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="47"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45" t="s">
+        <v>684</v>
+      </c>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+    </row>
+    <row r="22" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="47"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45" t="s">
+        <v>685</v>
+      </c>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+    </row>
+    <row r="23" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="47"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45" t="s">
+        <v>686</v>
+      </c>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+    </row>
+    <row r="24" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="47"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45" t="s">
+        <v>687</v>
+      </c>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+    </row>
+    <row r="25" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="47"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45" t="s">
+        <v>688</v>
+      </c>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+    </row>
+    <row r="26" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>689</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>690</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>691</v>
+      </c>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+    </row>
+    <row r="27" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="47"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45" t="s">
+        <v>692</v>
+      </c>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+    </row>
+    <row r="28" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="47"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45" t="s">
+        <v>693</v>
+      </c>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+    </row>
+    <row r="29" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="47"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45" t="s">
+        <v>694</v>
+      </c>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+    </row>
+    <row r="30" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>695</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>696</v>
+      </c>
+      <c r="E30" s="45" t="s">
+        <v>697</v>
+      </c>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+    </row>
+    <row r="31" spans="1:7" s="46" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="47"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45" t="s">
+        <v>698</v>
+      </c>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+    </row>
+    <row r="32" spans="1:7" s="46" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="47"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45" t="s">
+        <v>699</v>
+      </c>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+    </row>
+    <row r="33" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="47"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45" t="s">
+        <v>700</v>
+      </c>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+    </row>
+    <row r="34" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="47"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45" t="s">
+        <v>701</v>
+      </c>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+    </row>
+    <row r="35" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="47"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45" t="s">
+        <v>701</v>
+      </c>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+    </row>
+    <row r="36" spans="1:7" s="46" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>702</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="D36" s="45" t="s">
+        <v>703</v>
+      </c>
+      <c r="E36" s="45" t="s">
+        <v>704</v>
+      </c>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+    </row>
+    <row r="37" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="47"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45" t="s">
+        <v>705</v>
+      </c>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+    </row>
+    <row r="38" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="47"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45" t="s">
+        <v>706</v>
+      </c>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+    </row>
+    <row r="39" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="47"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45" t="s">
+        <v>707</v>
+      </c>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+    </row>
+    <row r="40" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="47"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45" t="s">
+        <v>708</v>
+      </c>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+    </row>
+    <row r="41" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>709</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>710</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+    </row>
+    <row r="42" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>712</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>713</v>
+      </c>
+      <c r="E42" s="45" t="s">
+        <v>714</v>
+      </c>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+    </row>
+    <row r="43" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="47"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45" t="s">
+        <v>715</v>
+      </c>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+    </row>
+    <row r="44" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="D44" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>718</v>
+      </c>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+    </row>
+    <row r="45" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="47"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12922,37 +13615,37 @@
       <selection activeCell="A3" sqref="A3:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="4"/>
-    <col min="2" max="2" width="19.21875" style="46" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="46" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="46" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="46" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" style="4"/>
+    <col min="2" max="2" width="19.1796875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="21.90625" style="46" customWidth="1"/>
+    <col min="7" max="7" width="21.6328125" style="46" customWidth="1"/>
     <col min="8" max="8" width="21" style="46" customWidth="1"/>
-    <col min="9" max="9" width="23.77734375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.81640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
-        <v>495</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98" t="s">
-        <v>492</v>
-      </c>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="100"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="96" t="s">
+        <v>490</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99" t="s">
+        <v>487</v>
+      </c>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="101"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
@@ -12960,31 +13653,31 @@
         <v>6</v>
       </c>
       <c r="C2" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="E2" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="F2" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="G2" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="H2" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="I2" s="51" t="s">
+        <v>448</v>
+      </c>
+      <c r="J2" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="I2" s="51" t="s">
-        <v>453</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="53" t="s">
         <v>4</v>
       </c>
@@ -12998,69 +13691,69 @@
       <c r="I3" s="52"/>
       <c r="J3" s="53"/>
     </row>
-    <row r="4" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C4" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>299</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="E4" s="31" t="s">
         <v>300</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>301</v>
       </c>
       <c r="F4" s="31"/>
       <c r="G4" s="31" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="J4" s="38" t="s">
         <v>302</v>
       </c>
-      <c r="I4" s="33" t="s">
-        <v>369</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="59"/>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
       <c r="D5" s="31"/>
       <c r="E5" s="31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F5" s="31"/>
       <c r="G5" s="31" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J5" s="38"/>
     </row>
-    <row r="6" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="31"/>
@@ -13068,21 +13761,21 @@
       <c r="I6" s="59"/>
       <c r="J6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="31"/>
@@ -13090,13 +13783,13 @@
       <c r="I7" s="33"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="59"/>
       <c r="B8" s="35"/>
       <c r="C8" s="36"/>
       <c r="D8" s="31"/>
       <c r="E8" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F8" s="32"/>
       <c r="G8" s="31"/>
@@ -13104,41 +13797,41 @@
       <c r="I8" s="37"/>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="F9" s="31" t="s">
         <v>310</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>311</v>
       </c>
       <c r="G9" s="31" t="b">
         <v>1</v>
       </c>
       <c r="H9" s="31"/>
       <c r="I9" s="47" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="38"/>
       <c r="B10" s="35"/>
       <c r="C10" s="36"/>
       <c r="D10" s="31"/>
       <c r="E10" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
@@ -13146,13 +13839,13 @@
       <c r="I10" s="37"/>
       <c r="J10" s="38"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="59"/>
       <c r="B11" s="35"/>
       <c r="C11" s="39"/>
       <c r="D11" s="31"/>
       <c r="E11" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
@@ -13160,19 +13853,19 @@
       <c r="I11" s="37"/>
       <c r="J11" s="38"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="59"/>
       <c r="B12" s="35"/>
       <c r="C12" s="39"/>
       <c r="D12" s="31"/>
       <c r="E12" s="31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
       <c r="I12" s="47" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J12" s="38"/>
     </row>
@@ -13197,40 +13890,40 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
-    <col min="2" max="3" width="16.44140625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" style="46" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="46" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
+    <col min="2" max="3" width="16.453125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="46" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" style="46" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="46" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" style="46" customWidth="1"/>
     <col min="9" max="9" width="14" style="46" customWidth="1"/>
-    <col min="10" max="10" width="22.5546875" style="46" customWidth="1"/>
-    <col min="11" max="11" width="26.44140625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="22.54296875" style="46" customWidth="1"/>
+    <col min="11" max="11" width="26.453125" style="46" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="46" customFormat="1" ht="187.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
-        <v>478</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="95" t="s">
-        <v>479</v>
-      </c>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="97"/>
-    </row>
-    <row r="2" spans="1:12" s="54" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="46" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="96" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="96" t="s">
+        <v>474</v>
+      </c>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="98"/>
+    </row>
+    <row r="2" spans="1:12" s="54" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -13238,71 +13931,71 @@
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="L2" s="40" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B3" s="47" t="s">
+        <v>607</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>611</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="47" t="s">
         <v>612</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>631</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>632</v>
       </c>
       <c r="K3" s="47"/>
       <c r="L3" s="42"/>
     </row>
-    <row r="4" spans="1:12" s="46" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="46" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="42" t="s">
         <v>4</v>
       </c>
@@ -13339,56 +14032,56 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.21875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="46" customWidth="1"/>
-    <col min="3" max="10" width="9.21875" style="46" customWidth="1"/>
-    <col min="11" max="16384" width="9.21875" style="46"/>
+    <col min="1" max="1" width="32.1796875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="50.54296875" style="46" customWidth="1"/>
+    <col min="3" max="10" width="9.1796875" style="46" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="54" customFormat="1" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>458</v>
-      </c>
-      <c r="B1" s="100"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="54" customFormat="1" ht="121.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="95" t="s">
+        <v>453</v>
+      </c>
+      <c r="B1" s="101"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="11" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="47"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="47"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="47" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="47" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="B6" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -13411,31 +14104,31 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="46" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" style="46" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.54296875" style="46" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>465</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-    </row>
-    <row r="2" spans="1:8" s="54" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="95" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+    </row>
+    <row r="2" spans="1:8" s="54" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -13443,25 +14136,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="H2" s="40" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -13493,52 +14186,52 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="46" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" style="46" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" style="46" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" style="46" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.44140625" style="46" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="46" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="46" customWidth="1"/>
-    <col min="13" max="13" width="15.77734375" style="46" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="46" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" style="46" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" style="46" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="46" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.453125" style="46" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" style="46" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" style="46" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" style="46" customWidth="1"/>
+    <col min="14" max="14" width="13.6328125" style="46" customWidth="1"/>
+    <col min="15" max="15" width="11.90625" style="46" customWidth="1"/>
+    <col min="16" max="16" width="14.08984375" style="46" customWidth="1"/>
     <col min="17" max="17" width="10" style="46" customWidth="1"/>
-    <col min="18" max="18" width="24.21875" customWidth="1"/>
+    <col min="18" max="18" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="173.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
-        <v>459</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="101" t="s">
-        <v>466</v>
-      </c>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-    </row>
-    <row r="2" spans="1:18" s="54" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="173.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="96" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="102" t="s">
+        <v>461</v>
+      </c>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+    </row>
+    <row r="2" spans="1:18" s="54" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -13546,193 +14239,193 @@
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="12" t="s">
-        <v>45</v>
-      </c>
       <c r="Q2" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R2" s="41" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="E3" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="47" t="s">
-        <v>47</v>
-      </c>
       <c r="G3" s="47" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
       <c r="K3" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="57" t="s">
-        <v>23</v>
-      </c>
       <c r="M3" s="57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N3" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="57" t="s">
         <v>22</v>
-      </c>
-      <c r="O3" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="57" t="s">
-        <v>23</v>
       </c>
       <c r="Q3" s="58"/>
       <c r="R3" s="42"/>
     </row>
-    <row r="4" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
       <c r="J4" s="47"/>
       <c r="K4" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="57" t="s">
-        <v>23</v>
-      </c>
       <c r="M4" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="57" t="s">
-        <v>23</v>
-      </c>
       <c r="O4" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="57" t="s">
         <v>22</v>
-      </c>
-      <c r="P4" s="57" t="s">
-        <v>23</v>
       </c>
       <c r="Q4" s="58"/>
       <c r="R4" s="47"/>
     </row>
-    <row r="5" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="46" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
       <c r="J5" s="47"/>
       <c r="K5" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="57" t="s">
+        <v>376</v>
+      </c>
+      <c r="M5" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="57" t="s">
-        <v>380</v>
-      </c>
-      <c r="M5" s="57" t="s">
+      <c r="O5" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="57" t="s">
         <v>22</v>
-      </c>
-      <c r="N5" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="57" t="s">
-        <v>23</v>
       </c>
       <c r="Q5" s="58"/>
       <c r="R5" s="47"/>
     </row>
-    <row r="6" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="47" t="s">
         <v>4</v>
       </c>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-mvt-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-mvt-template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ocifromnewgit\oci_tenancy\SetUpOCI_Via_TF\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_master\oci_tenancy\SetUpOCI_Via_TF\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="719">
   <si>
     <t>Region</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Policy Statement Compartment</t>
   </si>
   <si>
-    <t>Allow group $ to manage instance-family in compartment *</t>
-  </si>
-  <si>
     <t>VCN Name</t>
   </si>
   <si>
@@ -1192,21 +1189,12 @@
     <t>OCI_Admins</t>
   </si>
   <si>
-    <t>Admin Group</t>
-  </si>
-  <si>
     <t>Network_Admins</t>
   </si>
   <si>
     <t>Listener1</t>
   </si>
   <si>
-    <t>AdminPolicy</t>
-  </si>
-  <si>
-    <t>Allow group $ to read all-resources in tenancy</t>
-  </si>
-  <si>
     <t>Network::TCC</t>
   </si>
   <si>
@@ -1415,9 +1403,6 @@
   </si>
   <si>
     <t>DSS</t>
-  </si>
-  <si>
-    <t>Administrators</t>
   </si>
   <si>
     <t>FreeForm Tags</t>
@@ -5834,54 +5819,9 @@
     <t>Compartment for all other Resources</t>
   </si>
   <si>
-    <t>OCI_Viewers</t>
-  </si>
-  <si>
-    <t>Viewer Group</t>
-  </si>
-  <si>
     <t>Network Administrators</t>
   </si>
   <si>
-    <t>Apps_Admins</t>
-  </si>
-  <si>
-    <t>Compute Apps admins</t>
-  </si>
-  <si>
-    <t>Allow group $ to manage all-resources in tenancy</t>
-  </si>
-  <si>
-    <t>ViewerPolicy</t>
-  </si>
-  <si>
-    <t>Viewers</t>
-  </si>
-  <si>
-    <t>AppsPolicy</t>
-  </si>
-  <si>
-    <t>Apps Manage</t>
-  </si>
-  <si>
-    <t>Allow group $ to manage database-family in compartment *</t>
-  </si>
-  <si>
-    <t>Allow group $ to manage volume-family in compartment *</t>
-  </si>
-  <si>
-    <t>Allow group $ to use virtual-network-family in compartment *</t>
-  </si>
-  <si>
-    <t>InfrastructurePolicy</t>
-  </si>
-  <si>
-    <t>Infrastructure Manage</t>
-  </si>
-  <si>
-    <t>Allow group $ to manage virtual-network-family in compartment *</t>
-  </si>
-  <si>
     <t>mvt-vcn</t>
   </si>
   <si>
@@ -5940,6 +5880,270 @@
   </si>
   <si>
     <t>mvt-db_Disk2</t>
+  </si>
+  <si>
+    <t>OCI Administrators</t>
+  </si>
+  <si>
+    <t>Report_Admins</t>
+  </si>
+  <si>
+    <t>Report Administrators</t>
+  </si>
+  <si>
+    <t>Tenancy_Viewers</t>
+  </si>
+  <si>
+    <t>Tenancy Viewers</t>
+  </si>
+  <si>
+    <t>IAM_Admins</t>
+  </si>
+  <si>
+    <t>IAM Administrators</t>
+  </si>
+  <si>
+    <t>Security_Admins</t>
+  </si>
+  <si>
+    <t>Security Administrators</t>
+  </si>
+  <si>
+    <t>Compute_Admins</t>
+  </si>
+  <si>
+    <t>Compute Administrators</t>
+  </si>
+  <si>
+    <t>Database_Admins</t>
+  </si>
+  <si>
+    <t>Database Administrators</t>
+  </si>
+  <si>
+    <t>Storage_Admins</t>
+  </si>
+  <si>
+    <t>Storage Administrators</t>
+  </si>
+  <si>
+    <t>Monitoring_Admins</t>
+  </si>
+  <si>
+    <t>Monitoring Administrators</t>
+  </si>
+  <si>
+    <t>Compute_Ops</t>
+  </si>
+  <si>
+    <t>Compute Operations</t>
+  </si>
+  <si>
+    <t>Database_Ops</t>
+  </si>
+  <si>
+    <t>Database Operations</t>
+  </si>
+  <si>
+    <t>Netwok_Ops</t>
+  </si>
+  <si>
+    <t>Network Operations</t>
+  </si>
+  <si>
+    <t>OCI_Admins_Policy</t>
+  </si>
+  <si>
+    <t>Policy for OCI_Admins</t>
+  </si>
+  <si>
+    <t>Allow group OCI_Admins to manage all-resources in tenancy</t>
+  </si>
+  <si>
+    <t>Tenancy_Viewers_Policy</t>
+  </si>
+  <si>
+    <t>Policy for Tenancy_Viewers</t>
+  </si>
+  <si>
+    <t>Allow group Tenancy_Viewers to read all-resources in tenancy</t>
+  </si>
+  <si>
+    <t>IAM_Admins_Policy</t>
+  </si>
+  <si>
+    <t>Policy for IAM_Admins</t>
+  </si>
+  <si>
+    <t>Allow group IAM_Admins to manage compartments in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group IAM_Admins to manage users in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group IAM_Admins to manage groups in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group IAM_Admins to manage dynamic-groups in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group IAM_Admins to manage policies in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group IAM_Admins to use users in tenancy where target.group.name != 'Administrators'</t>
+  </si>
+  <si>
+    <t>Allow group IAM_Admins to use groups in tenancy where target.group.name != 'Administrators'</t>
+  </si>
+  <si>
+    <t>Network_Admins_Policy</t>
+  </si>
+  <si>
+    <t>Policy for Network_Admins</t>
+  </si>
+  <si>
+    <t>Allow group Network_Admins to manage virtual-network-family in tenancy</t>
+  </si>
+  <si>
+    <t>Security_Admins_Policy</t>
+  </si>
+  <si>
+    <t>Policy for Security_Admins</t>
+  </si>
+  <si>
+    <t>Allow group Security_Admins to manage vaults in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Security_Admins to manage keys in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Security_Admins to manage secret-family in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Security_Admins to Manage cloud-guard-family in tenancy</t>
+  </si>
+  <si>
+    <t>Compute_Admins_Policy</t>
+  </si>
+  <si>
+    <t>Policy for Compute_Admins</t>
+  </si>
+  <si>
+    <t>Allow group Compute_Admins to manage instance-family in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Compute_Admins to manage compute-management-family in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Compute_Admins to use volume-family in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Compute_Admins to use file-family in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Compute_Admins to use buckets in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Compute_Admins to use objects in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Compute_Admins to use virtual-network-family in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Compute_Admins to use keys in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Compute_Admins to manage function-family in tenancy</t>
+  </si>
+  <si>
+    <t>Database_Admins_Policy</t>
+  </si>
+  <si>
+    <t>Policy for Database_Admins</t>
+  </si>
+  <si>
+    <t>Allow group Database_Admins to manage database-family in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Database_Admins to manage buckets in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Database_Admins to manage objects in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Database_Admins to use virtual-network-family in tenancy</t>
+  </si>
+  <si>
+    <t>Storage_Admins_Policy</t>
+  </si>
+  <si>
+    <t>Policy for Storage_Admins</t>
+  </si>
+  <si>
+    <t>Allow group Storage_Admins to manage volume-family in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Storage_Admins to use volume-backups in tenancy where request.permission='VOLUME_BACKUP_COPY'</t>
+  </si>
+  <si>
+    <t>Allow group Storage_Admins to use boot-volume-backups in tenancy where request.permission='BOOT_VOLUME_BACKUP_COPY'</t>
+  </si>
+  <si>
+    <t>Allow group Storage_Admins to manage object-family in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Storage_Admins to manage file-family in tenancy</t>
+  </si>
+  <si>
+    <t>Monitoring_Admins_Policy</t>
+  </si>
+  <si>
+    <t>Policy for Monitoring_Admins</t>
+  </si>
+  <si>
+    <t>Allow group Monitoring_Admins to manage alarms in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Monitoring_Admins to use metrics in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Monitoring_Admins to manage ons-topics in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Monitoring_Admins to manage ons-subscriptions in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Monitoring_Admins to manage cloudevents-rules in tenancy</t>
+  </si>
+  <si>
+    <t>Network_Ops_Policy</t>
+  </si>
+  <si>
+    <t>Policy for Network_Ops</t>
+  </si>
+  <si>
+    <t>Allow group Network_Ops to use virtual-network-family in tenancy</t>
+  </si>
+  <si>
+    <t>Compute_Ops_Policy</t>
+  </si>
+  <si>
+    <t>Policy for Compute_Ops</t>
+  </si>
+  <si>
+    <t>Allow group Compute_Ops to use instance-family in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group Compute_Ops to use compute-management-family in tenancy</t>
+  </si>
+  <si>
+    <t>Database_Ops_Policy</t>
+  </si>
+  <si>
+    <t>Policy for Database_Ops</t>
+  </si>
+  <si>
+    <t>Allow group Database_Ops to use database-family in tenancy</t>
   </si>
 </sst>
 </file>
@@ -6427,7 +6631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6637,9 +6841,14 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -7097,15 +7306,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="167.109375" style="46" customWidth="1"/>
+    <col min="1" max="1" width="167.08984375" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:1" ht="58.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="88" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -7125,49 +7334,49 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.21875" style="46" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.77734375" style="46" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" style="46" customWidth="1"/>
-    <col min="11" max="11" width="26.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" style="46" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.81640625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="22.08984375" style="46" customWidth="1"/>
+    <col min="11" max="11" width="26.81640625" style="46" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="46" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" style="46" customWidth="1"/>
-    <col min="14" max="14" width="19.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" style="46" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" customWidth="1"/>
+    <col min="14" max="14" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.36328125" style="46" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="102" t="s">
-        <v>493</v>
-      </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="95" t="s">
-        <v>603</v>
-      </c>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="97"/>
-    </row>
-    <row r="2" spans="1:16" s="54" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="103" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="96" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="98"/>
+    </row>
+    <row r="2" spans="1:16" s="54" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
@@ -7175,79 +7384,79 @@
         <v>6</v>
       </c>
       <c r="C2" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>468</v>
+      </c>
+      <c r="J2" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>473</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>78</v>
-      </c>
       <c r="K2" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="M2" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="N2" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="M2" s="12" t="s">
-        <v>602</v>
-      </c>
-      <c r="N2" s="40" t="s">
+      <c r="O2" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="O2" s="40" t="s">
-        <v>91</v>
-      </c>
       <c r="P2" s="40" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="46" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="46" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="G3" s="47" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="47"/>
       <c r="I3" s="47" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="J3" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="47" t="s">
         <v>95</v>
-      </c>
-      <c r="K3" s="47" t="s">
-        <v>96</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -7255,37 +7464,37 @@
       <c r="O3" s="47"/>
       <c r="P3" s="47"/>
     </row>
-    <row r="4" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="G4" s="47" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="47" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="J4" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="47" t="s">
         <v>95</v>
-      </c>
-      <c r="K4" s="47" t="s">
-        <v>96</v>
       </c>
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
@@ -7293,37 +7502,37 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
     </row>
-    <row r="5" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="56" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="G5" s="47" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="56"/>
       <c r="I5" s="47" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="J5" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" s="47" t="s">
         <v>95</v>
-      </c>
-      <c r="K5" s="47" t="s">
-        <v>96</v>
       </c>
       <c r="L5" s="47"/>
       <c r="M5" s="47"/>
@@ -7331,37 +7540,37 @@
       <c r="O5" s="47"/>
       <c r="P5" s="47"/>
     </row>
-    <row r="6" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="56" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="G6" s="47" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="56"/>
       <c r="I6" s="47" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="J6" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="47" t="s">
         <v>95</v>
-      </c>
-      <c r="K6" s="47" t="s">
-        <v>96</v>
       </c>
       <c r="L6" s="47"/>
       <c r="M6" s="47"/>
@@ -7369,37 +7578,37 @@
       <c r="O6" s="47"/>
       <c r="P6" s="47"/>
     </row>
-    <row r="7" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="56" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="G7" s="47" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="47" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="J7" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="47" t="s">
         <v>95</v>
-      </c>
-      <c r="K7" s="47" t="s">
-        <v>96</v>
       </c>
       <c r="L7" s="47"/>
       <c r="M7" s="47"/>
@@ -7407,7 +7616,7 @@
       <c r="O7" s="47"/>
       <c r="P7" s="47"/>
     </row>
-    <row r="8" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="56" t="s">
         <v>4</v>
       </c>
@@ -7448,34 +7657,34 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
     <col min="2" max="2" width="23" style="46" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="26.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" style="46" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
-        <v>604</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="97"/>
-    </row>
-    <row r="2" spans="1:10" s="54" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="114.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="96" t="s">
+        <v>599</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="98"/>
+    </row>
+    <row r="2" spans="1:10" s="54" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -7483,161 +7692,161 @@
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>101</v>
-      </c>
       <c r="H2" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="D3" s="47">
         <v>500</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="D4" s="47">
         <v>500</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H4" s="56"/>
       <c r="I4" s="47"/>
       <c r="J4" s="45"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
       <c r="D5" s="47">
         <v>500</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H5" s="56"/>
       <c r="I5" s="47"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="D6" s="47">
         <v>500</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
       <c r="J6" s="47"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="D7" s="47">
         <v>500</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
       <c r="J7" s="47"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="56" t="s">
         <v>4</v>
       </c>
@@ -7671,33 +7880,33 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" style="46" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="46" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" style="46" customWidth="1"/>
     <col min="5" max="5" width="16" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.77734375" style="46" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" style="46" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.81640625" style="46" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="46" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>467</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="95" t="s">
+        <v>462</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -7705,25 +7914,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="I2" s="40" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -7746,40 +7955,40 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="46" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="46" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" style="46" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="33.08984375" style="46" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.08984375" style="46" customWidth="1"/>
+    <col min="17" max="17" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>468</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="95" t="s">
+        <v>463</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -7787,49 +7996,49 @@
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="P2" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="40" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -7848,48 +8057,48 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" style="46" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" style="46" customWidth="1"/>
     <col min="11" max="11" width="19" style="46" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.08984375" style="46" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>475</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="95" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -7897,61 +8106,61 @@
         <v>6</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="I2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="15" t="s">
+      <c r="J2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="M2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>53</v>
-      </c>
       <c r="S2" s="80" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="T2" s="80" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -7975,35 +8184,35 @@
       <c r="S3" s="47"/>
       <c r="T3" s="47"/>
     </row>
-    <row r="4" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E4" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="G4" s="47" t="s">
         <v>70</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>71</v>
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="44"/>
       <c r="J4" s="47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K4" s="47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
@@ -8014,36 +8223,36 @@
       <c r="R4" s="47"/>
       <c r="S4" s="47"/>
       <c r="T4" s="45" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" s="47" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="J5" s="47"/>
       <c r="K5" s="47"/>
@@ -8061,33 +8270,33 @@
       <c r="S5" s="47"/>
       <c r="T5" s="47"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E6" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="G6" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="J6" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="K6" s="44" t="s">
         <v>72</v>
-      </c>
-      <c r="K6" s="44" t="s">
-        <v>73</v>
       </c>
       <c r="L6" s="47"/>
       <c r="M6" s="47"/>
@@ -8099,33 +8308,33 @@
       <c r="S6" s="47"/>
       <c r="T6" s="47"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E7" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="47" t="s">
-        <v>75</v>
-      </c>
       <c r="G7" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="47" t="s">
-        <v>72</v>
-      </c>
       <c r="I7" s="44" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="J7" s="47"/>
       <c r="K7" s="47"/>
@@ -8160,28 +8369,28 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="46" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>476</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-    </row>
-    <row r="2" spans="1:7" s="54" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="95" t="s">
+        <v>471</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+    </row>
+    <row r="2" spans="1:7" s="54" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
@@ -8189,22 +8398,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="E2" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="F2" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="41" t="s">
-        <v>79</v>
-      </c>
       <c r="G2" s="41" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -8215,68 +8424,68 @@
       <c r="F3" s="47"/>
       <c r="G3" s="47"/>
     </row>
-    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C4" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>81</v>
-      </c>
       <c r="F4" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C5" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="47" t="s">
-        <v>83</v>
-      </c>
       <c r="E5" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G5" s="47"/>
     </row>
-    <row r="6" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G6" s="47"/>
     </row>
@@ -8296,50 +8505,50 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.44140625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="46" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" style="46" customWidth="1"/>
     <col min="7" max="7" width="15" style="46" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="46" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" style="46" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" style="46" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" style="46" customWidth="1"/>
     <col min="10" max="10" width="16" style="46" customWidth="1"/>
-    <col min="11" max="11" width="19.21875" style="46" customWidth="1"/>
-    <col min="12" max="12" width="7.77734375" style="46" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" style="46" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" style="46" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" style="46" customWidth="1"/>
-    <col min="16" max="16" width="18.88671875" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" style="46" customWidth="1"/>
+    <col min="12" max="12" width="7.81640625" style="46" customWidth="1"/>
+    <col min="13" max="13" width="8.453125" style="46" customWidth="1"/>
+    <col min="14" max="14" width="17.08984375" style="46" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" style="46" customWidth="1"/>
+    <col min="16" max="16" width="18.90625" customWidth="1"/>
+    <col min="17" max="17" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
-        <v>483</v>
-      </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108" t="s">
-        <v>477</v>
-      </c>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="106" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="109" t="s">
+        <v>472</v>
+      </c>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -8347,52 +8556,52 @@
         <v>6</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="O2" s="12" t="s">
-        <v>114</v>
-      </c>
       <c r="P2" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -8413,31 +8622,31 @@
       <c r="P3" s="47"/>
       <c r="Q3" s="47"/>
     </row>
-    <row r="4" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="I4" s="30" t="s">
         <v>117</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>118</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
@@ -8446,13 +8655,13 @@
       <c r="N4" s="30"/>
       <c r="O4" s="30"/>
       <c r="P4" s="45" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="Q4" s="45" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="30"/>
       <c r="B5" s="47"/>
       <c r="C5" s="30"/>
@@ -8462,13 +8671,13 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="K5" s="30" t="s">
         <v>119</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>120</v>
       </c>
       <c r="L5" s="30"/>
       <c r="M5" s="30"/>
@@ -8477,7 +8686,7 @@
       <c r="P5" s="47"/>
       <c r="Q5" s="47"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -8486,13 +8695,13 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J6" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6" s="30" t="s">
         <v>121</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>122</v>
       </c>
       <c r="L6" s="30"/>
       <c r="M6" s="30"/>
@@ -8501,29 +8710,29 @@
       <c r="P6" s="47"/>
       <c r="Q6" s="47"/>
     </row>
-    <row r="7" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="30" t="s">
         <v>123</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>124</v>
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
@@ -8534,74 +8743,74 @@
       <c r="P7" s="47"/>
       <c r="Q7" s="47"/>
     </row>
-    <row r="8" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
       <c r="H8" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="I8" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="J8" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="J8" s="30" t="s">
-        <v>128</v>
-      </c>
       <c r="K8" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L8" s="30"/>
       <c r="M8" s="30"/>
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
       <c r="P8" s="47" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="Q8" s="47"/>
     </row>
-    <row r="9" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="I9" s="30" t="s">
-        <v>127</v>
-      </c>
       <c r="J9" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
@@ -8610,29 +8819,29 @@
       <c r="P9" s="47"/>
       <c r="Q9" s="47"/>
     </row>
-    <row r="10" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
       <c r="H10" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10" s="30" t="s">
         <v>132</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>133</v>
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
@@ -8661,41 +8870,41 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="46" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" style="46" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" style="46" customWidth="1"/>
+    <col min="6" max="6" width="18.90625" style="46" customWidth="1"/>
     <col min="8" max="8" width="25" style="46" customWidth="1"/>
-    <col min="9" max="9" width="31.109375" style="46" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" style="46" customWidth="1"/>
-    <col min="13" max="13" width="28.21875" style="46" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="31.08984375" style="46" customWidth="1"/>
+    <col min="11" max="11" width="7.453125" style="46" customWidth="1"/>
+    <col min="13" max="13" width="28.1796875" style="46" customWidth="1"/>
+    <col min="14" max="14" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>469</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-    </row>
-    <row r="2" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="122.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="95" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+    </row>
+    <row r="2" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -8703,49 +8912,49 @@
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="21" t="s">
+      <c r="I2" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="K2" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="L2" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="M2" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="M2" s="21" t="s">
-        <v>143</v>
-      </c>
       <c r="N2" s="21" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="45" t="s">
         <v>4</v>
       </c>
@@ -8765,51 +8974,51 @@
       <c r="O3" s="47"/>
       <c r="P3" s="47"/>
     </row>
-    <row r="4" spans="1:16" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F4" s="47" t="b">
         <v>1</v>
       </c>
       <c r="G4" s="47"/>
       <c r="H4" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="47" t="s">
         <v>145</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>146</v>
       </c>
       <c r="J4" s="47"/>
       <c r="K4" s="47"/>
       <c r="L4" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="M4" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="M4" s="45" t="s">
-        <v>148</v>
-      </c>
       <c r="N4" s="47" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="O4" s="78" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="P4" s="45" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="37.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -8819,59 +9028,59 @@
       <c r="G5" s="47"/>
       <c r="H5" s="45"/>
       <c r="I5" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J5" s="47"/>
       <c r="K5" s="47"/>
       <c r="L5" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="M5" s="45" t="s">
         <v>147</v>
-      </c>
-      <c r="M5" s="45" t="s">
-        <v>148</v>
       </c>
       <c r="N5" s="47"/>
       <c r="O5" s="47"/>
       <c r="P5" s="47"/>
     </row>
-    <row r="6" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F6" s="47" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H6" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="J6" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="J6" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="K6" s="47" t="s">
-        <v>153</v>
-      </c>
       <c r="L6" s="47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M6" s="47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N6" s="47"/>
       <c r="O6" s="47"/>
@@ -8894,49 +9103,49 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.21875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" style="46" customWidth="1"/>
     <col min="3" max="3" width="11" style="46" customWidth="1"/>
-    <col min="4" max="5" width="10.88671875" style="46" customWidth="1"/>
+    <col min="4" max="5" width="10.90625" style="46" customWidth="1"/>
     <col min="6" max="6" width="18" style="46" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" style="46" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="46" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="46" customWidth="1"/>
-    <col min="10" max="11" width="14.6640625" style="46" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="46" customWidth="1"/>
-    <col min="14" max="14" width="23.6640625" style="46" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="46" customWidth="1"/>
-    <col min="17" max="17" width="14.77734375" style="46" customWidth="1"/>
-    <col min="21" max="21" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" style="46" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" style="46" customWidth="1"/>
+    <col min="9" max="9" width="11.90625" style="46" customWidth="1"/>
+    <col min="10" max="11" width="14.6328125" style="46" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" style="46" customWidth="1"/>
+    <col min="14" max="14" width="23.6328125" style="46" customWidth="1"/>
+    <col min="16" max="16" width="12.6328125" style="46" customWidth="1"/>
+    <col min="17" max="17" width="14.81640625" style="46" customWidth="1"/>
+    <col min="21" max="21" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
-        <v>490</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="97"/>
-    </row>
-    <row r="2" spans="1:21" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="87.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="96" t="s">
+        <v>485</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="98"/>
+    </row>
+    <row r="2" spans="1:21" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
@@ -8944,64 +9153,64 @@
         <v>6</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E2" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="G2" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="H2" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="I2" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="J2" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="K2" s="48" t="s">
+        <v>486</v>
+      </c>
+      <c r="L2" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="K2" s="48" t="s">
-        <v>491</v>
-      </c>
-      <c r="L2" s="48" t="s">
+      <c r="M2" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="N2" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="O2" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="P2" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="Q2" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>165</v>
-      </c>
       <c r="R2" s="41" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="S2" s="41" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="T2" s="41" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="U2" s="41" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -9026,61 +9235,61 @@
       <c r="T3" s="47"/>
       <c r="U3" s="47"/>
     </row>
-    <row r="4" spans="1:21" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D4" s="47"/>
       <c r="E4" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>386</v>
+      </c>
+      <c r="G4" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="47" t="s">
-        <v>390</v>
-      </c>
-      <c r="G4" s="47" t="s">
+      <c r="H4" s="47" t="s">
         <v>167</v>
-      </c>
-      <c r="H4" s="47" t="s">
-        <v>168</v>
       </c>
       <c r="I4" s="47">
         <v>80</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K4" s="47">
         <v>10000</v>
       </c>
       <c r="L4" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="M4" s="47" t="s">
         <v>170</v>
-      </c>
-      <c r="M4" s="47" t="s">
-        <v>171</v>
       </c>
       <c r="N4" s="47" t="b">
         <v>1</v>
       </c>
       <c r="O4" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P4" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R4" s="47" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="S4" s="79" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="T4" s="47">
         <v>2</v>
@@ -9089,24 +9298,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E5" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>387</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" s="47" t="s">
         <v>172</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>391</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>173</v>
       </c>
       <c r="I5" s="47">
         <v>443</v>
@@ -9114,17 +9323,17 @@
       <c r="J5" s="47"/>
       <c r="K5" s="47"/>
       <c r="L5" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="M5" s="47" t="s">
         <v>174</v>
-      </c>
-      <c r="M5" s="47" t="s">
-        <v>175</v>
       </c>
       <c r="N5" s="47" t="b">
         <v>1</v>
       </c>
       <c r="O5" s="47"/>
       <c r="P5" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="47"/>
       <c r="R5" s="47"/>
@@ -9132,38 +9341,38 @@
       <c r="T5" s="47"/>
       <c r="U5" s="47"/>
     </row>
-    <row r="6" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G6" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="H6" s="47" t="s">
         <v>167</v>
-      </c>
-      <c r="H6" s="47" t="s">
-        <v>168</v>
       </c>
       <c r="I6" s="47">
         <v>80</v>
       </c>
       <c r="J6" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K6" s="47"/>
       <c r="L6" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M6" s="47"/>
       <c r="N6" s="47" t="b">
@@ -9171,7 +9380,7 @@
       </c>
       <c r="O6" s="47"/>
       <c r="P6" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="47"/>
       <c r="R6" s="47"/>
@@ -9196,108 +9405,108 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.77734375" style="46" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" style="46" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="46" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="46" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" style="46" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="46" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" style="46" customWidth="1"/>
-    <col min="13" max="13" width="15.21875" style="46" customWidth="1"/>
-    <col min="14" max="16" width="13.77734375" style="46" customWidth="1"/>
-    <col min="17" max="17" width="21.109375" style="46" customWidth="1"/>
-    <col min="18" max="18" width="17.21875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" style="46" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="46" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" style="46" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" style="46" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" style="46" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" style="46" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" style="46" customWidth="1"/>
+    <col min="14" max="16" width="13.81640625" style="46" customWidth="1"/>
+    <col min="17" max="17" width="21.08984375" style="46" customWidth="1"/>
+    <col min="18" max="18" width="17.1796875" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
-        <v>460</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="98" t="s">
-        <v>486</v>
-      </c>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="110"/>
-    </row>
-    <row r="2" spans="1:19" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="96" t="s">
+        <v>455</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="99" t="s">
+        <v>481</v>
+      </c>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="111"/>
+    </row>
+    <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="41" t="s">
+        <v>480</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="O2" s="41" t="s">
-        <v>485</v>
-      </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="R2" s="12" t="s">
-        <v>191</v>
-      </c>
       <c r="S2" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -9320,21 +9529,21 @@
       <c r="R3" s="47"/>
       <c r="S3" s="47"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C4" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="D4" s="47" t="s">
-        <v>193</v>
-      </c>
       <c r="E4" s="47" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
@@ -9353,13 +9562,13 @@
       </c>
       <c r="S4" s="47"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
       <c r="E5" s="47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
@@ -9376,13 +9585,13 @@
       <c r="R5" s="47"/>
       <c r="S5" s="47"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
       <c r="C6" s="47"/>
       <c r="D6" s="47"/>
       <c r="E6" s="47" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
@@ -9399,13 +9608,13 @@
       <c r="R6" s="47"/>
       <c r="S6" s="47"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="47"/>
       <c r="B7" s="47"/>
       <c r="C7" s="47"/>
       <c r="D7" s="47"/>
       <c r="E7" s="47" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="47"/>
@@ -9422,13 +9631,13 @@
       <c r="R7" s="47"/>
       <c r="S7" s="47"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
       <c r="D8" s="47"/>
       <c r="E8" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="47"/>
@@ -9445,12 +9654,12 @@
       <c r="R8" s="47"/>
       <c r="S8" s="47"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="47"/>
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
       <c r="D9" s="47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E9" s="47"/>
       <c r="F9" s="47" t="b">
@@ -9472,24 +9681,24 @@
       <c r="R9" s="47"/>
       <c r="S9" s="47"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
       <c r="D10" s="47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E10" s="47"/>
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
       <c r="H10" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="I10" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="J10" s="47" t="s">
         <v>202</v>
-      </c>
-      <c r="J10" s="47" t="s">
-        <v>203</v>
       </c>
       <c r="K10" s="47"/>
       <c r="L10" s="47"/>
@@ -9501,32 +9710,32 @@
       <c r="R10" s="47"/>
       <c r="S10" s="47"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="47"/>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
       <c r="D11" s="47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E11" s="47"/>
       <c r="F11" s="47"/>
       <c r="G11" s="47"/>
       <c r="H11" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="I11" s="47" t="s">
         <v>205</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>206</v>
       </c>
       <c r="J11" s="47"/>
       <c r="K11" s="47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L11" s="47"/>
       <c r="M11" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="N11" s="47" t="s">
         <v>208</v>
-      </c>
-      <c r="N11" s="47" t="s">
-        <v>209</v>
       </c>
       <c r="O11" s="47"/>
       <c r="P11" s="47">
@@ -9536,32 +9745,32 @@
       <c r="R11" s="47"/>
       <c r="S11" s="47"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="47"/>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
       <c r="D12" s="47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="47"/>
       <c r="G12" s="47"/>
       <c r="H12" s="47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I12" s="47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J12" s="47"/>
       <c r="K12" s="47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L12" s="47"/>
       <c r="M12" s="47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N12" s="47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O12" s="47"/>
       <c r="P12" s="47">
@@ -9571,12 +9780,12 @@
       <c r="R12" s="47"/>
       <c r="S12" s="47"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="47"/>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
       <c r="D13" s="47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E13" s="47"/>
       <c r="F13" s="47"/>
@@ -9586,24 +9795,24 @@
       <c r="J13" s="47"/>
       <c r="K13" s="47"/>
       <c r="L13" s="47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M13" s="47"/>
       <c r="N13" s="47"/>
       <c r="O13" s="47"/>
       <c r="P13" s="47"/>
       <c r="Q13" s="47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R13" s="47"/>
       <c r="S13" s="47"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
       <c r="D14" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E14" s="47"/>
       <c r="F14" s="47"/>
@@ -9613,7 +9822,7 @@
       <c r="J14" s="47"/>
       <c r="K14" s="47"/>
       <c r="L14" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M14" s="47"/>
       <c r="N14" s="47"/>
@@ -9622,15 +9831,15 @@
       <c r="Q14" s="47"/>
       <c r="R14" s="47"/>
       <c r="S14" s="47" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="47"/>
       <c r="B15" s="47"/>
       <c r="C15" s="47"/>
       <c r="D15" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E15" s="47"/>
       <c r="F15" s="47"/>
@@ -9640,7 +9849,7 @@
       <c r="J15" s="47"/>
       <c r="K15" s="47"/>
       <c r="L15" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M15" s="47"/>
       <c r="N15" s="47"/>
@@ -9650,12 +9859,12 @@
       <c r="R15" s="47"/>
       <c r="S15" s="47"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="47"/>
       <c r="B16" s="47"/>
       <c r="C16" s="47"/>
       <c r="D16" s="47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
@@ -9665,7 +9874,7 @@
       <c r="J16" s="47"/>
       <c r="K16" s="47"/>
       <c r="L16" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M16" s="47"/>
       <c r="N16" s="47"/>
@@ -9674,15 +9883,15 @@
       <c r="Q16" s="47"/>
       <c r="R16" s="47"/>
       <c r="S16" s="47" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="47"/>
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
       <c r="D17" s="47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
@@ -9692,7 +9901,7 @@
       <c r="J17" s="47"/>
       <c r="K17" s="47"/>
       <c r="L17" s="47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M17" s="47"/>
       <c r="N17" s="47"/>
@@ -9702,12 +9911,12 @@
       <c r="R17" s="47"/>
       <c r="S17" s="47"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="47"/>
       <c r="B18" s="47"/>
       <c r="C18" s="47"/>
       <c r="D18" s="47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="47"/>
@@ -9717,19 +9926,19 @@
       <c r="J18" s="47"/>
       <c r="K18" s="47"/>
       <c r="L18" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M18" s="47"/>
       <c r="N18" s="47"/>
       <c r="O18" s="47"/>
       <c r="P18" s="47"/>
       <c r="Q18" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R18" s="47"/>
       <c r="S18" s="47"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="47"/>
       <c r="B19" s="47"/>
       <c r="C19" s="47"/>
@@ -9750,17 +9959,17 @@
       <c r="R19" s="47"/>
       <c r="S19" s="47"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="47"/>
       <c r="B20" s="47"/>
       <c r="C20" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D20" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" s="47" t="s">
         <v>193</v>
-      </c>
-      <c r="E20" s="47" t="s">
-        <v>194</v>
       </c>
       <c r="F20" s="47"/>
       <c r="G20" s="47"/>
@@ -9777,13 +9986,13 @@
       <c r="R20" s="47"/>
       <c r="S20" s="47"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="47"/>
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
       <c r="E21" s="47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F21" s="47"/>
       <c r="G21" s="47"/>
@@ -9800,21 +10009,21 @@
       <c r="R21" s="47"/>
       <c r="S21" s="47"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D22" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="47" t="s">
         <v>193</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>194</v>
       </c>
       <c r="F22" s="47"/>
       <c r="G22" s="47"/>
@@ -9831,13 +10040,13 @@
       <c r="R22" s="47"/>
       <c r="S22" s="47"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="47"/>
       <c r="B23" s="47"/>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
       <c r="E23" s="47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
@@ -9892,28 +10101,28 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="40.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" style="46" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="40.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.54296875" style="46" customWidth="1"/>
+    <col min="5" max="5" width="25.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="54" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>462</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="54" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="95" t="s">
+        <v>457</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
@@ -9927,36 +10136,36 @@
         <v>3</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D3" s="47"/>
       <c r="E3" s="47"/>
     </row>
-    <row r="4" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D4" s="47"/>
       <c r="E4" s="47"/>
     </row>
-    <row r="5" spans="1:5" s="46" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="46" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
@@ -9982,45 +10191,45 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" style="46" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="46" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="26.08984375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" style="46" customWidth="1"/>
+    <col min="6" max="6" width="28.6328125" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
-        <v>461</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="113"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="112" t="s">
+        <v>456</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="114"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -10030,74 +10239,74 @@
       <c r="E3" s="47"/>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C4" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="D4" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>233</v>
-      </c>
       <c r="F4" s="47" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
       <c r="C6" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="D6" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="47" t="s">
+      <c r="F6" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="F6" s="47" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C7" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="D7" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="E7" s="47" t="s">
+      <c r="F7" s="47" t="s">
         <v>239</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -10121,90 +10330,90 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" style="46" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="46" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" style="46" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" style="46" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" style="46" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="46" customWidth="1"/>
     <col min="9" max="9" width="15" style="46" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" style="46" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" style="46" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>489</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-    </row>
-    <row r="2" spans="1:16" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="88.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="95" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+    </row>
+    <row r="2" spans="1:16" ht="46.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>246</v>
-      </c>
       <c r="M2" s="41" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -10224,40 +10433,40 @@
       <c r="O3" s="47"/>
       <c r="P3" s="47"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="47" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J4" s="47"/>
       <c r="K4" s="47"/>
       <c r="L4" s="47"/>
       <c r="M4" s="47" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="N4" s="79" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="O4" s="47">
         <v>2</v>
@@ -10266,25 +10475,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="47"/>
       <c r="I5" s="47" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="J5" s="47"/>
       <c r="K5" s="47"/>
@@ -10294,36 +10503,36 @@
       <c r="O5" s="47"/>
       <c r="P5" s="47"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D6" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="E6" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="F6" s="47" t="s">
+      <c r="G6" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="G6" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>250</v>
-      </c>
       <c r="J6" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K6" s="47">
         <v>80</v>
@@ -10353,48 +10562,48 @@
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="28.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="35.109375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" style="46" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="46" customWidth="1"/>
+    <col min="1" max="1" width="35.453125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="35.08984375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" style="46" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="E1" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="F1" s="26" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>257</v>
-      </c>
       <c r="C2" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E2" s="25">
         <v>301</v>
@@ -10403,18 +10612,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E3" s="34">
         <v>302</v>
@@ -10423,18 +10632,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B4" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" t="s">
         <v>259</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" t="s">
-        <v>260</v>
       </c>
       <c r="E4" s="34">
         <v>303</v>
@@ -10443,15 +10652,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D5" s="55"/>
       <c r="E5" s="34">
@@ -10461,12 +10670,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C6" s="24"/>
       <c r="E6" s="34">
@@ -10474,194 +10683,194 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B7" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="B10" s="34" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19"/>
       <c r="B12" s="34" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="34" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="34" t="s">
+    <row r="14" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="34" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="34" t="s">
+    <row r="15" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="34" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="34" t="s">
+    <row r="16" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="34" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="34" t="s">
+    <row r="17" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="34" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="34" t="s">
+    <row r="18" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="34" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="34" t="s">
+    <row r="19" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="34" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="34" t="s">
+    <row r="20" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="34" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="34" t="s">
+    <row r="21" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="34" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="34" t="s">
+    <row r="22" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="34" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="34" t="s">
+    <row r="23" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="34" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="34" t="s">
+    <row r="24" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="34" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="34" t="s">
+    <row r="25" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="34" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="34" t="s">
+    <row r="26" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="34" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="34" t="s">
+    <row r="27" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="34" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="34" t="s">
+    <row r="28" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="34" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="34" t="s">
+    <row r="29" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="34" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="34" t="s">
+    <row r="30" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="34" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="34" t="s">
+    <row r="31" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="34" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="34" t="s">
+    <row r="32" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="34" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="34" t="s">
+    <row r="33" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="34" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="34" t="s">
+    <row r="34" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="34" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="34" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="34" t="s">
+    <row r="36" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="34" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="34" t="s">
+    <row r="38" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="34" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="34" t="s">
+    <row r="39" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="34" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="34" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="34" t="s">
+    <row r="40" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="34" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="34" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="10"/>
     </row>
   </sheetData>
@@ -10678,34 +10887,34 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" style="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="46"/>
+    <col min="3" max="3" width="16.54296875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" style="46"/>
     <col min="8" max="8" width="11" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" style="46" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="46"/>
+    <col min="9" max="9" width="13.90625" style="46" customWidth="1"/>
+    <col min="10" max="16384" width="8.90625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="114" t="s">
-        <v>484</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="115" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -10713,28 +10922,28 @@
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="82" t="s">
         <v>317</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="F2" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>321</v>
-      </c>
       <c r="I2" s="40" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="64" t="s">
         <v>4</v>
       </c>
@@ -10747,21 +10956,21 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
     </row>
-    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>394</v>
+      </c>
+      <c r="D4" s="47" t="s">
         <v>322</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>369</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>398</v>
-      </c>
-      <c r="D4" s="47" t="s">
+      <c r="E4" s="62" t="s">
         <v>323</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>324</v>
       </c>
       <c r="F4" s="47">
         <v>1</v>
@@ -10770,28 +10979,28 @@
         <v>1</v>
       </c>
       <c r="H4" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="I4" s="83" t="s">
+        <v>465</v>
+      </c>
+      <c r="J4" s="60"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>368</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" s="47" t="s">
         <v>325</v>
       </c>
-      <c r="I4" s="83" t="s">
-        <v>470</v>
-      </c>
-      <c r="J4" s="60"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>369</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>399</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>326</v>
-      </c>
       <c r="E5" s="62" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F5" s="47">
         <v>1</v>
@@ -10800,7 +11009,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="47" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I5" s="56"/>
       <c r="J5" s="60"/>
@@ -10822,60 +11031,60 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.21875" style="46" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" style="46" customWidth="1"/>
     <col min="2" max="2" width="14" style="46" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="46" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="46" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="46" customWidth="1"/>
-    <col min="8" max="8" width="27.5546875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" style="46" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" style="46" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="46" customWidth="1"/>
+    <col min="8" max="8" width="27.54296875" style="46" customWidth="1"/>
     <col min="9" max="9" width="13" style="46" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" style="46" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="68" customWidth="1"/>
-    <col min="12" max="13" width="20.5546875" style="46"/>
-    <col min="14" max="14" width="20.5546875" style="3"/>
-    <col min="15" max="17" width="20.5546875" style="46"/>
+    <col min="10" max="10" width="16.54296875" style="46" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" style="68" customWidth="1"/>
+    <col min="12" max="13" width="20.54296875" style="46"/>
+    <col min="14" max="14" width="20.54296875" style="3"/>
+    <col min="15" max="17" width="20.54296875" style="46"/>
     <col min="18" max="18" width="23" style="46" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="20.5546875" style="46"/>
-    <col min="22" max="22" width="23.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.21875" style="46" customWidth="1"/>
-    <col min="24" max="24" width="20.5546875" style="46"/>
-    <col min="25" max="25" width="23.109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="20.5546875" style="46"/>
+    <col min="19" max="21" width="20.54296875" style="46"/>
+    <col min="22" max="22" width="23.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="46" customWidth="1"/>
+    <col min="24" max="24" width="20.54296875" style="46"/>
+    <col min="25" max="25" width="23.08984375" style="46" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="20.54296875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="65" customFormat="1" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
-        <v>609</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="97"/>
-    </row>
-    <row r="2" spans="1:24" s="81" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="65" customFormat="1" ht="135.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="96" t="s">
+        <v>604</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="98"/>
+    </row>
+    <row r="2" spans="1:24" s="81" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
@@ -10883,73 +11092,73 @@
         <v>6</v>
       </c>
       <c r="C2" s="84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="85" t="s">
+        <v>396</v>
+      </c>
+      <c r="F2" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="85" t="s">
+      <c r="G2" s="84" t="s">
+        <v>397</v>
+      </c>
+      <c r="H2" s="84" t="s">
+        <v>398</v>
+      </c>
+      <c r="I2" s="84" t="s">
+        <v>399</v>
+      </c>
+      <c r="J2" s="84" t="s">
         <v>400</v>
       </c>
-      <c r="F2" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="84" t="s">
+      <c r="K2" s="85" t="s">
         <v>401</v>
       </c>
-      <c r="H2" s="84" t="s">
+      <c r="L2" s="84" t="s">
         <v>402</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="M2" s="84" t="s">
         <v>403</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="N2" s="84" t="s">
         <v>404</v>
       </c>
-      <c r="K2" s="85" t="s">
+      <c r="O2" s="84" t="s">
         <v>405</v>
       </c>
-      <c r="L2" s="84" t="s">
+      <c r="P2" s="84" t="s">
         <v>406</v>
       </c>
-      <c r="M2" s="84" t="s">
+      <c r="Q2" s="84" t="s">
         <v>407</v>
       </c>
-      <c r="N2" s="84" t="s">
+      <c r="R2" s="84" t="s">
         <v>408</v>
       </c>
-      <c r="O2" s="84" t="s">
+      <c r="S2" s="84" t="s">
+        <v>328</v>
+      </c>
+      <c r="T2" s="84" t="s">
+        <v>329</v>
+      </c>
+      <c r="U2" s="84" t="s">
+        <v>330</v>
+      </c>
+      <c r="V2" s="84" t="s">
         <v>409</v>
       </c>
-      <c r="P2" s="84" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q2" s="84" t="s">
-        <v>411</v>
-      </c>
-      <c r="R2" s="84" t="s">
-        <v>412</v>
-      </c>
-      <c r="S2" s="84" t="s">
-        <v>329</v>
-      </c>
-      <c r="T2" s="84" t="s">
-        <v>330</v>
-      </c>
-      <c r="U2" s="84" t="s">
-        <v>331</v>
-      </c>
-      <c r="V2" s="84" t="s">
-        <v>413</v>
-      </c>
       <c r="W2" s="84" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="X2" s="84" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="56" t="s">
         <v>4</v>
       </c>
@@ -10977,152 +11186,152 @@
       <c r="W3" s="47"/>
       <c r="X3" s="47"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="66" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="66" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F4" s="66" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G4" s="66">
         <v>2</v>
       </c>
       <c r="H4" s="66" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I4" s="66">
         <v>256</v>
       </c>
       <c r="J4" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="K4" s="66" t="s">
         <v>335</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="L4" s="66" t="s">
+        <v>411</v>
+      </c>
+      <c r="M4" s="66" t="s">
         <v>336</v>
       </c>
-      <c r="L4" s="66" t="s">
-        <v>415</v>
-      </c>
-      <c r="M4" s="66" t="s">
-        <v>337</v>
-      </c>
       <c r="N4" s="67" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="O4" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="P4" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="Q4" s="66" t="s">
         <v>340</v>
-      </c>
-      <c r="Q4" s="66" t="s">
-        <v>341</v>
       </c>
       <c r="R4" s="66" t="b">
         <v>1</v>
       </c>
       <c r="S4" s="66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T4" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="U4" s="47" t="s">
         <v>342</v>
-      </c>
-      <c r="U4" s="47" t="s">
-        <v>343</v>
       </c>
       <c r="V4" s="47">
         <v>15</v>
       </c>
       <c r="W4" s="47" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="X4" s="47" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="66" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="66" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F5" s="66" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G5" s="66">
         <v>1</v>
       </c>
       <c r="H5" s="66" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I5" s="66">
         <v>256</v>
       </c>
       <c r="J5" s="66" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K5" s="66" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L5" s="66" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M5" s="66" t="s">
+        <v>351</v>
+      </c>
+      <c r="N5" s="67" t="s">
+        <v>416</v>
+      </c>
+      <c r="O5" s="66" t="s">
         <v>352</v>
       </c>
-      <c r="N5" s="67" t="s">
-        <v>420</v>
-      </c>
-      <c r="O5" s="66" t="s">
-        <v>353</v>
-      </c>
       <c r="P5" s="66" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q5" s="66" t="s">
         <v>340</v>
-      </c>
-      <c r="Q5" s="66" t="s">
-        <v>341</v>
       </c>
       <c r="R5" s="66" t="b">
         <v>0</v>
       </c>
       <c r="S5" s="66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T5" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="U5" s="47" t="s">
         <v>342</v>
-      </c>
-      <c r="U5" s="47" t="s">
-        <v>343</v>
       </c>
       <c r="V5" s="47">
         <v>15</v>
       </c>
       <c r="W5" s="47" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="X5" s="47" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -11165,67 +11374,67 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" style="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.77734375" style="68" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" style="46" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.90625" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.54296875" style="46" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.81640625" style="68" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" style="46" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" style="46" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1796875" style="46" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="46" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.88671875" style="46" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.21875" style="46" customWidth="1"/>
-    <col min="24" max="24" width="15.21875" style="46" customWidth="1"/>
-    <col min="25" max="25" width="14.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.90625" style="46" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.08984375" style="46" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="46" customWidth="1"/>
+    <col min="24" max="24" width="15.1796875" style="46" customWidth="1"/>
+    <col min="25" max="25" width="14.90625" style="46" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="42" style="46" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.77734375" style="46"/>
+    <col min="27" max="27" width="15.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="65" customFormat="1" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
-        <v>610</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="97"/>
-    </row>
-    <row r="2" spans="1:24" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="65" customFormat="1" ht="133.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="96" t="s">
+        <v>605</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="98"/>
+    </row>
+    <row r="2" spans="1:24" s="81" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
@@ -11233,73 +11442,73 @@
         <v>6</v>
       </c>
       <c r="C2" s="84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="85" t="s">
+        <v>396</v>
+      </c>
+      <c r="F2" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="85" t="s">
+      <c r="G2" s="84" t="s">
+        <v>348</v>
+      </c>
+      <c r="H2" s="84" t="s">
+        <v>398</v>
+      </c>
+      <c r="I2" s="84" t="s">
+        <v>399</v>
+      </c>
+      <c r="J2" s="84" t="s">
         <v>400</v>
       </c>
-      <c r="F2" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="84" t="s">
-        <v>349</v>
-      </c>
-      <c r="H2" s="84" t="s">
+      <c r="K2" s="86" t="s">
+        <v>401</v>
+      </c>
+      <c r="L2" s="84" t="s">
         <v>402</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="M2" s="84" t="s">
         <v>403</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="N2" s="84" t="s">
         <v>404</v>
       </c>
-      <c r="K2" s="86" t="s">
+      <c r="O2" s="84" t="s">
         <v>405</v>
       </c>
-      <c r="L2" s="84" t="s">
+      <c r="P2" s="84" t="s">
         <v>406</v>
       </c>
-      <c r="M2" s="84" t="s">
+      <c r="Q2" s="84" t="s">
         <v>407</v>
       </c>
-      <c r="N2" s="84" t="s">
+      <c r="R2" s="84" t="s">
         <v>408</v>
       </c>
-      <c r="O2" s="84" t="s">
+      <c r="S2" s="84" t="s">
+        <v>328</v>
+      </c>
+      <c r="T2" s="84" t="s">
+        <v>329</v>
+      </c>
+      <c r="U2" s="84" t="s">
+        <v>330</v>
+      </c>
+      <c r="V2" s="84" t="s">
         <v>409</v>
       </c>
-      <c r="P2" s="84" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q2" s="84" t="s">
-        <v>411</v>
-      </c>
-      <c r="R2" s="84" t="s">
-        <v>412</v>
-      </c>
-      <c r="S2" s="84" t="s">
-        <v>329</v>
-      </c>
-      <c r="T2" s="84" t="s">
-        <v>330</v>
-      </c>
-      <c r="U2" s="84" t="s">
-        <v>331</v>
-      </c>
-      <c r="V2" s="84" t="s">
-        <v>413</v>
-      </c>
       <c r="W2" s="84" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="X2" s="87" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="56" t="s">
         <v>4</v>
       </c>
@@ -11327,149 +11536,149 @@
       <c r="W3" s="47"/>
       <c r="X3" s="47"/>
     </row>
-    <row r="4" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="66" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="66" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F4" s="66" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G4" s="66">
         <v>2</v>
       </c>
       <c r="H4" s="66" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I4" s="66">
         <v>256</v>
       </c>
       <c r="J4" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="K4" s="66" t="s">
         <v>335</v>
       </c>
-      <c r="K4" s="66" t="s">
-        <v>336</v>
-      </c>
       <c r="L4" s="66" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M4" s="66" t="s">
+        <v>354</v>
+      </c>
+      <c r="N4" s="66" t="s">
+        <v>337</v>
+      </c>
+      <c r="O4" s="66" t="s">
         <v>355</v>
       </c>
-      <c r="N4" s="66" t="s">
-        <v>338</v>
-      </c>
-      <c r="O4" s="66" t="s">
-        <v>356</v>
-      </c>
       <c r="P4" s="66" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q4" s="66" t="s">
         <v>340</v>
-      </c>
-      <c r="Q4" s="66" t="s">
-        <v>341</v>
       </c>
       <c r="R4" s="66" t="b">
         <v>0</v>
       </c>
       <c r="S4" s="66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T4" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="U4" s="47" t="s">
         <v>342</v>
-      </c>
-      <c r="U4" s="47" t="s">
-        <v>343</v>
       </c>
       <c r="V4" s="47">
         <v>15</v>
       </c>
       <c r="W4" s="47" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="X4" s="45" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="66" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="66" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F5" s="66" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G5" s="66">
         <v>2</v>
       </c>
       <c r="H5" s="66" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I5" s="66">
         <v>256</v>
       </c>
       <c r="J5" s="66" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K5" s="66" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L5" s="66" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M5" s="66" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="N5" s="66" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="O5" s="66" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="P5" s="66" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q5" s="66" t="s">
         <v>340</v>
-      </c>
-      <c r="Q5" s="66" t="s">
-        <v>341</v>
       </c>
       <c r="R5" s="66" t="b">
         <v>1</v>
       </c>
       <c r="S5" s="66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T5" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="U5" s="47" t="s">
         <v>342</v>
-      </c>
-      <c r="U5" s="47" t="s">
-        <v>343</v>
       </c>
       <c r="V5" s="47">
         <v>15</v>
       </c>
       <c r="W5" s="90" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="X5" s="47"/>
     </row>
@@ -11516,65 +11725,65 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" style="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="46" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.77734375" style="68" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" style="46" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.54296875" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.54296875" style="46" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.81640625" style="68" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" style="46" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" style="46" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1796875" style="46" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="46" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.88671875" style="46" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.21875" style="46" customWidth="1"/>
-    <col min="24" max="25" width="14.5546875" style="46" customWidth="1"/>
-    <col min="26" max="26" width="15.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.77734375" style="46"/>
+    <col min="19" max="19" width="13.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.90625" style="46" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.08984375" style="46" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="46" customWidth="1"/>
+    <col min="24" max="25" width="14.54296875" style="46" customWidth="1"/>
+    <col min="26" max="26" width="15.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.81640625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="65" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
-        <v>611</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="97"/>
-    </row>
-    <row r="2" spans="1:24" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="65" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="96" t="s">
+        <v>606</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="98"/>
+    </row>
+    <row r="2" spans="1:24" s="81" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
@@ -11582,73 +11791,73 @@
         <v>6</v>
       </c>
       <c r="C2" s="84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="84" t="s">
+        <v>357</v>
+      </c>
+      <c r="F2" s="85" t="s">
+        <v>396</v>
+      </c>
+      <c r="G2" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="84" t="s">
-        <v>358</v>
-      </c>
-      <c r="F2" s="85" t="s">
+      <c r="H2" s="84" t="s">
+        <v>348</v>
+      </c>
+      <c r="I2" s="84" t="s">
+        <v>399</v>
+      </c>
+      <c r="J2" s="84" t="s">
         <v>400</v>
       </c>
-      <c r="G2" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="84" t="s">
-        <v>349</v>
-      </c>
-      <c r="I2" s="84" t="s">
-        <v>403</v>
-      </c>
-      <c r="J2" s="84" t="s">
+      <c r="K2" s="85" t="s">
+        <v>401</v>
+      </c>
+      <c r="L2" s="84" t="s">
+        <v>402</v>
+      </c>
+      <c r="M2" s="84" t="s">
+        <v>316</v>
+      </c>
+      <c r="N2" s="84" t="s">
         <v>404</v>
       </c>
-      <c r="K2" s="85" t="s">
+      <c r="O2" s="84" t="s">
         <v>405</v>
       </c>
-      <c r="L2" s="84" t="s">
+      <c r="P2" s="84" t="s">
         <v>406</v>
       </c>
-      <c r="M2" s="84" t="s">
-        <v>317</v>
-      </c>
-      <c r="N2" s="84" t="s">
+      <c r="Q2" s="84" t="s">
+        <v>407</v>
+      </c>
+      <c r="R2" s="84" t="s">
         <v>408</v>
       </c>
-      <c r="O2" s="84" t="s">
+      <c r="S2" s="84" t="s">
+        <v>328</v>
+      </c>
+      <c r="T2" s="84" t="s">
+        <v>329</v>
+      </c>
+      <c r="U2" s="84" t="s">
+        <v>330</v>
+      </c>
+      <c r="V2" s="84" t="s">
         <v>409</v>
       </c>
-      <c r="P2" s="84" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q2" s="84" t="s">
-        <v>411</v>
-      </c>
-      <c r="R2" s="84" t="s">
-        <v>412</v>
-      </c>
-      <c r="S2" s="84" t="s">
-        <v>329</v>
-      </c>
-      <c r="T2" s="84" t="s">
-        <v>330</v>
-      </c>
-      <c r="U2" s="84" t="s">
-        <v>331</v>
-      </c>
-      <c r="V2" s="84" t="s">
-        <v>413</v>
-      </c>
       <c r="W2" s="84" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="X2" s="21" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="75" customFormat="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="72" t="s">
         <v>4</v>
       </c>
@@ -11675,27 +11884,27 @@
       <c r="W3" s="71"/>
       <c r="X3" s="64"/>
     </row>
-    <row r="4" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="66" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F4" s="66" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G4" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H4" s="66">
         <v>2</v>
@@ -11704,52 +11913,52 @@
         <v>256</v>
       </c>
       <c r="J4" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="K4" s="66" t="s">
         <v>335</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="L4" s="66" t="s">
+        <v>358</v>
+      </c>
+      <c r="M4" s="66" t="s">
         <v>336</v>
       </c>
-      <c r="L4" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="M4" s="66" t="s">
+      <c r="N4" s="66" t="s">
         <v>337</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="O4" s="66" t="s">
         <v>338</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="P4" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="Q4" s="66" t="s">
         <v>340</v>
-      </c>
-      <c r="Q4" s="66" t="s">
-        <v>341</v>
       </c>
       <c r="R4" s="66" t="b">
         <v>1</v>
       </c>
       <c r="S4" s="66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T4" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="U4" s="47" t="s">
         <v>342</v>
-      </c>
-      <c r="U4" s="47" t="s">
-        <v>343</v>
       </c>
       <c r="V4" s="47">
         <v>10</v>
       </c>
       <c r="W4" s="90" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="X4" s="45" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="63"/>
       <c r="B5" s="60"/>
       <c r="C5" s="70"/>
@@ -11792,756 +12001,756 @@
       <selection activeCell="I2" sqref="I2:I108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" style="46" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="46" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="46"/>
+    <col min="3" max="3" width="9.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" style="46" customWidth="1"/>
+    <col min="9" max="9" width="15.90625" style="46" customWidth="1"/>
+    <col min="10" max="16384" width="8.90625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>356</v>
+      </c>
+      <c r="G1" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="H1" s="77" t="s">
+        <v>330</v>
+      </c>
+      <c r="I1" s="77" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.45">
+      <c r="A2" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>428</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="G2" s="66" t="s">
+        <v>335</v>
+      </c>
+      <c r="H2" s="89" t="s">
+        <v>342</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.45">
+      <c r="A3" s="47" t="s">
         <v>345</v>
       </c>
-      <c r="B1" s="61" t="s">
-        <v>430</v>
-      </c>
-      <c r="C1" s="76" t="s">
-        <v>431</v>
-      </c>
-      <c r="D1" s="76" t="s">
-        <v>328</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>361</v>
-      </c>
-      <c r="F1" s="61" t="s">
-        <v>357</v>
-      </c>
-      <c r="G1" s="77" t="s">
-        <v>405</v>
-      </c>
-      <c r="H1" s="77" t="s">
-        <v>331</v>
-      </c>
-      <c r="I1" s="77" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>334</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>432</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>341</v>
-      </c>
-      <c r="E2" s="47" t="s">
+      <c r="B3" s="69" t="s">
+        <v>429</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>442</v>
+      </c>
+      <c r="E3" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F3" s="47" t="s">
+        <v>353</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="H3" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="47" t="s">
+        <v>346</v>
+      </c>
+      <c r="B4" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="G2" s="66" t="s">
-        <v>336</v>
-      </c>
-      <c r="H2" s="89" t="s">
-        <v>343</v>
-      </c>
-      <c r="I2" s="47" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="47" t="s">
-        <v>346</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>433</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>338</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>446</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>363</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>354</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>418</v>
-      </c>
-      <c r="H3" s="89" t="s">
-        <v>576</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
-        <v>347</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>351</v>
-      </c>
       <c r="C4" s="47" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D4" s="47"/>
       <c r="E4" s="47" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
       <c r="I4" s="47" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="47" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
       <c r="I5" s="47" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="47" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B6" s="47"/>
       <c r="C6" s="47" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6" s="47" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
       <c r="I6" s="47" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="47" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B7" s="47"/>
       <c r="C7" s="47" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D7" s="47"/>
       <c r="E7" s="47" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="47"/>
       <c r="I7" s="47" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D8" s="47"/>
       <c r="E8" s="47" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="47"/>
       <c r="I8" s="47" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="47"/>
       <c r="B9" s="47"/>
       <c r="C9" s="47" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D9" s="47"/>
       <c r="E9" s="47" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F9" s="47"/>
       <c r="G9" s="47"/>
       <c r="I9" s="47" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D10" s="47"/>
       <c r="E10" s="47" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
       <c r="I10" s="47" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="47"/>
       <c r="B11" s="47"/>
       <c r="C11" s="47" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D11" s="47"/>
       <c r="E11" s="47" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F11" s="47"/>
       <c r="G11" s="47"/>
       <c r="I11" s="47" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="47"/>
       <c r="B12" s="47"/>
       <c r="C12" s="47" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D12" s="47"/>
       <c r="E12" s="47"/>
       <c r="F12" s="47"/>
       <c r="G12" s="47"/>
       <c r="I12" s="47" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="47"/>
       <c r="B13" s="47"/>
       <c r="C13" s="47" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="47"/>
       <c r="F13" s="47"/>
       <c r="G13" s="47"/>
       <c r="I13" s="47" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
       <c r="C14" s="47" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D14" s="47"/>
       <c r="E14" s="47"/>
       <c r="F14" s="47"/>
       <c r="G14" s="47"/>
       <c r="I14" s="47" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I15" s="47" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I16" s="47" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I17" s="47" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I18" s="47" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I19" s="47" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I15" s="47" t="s">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I20" s="47" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I16" s="47" t="s">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I21" s="47" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I17" s="47" t="s">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I22" s="47" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I18" s="47" t="s">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I23" s="47" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I19" s="47" t="s">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I24" s="47" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I20" s="47" t="s">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I25" s="47" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I21" s="47" t="s">
+    <row r="26" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I26" s="47" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I22" s="47" t="s">
+    <row r="27" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I27" s="47" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I23" s="47" t="s">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I28" s="47" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I24" s="47" t="s">
+    <row r="29" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I29" s="47" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I25" s="47" t="s">
+    <row r="30" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I30" s="47" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I26" s="47" t="s">
+    <row r="31" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I31" s="47" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I27" s="47" t="s">
+    <row r="32" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I32" s="47" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I28" s="47" t="s">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I33" s="47" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I29" s="47" t="s">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I34" s="47" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I30" s="47" t="s">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I35" s="47" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I31" s="47" t="s">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I36" s="47" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I32" s="47" t="s">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I37" s="47" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I33" s="47" t="s">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I38" s="47" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I34" s="47" t="s">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I39" s="47" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I35" s="47" t="s">
+    <row r="40" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I40" s="47" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I36" s="47" t="s">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I41" s="47" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I37" s="47" t="s">
+    <row r="42" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I42" s="47" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I38" s="47" t="s">
+    <row r="43" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I43" s="47" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I39" s="47" t="s">
+    <row r="44" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I44" s="47" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I40" s="47" t="s">
+    <row r="45" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I45" s="47" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I41" s="47" t="s">
+    <row r="46" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I46" s="47" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I42" s="47" t="s">
+    <row r="47" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I47" s="47" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I43" s="47" t="s">
+    <row r="48" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I48" s="47" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I44" s="47" t="s">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I49" s="47" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I45" s="47" t="s">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I50" s="47" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I46" s="47" t="s">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I51" s="47" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I47" s="47" t="s">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I52" s="47" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I48" s="47" t="s">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I53" s="47" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I49" s="47" t="s">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I54" s="47" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I50" s="47" t="s">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I55" s="47" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I51" s="47" t="s">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I56" s="47" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I52" s="47" t="s">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I57" s="47" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I53" s="47" t="s">
+    <row r="58" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I58" s="47" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I54" s="47" t="s">
+    <row r="59" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I59" s="47" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I55" s="47" t="s">
+    <row r="60" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I60" s="47" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I56" s="47" t="s">
+    <row r="61" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I61" s="47" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I57" s="47" t="s">
+    <row r="62" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I62" s="47" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I58" s="47" t="s">
+    <row r="63" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I63" s="47" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I59" s="47" t="s">
+    <row r="64" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I64" s="47" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I60" s="47" t="s">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I65" s="47" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I61" s="47" t="s">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I66" s="47" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I62" s="47" t="s">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I67" s="47" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I63" s="47" t="s">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I68" s="47" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I64" s="47" t="s">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I69" s="47" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I65" s="47" t="s">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I70" s="47" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I66" s="47" t="s">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I71" s="47" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I67" s="47" t="s">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I72" s="47" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I68" s="47" t="s">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I73" s="47" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I69" s="47" t="s">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I74" s="47" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I70" s="47" t="s">
+    <row r="75" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I75" s="47" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I71" s="47" t="s">
+    <row r="76" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I76" s="47" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I72" s="47" t="s">
+    <row r="77" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I77" s="47" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I73" s="47" t="s">
+    <row r="78" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I78" s="47" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I74" s="47" t="s">
+    <row r="79" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I79" s="47" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I75" s="47" t="s">
+    <row r="80" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I80" s="47" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I76" s="47" t="s">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I81" s="47" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I77" s="47" t="s">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I82" s="47" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I78" s="47" t="s">
+    <row r="83" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I83" s="47" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I79" s="47" t="s">
+    <row r="84" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I84" s="47" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I80" s="47" t="s">
+    <row r="85" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I85" s="47" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I81" s="47" t="s">
+    <row r="86" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I86" s="47" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I82" s="47" t="s">
+    <row r="87" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I87" s="47" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I83" s="47" t="s">
+    <row r="88" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I88" s="47" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I84" s="47" t="s">
+    <row r="89" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I89" s="47" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I85" s="47" t="s">
+    <row r="90" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I90" s="47" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I86" s="47" t="s">
+    <row r="91" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I91" s="47" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I87" s="47" t="s">
+    <row r="92" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I92" s="47" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I88" s="47" t="s">
+    <row r="93" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I93" s="47" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I89" s="47" t="s">
+    <row r="94" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I94" s="47" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I90" s="47" t="s">
+    <row r="95" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I95" s="47" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I91" s="47" t="s">
+    <row r="96" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I96" s="47" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I92" s="47" t="s">
+    <row r="97" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I97" s="47" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I93" s="47" t="s">
+    <row r="98" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I98" s="47" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I94" s="47" t="s">
+    <row r="99" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I99" s="47" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I95" s="47" t="s">
+    <row r="100" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I100" s="47" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I96" s="47" t="s">
+    <row r="101" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I101" s="47" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I97" s="47" t="s">
+    <row r="102" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I102" s="47" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I98" s="47" t="s">
+    <row r="103" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I103" s="47" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I99" s="47" t="s">
+    <row r="104" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I104" s="47" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I100" s="47" t="s">
+    <row r="105" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I105" s="47" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I101" s="47" t="s">
+    <row r="106" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I106" s="47" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I102" s="47" t="s">
+    <row r="107" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I107" s="47" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I103" s="47" t="s">
+    <row r="108" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I108" s="47" t="s">
         <v>596</v>
-      </c>
-    </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I104" s="47" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I105" s="47" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I106" s="47" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I107" s="47" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I108" s="47" t="s">
-        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -12555,31 +12764,31 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" style="46" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" style="46" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="31.36328125" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="54" customFormat="1" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>463</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="54" customFormat="1" ht="105.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="95" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -12590,72 +12799,166 @@
         <v>2</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>371</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>372</v>
+        <v>321</v>
+      </c>
+      <c r="B3" s="91" t="s">
+        <v>370</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>631</v>
       </c>
       <c r="D3" s="47"/>
       <c r="E3" s="47"/>
     </row>
-    <row r="4" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
-        <v>5</v>
+        <v>321</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>615</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>616</v>
+        <v>632</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>633</v>
       </c>
       <c r="D4" s="47"/>
       <c r="E4" s="47"/>
     </row>
-    <row r="5" spans="1:5" s="46" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>373</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>617</v>
+        <v>634</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>635</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
     </row>
-    <row r="6" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>618</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>619</v>
+        <v>636</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>637</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6" s="47"/>
     </row>
-    <row r="7" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
+        <v>321</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>610</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:5" s="47" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>638</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>639</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+    </row>
+    <row r="9" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>640</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>642</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>644</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>646</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>648</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>650</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>652</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>653</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12671,36 +12974,36 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" style="46" customWidth="1"/>
     <col min="4" max="4" width="16" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" style="46" customWidth="1"/>
-    <col min="6" max="7" width="28.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="49.36328125" style="46" customWidth="1"/>
+    <col min="6" max="7" width="28.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="54" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>464</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-    </row>
-    <row r="2" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="54" customFormat="1" ht="102.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="95" t="s">
+        <v>459</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+    </row>
+    <row r="2" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -12723,188 +13026,578 @@
         <v>9</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="46" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="46" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>375</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>393</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>447</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>620</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>371</v>
-      </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="47"/>
-    </row>
-    <row r="4" spans="1:8" s="46" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>621</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>393</v>
-      </c>
-      <c r="D4" s="92" t="s">
-        <v>622</v>
-      </c>
-      <c r="E4" s="93" t="s">
-        <v>376</v>
-      </c>
-      <c r="F4" s="93" t="s">
-        <v>615</v>
-      </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="47"/>
-    </row>
-    <row r="5" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>654</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>655</v>
+      </c>
+      <c r="E3" s="93" t="s">
+        <v>656</v>
+      </c>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="94"/>
+    </row>
+    <row r="4" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>657</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>658</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+    </row>
+    <row r="5" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>623</v>
+        <v>660</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>393</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>624</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>618</v>
-      </c>
-      <c r="G5" s="91" t="s">
-        <v>370</v>
-      </c>
-      <c r="H5" s="47"/>
-    </row>
-    <row r="6" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>661</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+    </row>
+    <row r="6" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47" t="s">
-        <v>625</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>618</v>
-      </c>
-      <c r="G6" s="91" t="s">
-        <v>370</v>
-      </c>
-      <c r="H6" s="47"/>
-    </row>
-    <row r="7" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="45"/>
+      <c r="E6" s="45" t="s">
+        <v>663</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+    </row>
+    <row r="7" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47" t="s">
-        <v>626</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>618</v>
-      </c>
-      <c r="G7" s="91" t="s">
-        <v>370</v>
-      </c>
-      <c r="H7" s="47"/>
-    </row>
-    <row r="8" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="45"/>
+      <c r="E7" s="45" t="s">
+        <v>664</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+    </row>
+    <row r="8" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47" t="s">
-        <v>627</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>618</v>
-      </c>
-      <c r="G8" s="91" t="s">
-        <v>612</v>
-      </c>
-      <c r="H8" s="47"/>
-    </row>
-    <row r="9" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="45"/>
+      <c r="E8" s="45" t="s">
+        <v>665</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+    </row>
+    <row r="9" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47" t="s">
-        <v>376</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>618</v>
-      </c>
-      <c r="G9" s="91"/>
-      <c r="H9" s="47"/>
-    </row>
-    <row r="10" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>628</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>393</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>629</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>630</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>373</v>
-      </c>
-      <c r="G10" s="91" t="s">
-        <v>612</v>
-      </c>
-      <c r="H10" s="47"/>
-    </row>
-    <row r="11" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="45"/>
+      <c r="E9" s="45" t="s">
+        <v>666</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+    </row>
+    <row r="10" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="47"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45" t="s">
+        <v>667</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+    </row>
+    <row r="11" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47" t="s">
-        <v>376</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>373</v>
-      </c>
-      <c r="G11" s="91"/>
-      <c r="H11" s="47"/>
-    </row>
-    <row r="12" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="45"/>
+      <c r="E11" s="45" t="s">
+        <v>668</v>
+      </c>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+    </row>
+    <row r="12" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>669</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>670</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+    </row>
+    <row r="13" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>672</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>673</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>674</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+    </row>
+    <row r="14" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="47"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45" t="s">
+        <v>675</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+    </row>
+    <row r="15" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="47"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45" t="s">
+        <v>676</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+    </row>
+    <row r="16" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="47"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45" t="s">
+        <v>677</v>
+      </c>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+    </row>
+    <row r="17" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>678</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>679</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>680</v>
+      </c>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="47"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45" t="s">
+        <v>681</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+    </row>
+    <row r="19" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="47"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45" t="s">
+        <v>682</v>
+      </c>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+    </row>
+    <row r="20" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="47"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45" t="s">
+        <v>683</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+    </row>
+    <row r="21" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="47"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45" t="s">
+        <v>684</v>
+      </c>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+    </row>
+    <row r="22" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="47"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45" t="s">
+        <v>685</v>
+      </c>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+    </row>
+    <row r="23" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="47"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45" t="s">
+        <v>686</v>
+      </c>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+    </row>
+    <row r="24" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="47"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45" t="s">
+        <v>687</v>
+      </c>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+    </row>
+    <row r="25" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="47"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45" t="s">
+        <v>688</v>
+      </c>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+    </row>
+    <row r="26" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>689</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>690</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>691</v>
+      </c>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+    </row>
+    <row r="27" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="47"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45" t="s">
+        <v>692</v>
+      </c>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+    </row>
+    <row r="28" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="47"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45" t="s">
+        <v>693</v>
+      </c>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+    </row>
+    <row r="29" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="47"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45" t="s">
+        <v>694</v>
+      </c>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+    </row>
+    <row r="30" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>695</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>696</v>
+      </c>
+      <c r="E30" s="45" t="s">
+        <v>697</v>
+      </c>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+    </row>
+    <row r="31" spans="1:7" s="46" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="47"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45" t="s">
+        <v>698</v>
+      </c>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+    </row>
+    <row r="32" spans="1:7" s="46" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="47"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45" t="s">
+        <v>699</v>
+      </c>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+    </row>
+    <row r="33" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="47"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45" t="s">
+        <v>700</v>
+      </c>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+    </row>
+    <row r="34" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="47"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45" t="s">
+        <v>701</v>
+      </c>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+    </row>
+    <row r="35" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="47"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45" t="s">
+        <v>701</v>
+      </c>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+    </row>
+    <row r="36" spans="1:7" s="46" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>702</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="D36" s="45" t="s">
+        <v>703</v>
+      </c>
+      <c r="E36" s="45" t="s">
+        <v>704</v>
+      </c>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+    </row>
+    <row r="37" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="47"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45" t="s">
+        <v>705</v>
+      </c>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+    </row>
+    <row r="38" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="47"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45" t="s">
+        <v>706</v>
+      </c>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+    </row>
+    <row r="39" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="47"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45" t="s">
+        <v>707</v>
+      </c>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+    </row>
+    <row r="40" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="47"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45" t="s">
+        <v>708</v>
+      </c>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+    </row>
+    <row r="41" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>709</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>710</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+    </row>
+    <row r="42" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>712</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>713</v>
+      </c>
+      <c r="E42" s="45" t="s">
+        <v>714</v>
+      </c>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+    </row>
+    <row r="43" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="47"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45" t="s">
+        <v>715</v>
+      </c>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+    </row>
+    <row r="44" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="D44" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>718</v>
+      </c>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+    </row>
+    <row r="45" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="47"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12922,37 +13615,37 @@
       <selection activeCell="A3" sqref="A3:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="4"/>
-    <col min="2" max="2" width="19.21875" style="46" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="46" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="46" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="46" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" style="4"/>
+    <col min="2" max="2" width="19.1796875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="21.90625" style="46" customWidth="1"/>
+    <col min="7" max="7" width="21.6328125" style="46" customWidth="1"/>
     <col min="8" max="8" width="21" style="46" customWidth="1"/>
-    <col min="9" max="9" width="23.77734375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.81640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
-        <v>495</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98" t="s">
-        <v>492</v>
-      </c>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="100"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="96" t="s">
+        <v>490</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99" t="s">
+        <v>487</v>
+      </c>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="101"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
@@ -12960,31 +13653,31 @@
         <v>6</v>
       </c>
       <c r="C2" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="E2" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="F2" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="G2" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="H2" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="I2" s="51" t="s">
+        <v>448</v>
+      </c>
+      <c r="J2" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="I2" s="51" t="s">
-        <v>453</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="53" t="s">
         <v>4</v>
       </c>
@@ -12998,69 +13691,69 @@
       <c r="I3" s="52"/>
       <c r="J3" s="53"/>
     </row>
-    <row r="4" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C4" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>299</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="E4" s="31" t="s">
         <v>300</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>301</v>
       </c>
       <c r="F4" s="31"/>
       <c r="G4" s="31" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="J4" s="38" t="s">
         <v>302</v>
       </c>
-      <c r="I4" s="33" t="s">
-        <v>369</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="59"/>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
       <c r="D5" s="31"/>
       <c r="E5" s="31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F5" s="31"/>
       <c r="G5" s="31" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J5" s="38"/>
     </row>
-    <row r="6" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="31"/>
@@ -13068,21 +13761,21 @@
       <c r="I6" s="59"/>
       <c r="J6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="31"/>
@@ -13090,13 +13783,13 @@
       <c r="I7" s="33"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="59"/>
       <c r="B8" s="35"/>
       <c r="C8" s="36"/>
       <c r="D8" s="31"/>
       <c r="E8" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F8" s="32"/>
       <c r="G8" s="31"/>
@@ -13104,41 +13797,41 @@
       <c r="I8" s="37"/>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="F9" s="31" t="s">
         <v>310</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>311</v>
       </c>
       <c r="G9" s="31" t="b">
         <v>1</v>
       </c>
       <c r="H9" s="31"/>
       <c r="I9" s="47" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="38"/>
       <c r="B10" s="35"/>
       <c r="C10" s="36"/>
       <c r="D10" s="31"/>
       <c r="E10" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
@@ -13146,13 +13839,13 @@
       <c r="I10" s="37"/>
       <c r="J10" s="38"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="59"/>
       <c r="B11" s="35"/>
       <c r="C11" s="39"/>
       <c r="D11" s="31"/>
       <c r="E11" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
@@ -13160,19 +13853,19 @@
       <c r="I11" s="37"/>
       <c r="J11" s="38"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="59"/>
       <c r="B12" s="35"/>
       <c r="C12" s="39"/>
       <c r="D12" s="31"/>
       <c r="E12" s="31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
       <c r="I12" s="47" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J12" s="38"/>
     </row>
@@ -13197,40 +13890,40 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
-    <col min="2" max="3" width="16.44140625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" style="46" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="46" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
+    <col min="2" max="3" width="16.453125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="46" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" style="46" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="46" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" style="46" customWidth="1"/>
     <col min="9" max="9" width="14" style="46" customWidth="1"/>
-    <col min="10" max="10" width="22.5546875" style="46" customWidth="1"/>
-    <col min="11" max="11" width="26.44140625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="22.54296875" style="46" customWidth="1"/>
+    <col min="11" max="11" width="26.453125" style="46" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="46" customFormat="1" ht="187.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
-        <v>478</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="95" t="s">
-        <v>479</v>
-      </c>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="97"/>
-    </row>
-    <row r="2" spans="1:12" s="54" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="46" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="96" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="96" t="s">
+        <v>474</v>
+      </c>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="98"/>
+    </row>
+    <row r="2" spans="1:12" s="54" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -13238,71 +13931,71 @@
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="L2" s="40" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B3" s="47" t="s">
+        <v>607</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>611</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="47" t="s">
         <v>612</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>631</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>632</v>
       </c>
       <c r="K3" s="47"/>
       <c r="L3" s="42"/>
     </row>
-    <row r="4" spans="1:12" s="46" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="46" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="42" t="s">
         <v>4</v>
       </c>
@@ -13339,56 +14032,56 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.21875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="46" customWidth="1"/>
-    <col min="3" max="10" width="9.21875" style="46" customWidth="1"/>
-    <col min="11" max="16384" width="9.21875" style="46"/>
+    <col min="1" max="1" width="32.1796875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="50.54296875" style="46" customWidth="1"/>
+    <col min="3" max="10" width="9.1796875" style="46" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="54" customFormat="1" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>458</v>
-      </c>
-      <c r="B1" s="100"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="54" customFormat="1" ht="121.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="95" t="s">
+        <v>453</v>
+      </c>
+      <c r="B1" s="101"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="11" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="47"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="47"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="47" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="47" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="B6" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -13411,31 +14104,31 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="46" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" style="46" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.54296875" style="46" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>465</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-    </row>
-    <row r="2" spans="1:8" s="54" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="95" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+    </row>
+    <row r="2" spans="1:8" s="54" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -13443,25 +14136,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="H2" s="40" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -13489,56 +14182,56 @@
   </sheetPr>
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="46" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" style="46" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" style="46" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" style="46" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.44140625" style="46" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="46" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="46" customWidth="1"/>
-    <col min="13" max="13" width="15.77734375" style="46" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="46" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" style="46" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" style="46" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="46" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.453125" style="46" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" style="46" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" style="46" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" style="46" customWidth="1"/>
+    <col min="14" max="14" width="13.6328125" style="46" customWidth="1"/>
+    <col min="15" max="15" width="11.90625" style="46" customWidth="1"/>
+    <col min="16" max="16" width="14.08984375" style="46" customWidth="1"/>
     <col min="17" max="17" width="10" style="46" customWidth="1"/>
-    <col min="18" max="18" width="24.21875" customWidth="1"/>
+    <col min="18" max="18" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="173.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
-        <v>459</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="101" t="s">
-        <v>466</v>
-      </c>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-    </row>
-    <row r="2" spans="1:18" s="54" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="173.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="96" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="102" t="s">
+        <v>461</v>
+      </c>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+    </row>
+    <row r="2" spans="1:18" s="54" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -13546,193 +14239,193 @@
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="12" t="s">
-        <v>45</v>
-      </c>
       <c r="Q2" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R2" s="41" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="E3" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="47" t="s">
-        <v>47</v>
-      </c>
       <c r="G3" s="47" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
       <c r="K3" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="57" t="s">
-        <v>23</v>
-      </c>
       <c r="M3" s="57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N3" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="57" t="s">
         <v>22</v>
-      </c>
-      <c r="O3" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="57" t="s">
-        <v>23</v>
       </c>
       <c r="Q3" s="58"/>
       <c r="R3" s="42"/>
     </row>
-    <row r="4" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
       <c r="J4" s="47"/>
       <c r="K4" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="57" t="s">
-        <v>23</v>
-      </c>
       <c r="M4" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="57" t="s">
-        <v>23</v>
-      </c>
       <c r="O4" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="57" t="s">
         <v>22</v>
-      </c>
-      <c r="P4" s="57" t="s">
-        <v>23</v>
       </c>
       <c r="Q4" s="58"/>
       <c r="R4" s="47"/>
     </row>
-    <row r="5" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="46" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
       <c r="J5" s="47"/>
       <c r="K5" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="57" t="s">
+        <v>376</v>
+      </c>
+      <c r="M5" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="57" t="s">
-        <v>380</v>
-      </c>
-      <c r="M5" s="57" t="s">
+      <c r="O5" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="57" t="s">
         <v>22</v>
-      </c>
-      <c r="N5" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="57" t="s">
-        <v>23</v>
       </c>
       <c r="Q5" s="58"/>
       <c r="R5" s="47"/>
     </row>
-    <row r="6" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="47" t="s">
         <v>4</v>
       </c>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-mvt-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-mvt-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -5945,9 +5945,6 @@
     <t>Database Operations</t>
   </si>
   <si>
-    <t>Netwok_Ops</t>
-  </si>
-  <si>
     <t>Network Operations</t>
   </si>
   <si>
@@ -6144,6 +6141,9 @@
   </si>
   <si>
     <t>Allow group Database_Ops to use database-family in tenancy</t>
+  </si>
+  <si>
+    <t>Network_Ops</t>
   </si>
 </sst>
 </file>
@@ -7302,7 +7302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -12766,8 +12766,8 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12954,10 +12954,10 @@
         <v>321</v>
       </c>
       <c r="B15" s="56" t="s">
+        <v>718</v>
+      </c>
+      <c r="C15" s="45" t="s">
         <v>652</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -13034,16 +13034,16 @@
         <v>321</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C3" s="45" t="s">
         <v>389</v>
       </c>
       <c r="D3" s="45" t="s">
+        <v>654</v>
+      </c>
+      <c r="E3" s="93" t="s">
         <v>655</v>
-      </c>
-      <c r="E3" s="93" t="s">
-        <v>656</v>
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
@@ -13054,16 +13054,16 @@
         <v>321</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>389</v>
       </c>
       <c r="D4" s="45" t="s">
+        <v>657</v>
+      </c>
+      <c r="E4" s="45" t="s">
         <v>658</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>659</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
@@ -13073,16 +13073,16 @@
         <v>321</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>389</v>
       </c>
       <c r="D5" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="E5" s="45" t="s">
         <v>661</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>662</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
@@ -13093,7 +13093,7 @@
       <c r="C6" s="47"/>
       <c r="D6" s="45"/>
       <c r="E6" s="45" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
@@ -13104,7 +13104,7 @@
       <c r="C7" s="47"/>
       <c r="D7" s="45"/>
       <c r="E7" s="45" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="47"/>
@@ -13115,7 +13115,7 @@
       <c r="C8" s="47"/>
       <c r="D8" s="45"/>
       <c r="E8" s="45" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="47"/>
@@ -13126,7 +13126,7 @@
       <c r="C9" s="47"/>
       <c r="D9" s="45"/>
       <c r="E9" s="45" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F9" s="47"/>
       <c r="G9" s="47"/>
@@ -13137,7 +13137,7 @@
       <c r="C10" s="47"/>
       <c r="D10" s="45"/>
       <c r="E10" s="45" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
@@ -13148,7 +13148,7 @@
       <c r="C11" s="47"/>
       <c r="D11" s="45"/>
       <c r="E11" s="45" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F11" s="47"/>
       <c r="G11" s="47"/>
@@ -13158,16 +13158,16 @@
         <v>321</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>389</v>
       </c>
       <c r="D12" s="45" t="s">
+        <v>669</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>671</v>
       </c>
       <c r="F12" s="47"/>
       <c r="G12" s="47"/>
@@ -13177,16 +13177,16 @@
         <v>321</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C13" s="47" t="s">
         <v>389</v>
       </c>
       <c r="D13" s="45" t="s">
+        <v>672</v>
+      </c>
+      <c r="E13" s="45" t="s">
         <v>673</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>674</v>
       </c>
       <c r="F13" s="47"/>
       <c r="G13" s="47"/>
@@ -13197,7 +13197,7 @@
       <c r="C14" s="47"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F14" s="47"/>
       <c r="G14" s="47"/>
@@ -13208,7 +13208,7 @@
       <c r="C15" s="47"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F15" s="47"/>
       <c r="G15" s="47"/>
@@ -13219,7 +13219,7 @@
       <c r="C16" s="47"/>
       <c r="D16" s="45"/>
       <c r="E16" s="45" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F16" s="47"/>
       <c r="G16" s="47"/>
@@ -13229,16 +13229,16 @@
         <v>321</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>389</v>
       </c>
       <c r="D17" s="45" t="s">
+        <v>678</v>
+      </c>
+      <c r="E17" s="45" t="s">
         <v>679</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>680</v>
       </c>
       <c r="F17" s="47"/>
       <c r="G17" s="47"/>
@@ -13249,7 +13249,7 @@
       <c r="C18" s="47"/>
       <c r="D18" s="45"/>
       <c r="E18" s="45" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F18" s="47"/>
       <c r="G18" s="47"/>
@@ -13260,7 +13260,7 @@
       <c r="C19" s="47"/>
       <c r="D19" s="45"/>
       <c r="E19" s="45" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F19" s="47"/>
       <c r="G19" s="47"/>
@@ -13271,7 +13271,7 @@
       <c r="C20" s="47"/>
       <c r="D20" s="45"/>
       <c r="E20" s="45" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F20" s="47"/>
       <c r="G20" s="47"/>
@@ -13282,7 +13282,7 @@
       <c r="C21" s="47"/>
       <c r="D21" s="45"/>
       <c r="E21" s="45" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F21" s="47"/>
       <c r="G21" s="47"/>
@@ -13293,7 +13293,7 @@
       <c r="C22" s="47"/>
       <c r="D22" s="45"/>
       <c r="E22" s="45" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F22" s="47"/>
       <c r="G22" s="47"/>
@@ -13304,7 +13304,7 @@
       <c r="C23" s="47"/>
       <c r="D23" s="45"/>
       <c r="E23" s="45" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
@@ -13315,7 +13315,7 @@
       <c r="C24" s="47"/>
       <c r="D24" s="45"/>
       <c r="E24" s="45" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F24" s="47"/>
       <c r="G24" s="47"/>
@@ -13326,7 +13326,7 @@
       <c r="C25" s="47"/>
       <c r="D25" s="45"/>
       <c r="E25" s="45" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F25" s="47"/>
       <c r="G25" s="47"/>
@@ -13336,16 +13336,16 @@
         <v>321</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C26" s="47" t="s">
         <v>389</v>
       </c>
       <c r="D26" s="45" t="s">
+        <v>689</v>
+      </c>
+      <c r="E26" s="45" t="s">
         <v>690</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>691</v>
       </c>
       <c r="F26" s="47"/>
       <c r="G26" s="47"/>
@@ -13356,7 +13356,7 @@
       <c r="C27" s="47"/>
       <c r="D27" s="45"/>
       <c r="E27" s="45" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F27" s="47"/>
       <c r="G27" s="47"/>
@@ -13367,7 +13367,7 @@
       <c r="C28" s="47"/>
       <c r="D28" s="45"/>
       <c r="E28" s="45" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F28" s="47"/>
       <c r="G28" s="47"/>
@@ -13378,7 +13378,7 @@
       <c r="C29" s="47"/>
       <c r="D29" s="45"/>
       <c r="E29" s="45" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F29" s="47"/>
       <c r="G29" s="47"/>
@@ -13388,16 +13388,16 @@
         <v>321</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C30" s="47" t="s">
         <v>389</v>
       </c>
       <c r="D30" s="45" t="s">
+        <v>695</v>
+      </c>
+      <c r="E30" s="45" t="s">
         <v>696</v>
-      </c>
-      <c r="E30" s="45" t="s">
-        <v>697</v>
       </c>
       <c r="F30" s="47"/>
       <c r="G30" s="47"/>
@@ -13408,7 +13408,7 @@
       <c r="C31" s="47"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F31" s="47"/>
       <c r="G31" s="47"/>
@@ -13419,7 +13419,7 @@
       <c r="C32" s="47"/>
       <c r="D32" s="45"/>
       <c r="E32" s="45" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F32" s="47"/>
       <c r="G32" s="47"/>
@@ -13430,7 +13430,7 @@
       <c r="C33" s="47"/>
       <c r="D33" s="45"/>
       <c r="E33" s="45" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F33" s="47"/>
       <c r="G33" s="47"/>
@@ -13441,7 +13441,7 @@
       <c r="C34" s="47"/>
       <c r="D34" s="45"/>
       <c r="E34" s="45" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F34" s="47"/>
       <c r="G34" s="47"/>
@@ -13452,7 +13452,7 @@
       <c r="C35" s="47"/>
       <c r="D35" s="45"/>
       <c r="E35" s="45" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F35" s="47"/>
       <c r="G35" s="47"/>
@@ -13462,16 +13462,16 @@
         <v>321</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C36" s="47" t="s">
         <v>389</v>
       </c>
       <c r="D36" s="45" t="s">
+        <v>702</v>
+      </c>
+      <c r="E36" s="45" t="s">
         <v>703</v>
-      </c>
-      <c r="E36" s="45" t="s">
-        <v>704</v>
       </c>
       <c r="F36" s="47"/>
       <c r="G36" s="47"/>
@@ -13482,7 +13482,7 @@
       <c r="C37" s="47"/>
       <c r="D37" s="45"/>
       <c r="E37" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F37" s="47"/>
       <c r="G37" s="47"/>
@@ -13493,7 +13493,7 @@
       <c r="C38" s="47"/>
       <c r="D38" s="45"/>
       <c r="E38" s="45" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F38" s="47"/>
       <c r="G38" s="47"/>
@@ -13504,7 +13504,7 @@
       <c r="C39" s="47"/>
       <c r="D39" s="45"/>
       <c r="E39" s="45" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F39" s="47"/>
       <c r="G39" s="47"/>
@@ -13515,7 +13515,7 @@
       <c r="C40" s="47"/>
       <c r="D40" s="45"/>
       <c r="E40" s="45" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F40" s="47"/>
       <c r="G40" s="47"/>
@@ -13525,16 +13525,16 @@
         <v>321</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C41" s="47" t="s">
         <v>389</v>
       </c>
       <c r="D41" s="45" t="s">
+        <v>709</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>711</v>
       </c>
       <c r="F41" s="47"/>
       <c r="G41" s="47"/>
@@ -13544,16 +13544,16 @@
         <v>321</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C42" s="47" t="s">
         <v>389</v>
       </c>
       <c r="D42" s="45" t="s">
+        <v>712</v>
+      </c>
+      <c r="E42" s="45" t="s">
         <v>713</v>
-      </c>
-      <c r="E42" s="45" t="s">
-        <v>714</v>
       </c>
       <c r="F42" s="47"/>
       <c r="G42" s="47"/>
@@ -13564,7 +13564,7 @@
       <c r="C43" s="47"/>
       <c r="D43" s="45"/>
       <c r="E43" s="45" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F43" s="47"/>
       <c r="G43" s="47"/>
@@ -13574,16 +13574,16 @@
         <v>321</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C44" s="47" t="s">
         <v>389</v>
       </c>
       <c r="D44" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="E44" s="45" t="s">
         <v>717</v>
-      </c>
-      <c r="E44" s="45" t="s">
-        <v>718</v>
       </c>
       <c r="F44" s="47"/>
       <c r="G44" s="47"/>
@@ -13887,7 +13887,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-mvt-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-mvt-template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_master\oci_tenancy\SetUpOCI_Via_TF\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop\oci_tenancy\SetUpOCI_Via_TF\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -5945,9 +5945,6 @@
     <t>Database Operations</t>
   </si>
   <si>
-    <t>Netwok_Ops</t>
-  </si>
-  <si>
     <t>Network Operations</t>
   </si>
   <si>
@@ -6144,6 +6141,9 @@
   </si>
   <si>
     <t>Allow group Database_Ops to use database-family in tenancy</t>
+  </si>
+  <si>
+    <t>Network_Ops</t>
   </si>
 </sst>
 </file>
@@ -7302,7 +7302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -12766,8 +12766,8 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12954,10 +12954,10 @@
         <v>321</v>
       </c>
       <c r="B15" s="56" t="s">
+        <v>718</v>
+      </c>
+      <c r="C15" s="45" t="s">
         <v>652</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -13034,16 +13034,16 @@
         <v>321</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C3" s="45" t="s">
         <v>389</v>
       </c>
       <c r="D3" s="45" t="s">
+        <v>654</v>
+      </c>
+      <c r="E3" s="93" t="s">
         <v>655</v>
-      </c>
-      <c r="E3" s="93" t="s">
-        <v>656</v>
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
@@ -13054,16 +13054,16 @@
         <v>321</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>389</v>
       </c>
       <c r="D4" s="45" t="s">
+        <v>657</v>
+      </c>
+      <c r="E4" s="45" t="s">
         <v>658</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>659</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
@@ -13073,16 +13073,16 @@
         <v>321</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>389</v>
       </c>
       <c r="D5" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="E5" s="45" t="s">
         <v>661</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>662</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
@@ -13093,7 +13093,7 @@
       <c r="C6" s="47"/>
       <c r="D6" s="45"/>
       <c r="E6" s="45" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
@@ -13104,7 +13104,7 @@
       <c r="C7" s="47"/>
       <c r="D7" s="45"/>
       <c r="E7" s="45" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="47"/>
@@ -13115,7 +13115,7 @@
       <c r="C8" s="47"/>
       <c r="D8" s="45"/>
       <c r="E8" s="45" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="47"/>
@@ -13126,7 +13126,7 @@
       <c r="C9" s="47"/>
       <c r="D9" s="45"/>
       <c r="E9" s="45" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F9" s="47"/>
       <c r="G9" s="47"/>
@@ -13137,7 +13137,7 @@
       <c r="C10" s="47"/>
       <c r="D10" s="45"/>
       <c r="E10" s="45" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
@@ -13148,7 +13148,7 @@
       <c r="C11" s="47"/>
       <c r="D11" s="45"/>
       <c r="E11" s="45" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F11" s="47"/>
       <c r="G11" s="47"/>
@@ -13158,16 +13158,16 @@
         <v>321</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>389</v>
       </c>
       <c r="D12" s="45" t="s">
+        <v>669</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>671</v>
       </c>
       <c r="F12" s="47"/>
       <c r="G12" s="47"/>
@@ -13177,16 +13177,16 @@
         <v>321</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C13" s="47" t="s">
         <v>389</v>
       </c>
       <c r="D13" s="45" t="s">
+        <v>672</v>
+      </c>
+      <c r="E13" s="45" t="s">
         <v>673</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>674</v>
       </c>
       <c r="F13" s="47"/>
       <c r="G13" s="47"/>
@@ -13197,7 +13197,7 @@
       <c r="C14" s="47"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F14" s="47"/>
       <c r="G14" s="47"/>
@@ -13208,7 +13208,7 @@
       <c r="C15" s="47"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F15" s="47"/>
       <c r="G15" s="47"/>
@@ -13219,7 +13219,7 @@
       <c r="C16" s="47"/>
       <c r="D16" s="45"/>
       <c r="E16" s="45" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F16" s="47"/>
       <c r="G16" s="47"/>
@@ -13229,16 +13229,16 @@
         <v>321</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>389</v>
       </c>
       <c r="D17" s="45" t="s">
+        <v>678</v>
+      </c>
+      <c r="E17" s="45" t="s">
         <v>679</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>680</v>
       </c>
       <c r="F17" s="47"/>
       <c r="G17" s="47"/>
@@ -13249,7 +13249,7 @@
       <c r="C18" s="47"/>
       <c r="D18" s="45"/>
       <c r="E18" s="45" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F18" s="47"/>
       <c r="G18" s="47"/>
@@ -13260,7 +13260,7 @@
       <c r="C19" s="47"/>
       <c r="D19" s="45"/>
       <c r="E19" s="45" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F19" s="47"/>
       <c r="G19" s="47"/>
@@ -13271,7 +13271,7 @@
       <c r="C20" s="47"/>
       <c r="D20" s="45"/>
       <c r="E20" s="45" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F20" s="47"/>
       <c r="G20" s="47"/>
@@ -13282,7 +13282,7 @@
       <c r="C21" s="47"/>
       <c r="D21" s="45"/>
       <c r="E21" s="45" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F21" s="47"/>
       <c r="G21" s="47"/>
@@ -13293,7 +13293,7 @@
       <c r="C22" s="47"/>
       <c r="D22" s="45"/>
       <c r="E22" s="45" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F22" s="47"/>
       <c r="G22" s="47"/>
@@ -13304,7 +13304,7 @@
       <c r="C23" s="47"/>
       <c r="D23" s="45"/>
       <c r="E23" s="45" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
@@ -13315,7 +13315,7 @@
       <c r="C24" s="47"/>
       <c r="D24" s="45"/>
       <c r="E24" s="45" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F24" s="47"/>
       <c r="G24" s="47"/>
@@ -13326,7 +13326,7 @@
       <c r="C25" s="47"/>
       <c r="D25" s="45"/>
       <c r="E25" s="45" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F25" s="47"/>
       <c r="G25" s="47"/>
@@ -13336,16 +13336,16 @@
         <v>321</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C26" s="47" t="s">
         <v>389</v>
       </c>
       <c r="D26" s="45" t="s">
+        <v>689</v>
+      </c>
+      <c r="E26" s="45" t="s">
         <v>690</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>691</v>
       </c>
       <c r="F26" s="47"/>
       <c r="G26" s="47"/>
@@ -13356,7 +13356,7 @@
       <c r="C27" s="47"/>
       <c r="D27" s="45"/>
       <c r="E27" s="45" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F27" s="47"/>
       <c r="G27" s="47"/>
@@ -13367,7 +13367,7 @@
       <c r="C28" s="47"/>
       <c r="D28" s="45"/>
       <c r="E28" s="45" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F28" s="47"/>
       <c r="G28" s="47"/>
@@ -13378,7 +13378,7 @@
       <c r="C29" s="47"/>
       <c r="D29" s="45"/>
       <c r="E29" s="45" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F29" s="47"/>
       <c r="G29" s="47"/>
@@ -13388,16 +13388,16 @@
         <v>321</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C30" s="47" t="s">
         <v>389</v>
       </c>
       <c r="D30" s="45" t="s">
+        <v>695</v>
+      </c>
+      <c r="E30" s="45" t="s">
         <v>696</v>
-      </c>
-      <c r="E30" s="45" t="s">
-        <v>697</v>
       </c>
       <c r="F30" s="47"/>
       <c r="G30" s="47"/>
@@ -13408,7 +13408,7 @@
       <c r="C31" s="47"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F31" s="47"/>
       <c r="G31" s="47"/>
@@ -13419,7 +13419,7 @@
       <c r="C32" s="47"/>
       <c r="D32" s="45"/>
       <c r="E32" s="45" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F32" s="47"/>
       <c r="G32" s="47"/>
@@ -13430,7 +13430,7 @@
       <c r="C33" s="47"/>
       <c r="D33" s="45"/>
       <c r="E33" s="45" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F33" s="47"/>
       <c r="G33" s="47"/>
@@ -13441,7 +13441,7 @@
       <c r="C34" s="47"/>
       <c r="D34" s="45"/>
       <c r="E34" s="45" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F34" s="47"/>
       <c r="G34" s="47"/>
@@ -13452,7 +13452,7 @@
       <c r="C35" s="47"/>
       <c r="D35" s="45"/>
       <c r="E35" s="45" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F35" s="47"/>
       <c r="G35" s="47"/>
@@ -13462,16 +13462,16 @@
         <v>321</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C36" s="47" t="s">
         <v>389</v>
       </c>
       <c r="D36" s="45" t="s">
+        <v>702</v>
+      </c>
+      <c r="E36" s="45" t="s">
         <v>703</v>
-      </c>
-      <c r="E36" s="45" t="s">
-        <v>704</v>
       </c>
       <c r="F36" s="47"/>
       <c r="G36" s="47"/>
@@ -13482,7 +13482,7 @@
       <c r="C37" s="47"/>
       <c r="D37" s="45"/>
       <c r="E37" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F37" s="47"/>
       <c r="G37" s="47"/>
@@ -13493,7 +13493,7 @@
       <c r="C38" s="47"/>
       <c r="D38" s="45"/>
       <c r="E38" s="45" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F38" s="47"/>
       <c r="G38" s="47"/>
@@ -13504,7 +13504,7 @@
       <c r="C39" s="47"/>
       <c r="D39" s="45"/>
       <c r="E39" s="45" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F39" s="47"/>
       <c r="G39" s="47"/>
@@ -13515,7 +13515,7 @@
       <c r="C40" s="47"/>
       <c r="D40" s="45"/>
       <c r="E40" s="45" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F40" s="47"/>
       <c r="G40" s="47"/>
@@ -13525,16 +13525,16 @@
         <v>321</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C41" s="47" t="s">
         <v>389</v>
       </c>
       <c r="D41" s="45" t="s">
+        <v>709</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>711</v>
       </c>
       <c r="F41" s="47"/>
       <c r="G41" s="47"/>
@@ -13544,16 +13544,16 @@
         <v>321</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C42" s="47" t="s">
         <v>389</v>
       </c>
       <c r="D42" s="45" t="s">
+        <v>712</v>
+      </c>
+      <c r="E42" s="45" t="s">
         <v>713</v>
-      </c>
-      <c r="E42" s="45" t="s">
-        <v>714</v>
       </c>
       <c r="F42" s="47"/>
       <c r="G42" s="47"/>
@@ -13564,7 +13564,7 @@
       <c r="C43" s="47"/>
       <c r="D43" s="45"/>
       <c r="E43" s="45" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F43" s="47"/>
       <c r="G43" s="47"/>
@@ -13574,16 +13574,16 @@
         <v>321</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C44" s="47" t="s">
         <v>389</v>
       </c>
       <c r="D44" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="E44" s="45" t="s">
         <v>717</v>
-      </c>
-      <c r="E44" s="45" t="s">
-        <v>718</v>
       </c>
       <c r="F44" s="47"/>
       <c r="G44" s="47"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-mvt-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-mvt-template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop\oci_tenancy\SetUpOCI_Via_TF\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CD3aaS\code\oci_tenancy\SetUpOCI_Via_TF\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="719">
   <si>
     <t>Region</t>
   </si>
@@ -6631,7 +6631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6849,6 +6849,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -7302,17 +7303,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="167.08984375" style="46" customWidth="1"/>
+    <col min="1" max="1" width="167.109375" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:1" ht="58.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="88" t="s">
         <v>489</v>
       </c>
@@ -7334,49 +7335,49 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" style="46" customWidth="1"/>
-    <col min="6" max="6" width="24.1796875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.81640625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="22.08984375" style="46" customWidth="1"/>
-    <col min="11" max="11" width="26.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" style="46" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.77734375" style="46" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" style="46" customWidth="1"/>
+    <col min="11" max="11" width="26.77734375" style="46" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="46" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" style="46" customWidth="1"/>
-    <col min="14" max="14" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.36328125" style="46" customWidth="1"/>
-    <col min="16" max="16" width="12.81640625" customWidth="1"/>
+    <col min="14" max="14" width="19.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" style="46" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="104" t="s">
         <v>488</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="96" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="97" t="s">
         <v>598</v>
       </c>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="98"/>
-    </row>
-    <row r="2" spans="1:16" s="54" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="99"/>
+    </row>
+    <row r="2" spans="1:16" s="54" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
@@ -7426,7 +7427,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="46" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="46" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>321</v>
       </c>
@@ -7464,7 +7465,7 @@
       <c r="O3" s="47"/>
       <c r="P3" s="47"/>
     </row>
-    <row r="4" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>321</v>
       </c>
@@ -7502,7 +7503,7 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
     </row>
-    <row r="5" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="56" t="s">
         <v>321</v>
       </c>
@@ -7540,7 +7541,7 @@
       <c r="O5" s="47"/>
       <c r="P5" s="47"/>
     </row>
-    <row r="6" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="56" t="s">
         <v>321</v>
       </c>
@@ -7578,7 +7579,7 @@
       <c r="O6" s="47"/>
       <c r="P6" s="47"/>
     </row>
-    <row r="7" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="56" t="s">
         <v>321</v>
       </c>
@@ -7616,7 +7617,7 @@
       <c r="O7" s="47"/>
       <c r="P7" s="47"/>
     </row>
-    <row r="8" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
         <v>4</v>
       </c>
@@ -7657,34 +7658,34 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
     <col min="2" max="2" width="23" style="46" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="26.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" style="46" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="26.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:10" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="97" t="s">
         <v>599</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="98"/>
-    </row>
-    <row r="2" spans="1:10" s="54" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="99"/>
+    </row>
+    <row r="2" spans="1:10" s="54" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -7716,7 +7717,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>321</v>
       </c>
@@ -7742,7 +7743,7 @@
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>321</v>
       </c>
@@ -7768,7 +7769,7 @@
       <c r="I4" s="47"/>
       <c r="J4" s="45"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>321</v>
       </c>
@@ -7794,7 +7795,7 @@
       <c r="I5" s="47"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>321</v>
       </c>
@@ -7820,7 +7821,7 @@
       <c r="I6" s="47"/>
       <c r="J6" s="47"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>321</v>
       </c>
@@ -7846,7 +7847,7 @@
       <c r="I7" s="47"/>
       <c r="J7" s="47"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
         <v>4</v>
       </c>
@@ -7880,33 +7881,33 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" style="46" customWidth="1"/>
-    <col min="4" max="4" width="25.08984375" style="46" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="46" customWidth="1"/>
     <col min="5" max="5" width="16" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.81640625" style="46" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" style="46" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" customWidth="1"/>
+    <col min="6" max="6" width="31.77734375" style="46" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" style="46" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -7955,40 +7956,40 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="33.08984375" style="46" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.08984375" style="46" customWidth="1"/>
-    <col min="17" max="17" width="11.6328125" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="46" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" style="46" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -8057,48 +8058,48 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.08984375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" style="46" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" style="46" customWidth="1"/>
     <col min="11" max="11" width="19" style="46" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.08984375" style="46" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:20" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>470</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -8160,7 +8161,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -8184,7 +8185,7 @@
       <c r="S3" s="47"/>
       <c r="T3" s="47"/>
     </row>
-    <row r="4" spans="1:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
@@ -8226,7 +8227,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>5</v>
       </c>
@@ -8270,7 +8271,7 @@
       <c r="S5" s="47"/>
       <c r="T5" s="47"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
@@ -8308,7 +8309,7 @@
       <c r="S6" s="47"/>
       <c r="T6" s="47"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>5</v>
       </c>
@@ -8369,28 +8370,28 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="46" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="46" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6328125" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:7" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>471</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-    </row>
-    <row r="2" spans="1:7" s="54" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+    </row>
+    <row r="2" spans="1:7" s="54" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
@@ -8413,7 +8414,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -8424,7 +8425,7 @@
       <c r="F3" s="47"/>
       <c r="G3" s="47"/>
     </row>
-    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
@@ -8447,7 +8448,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>5</v>
       </c>
@@ -8468,7 +8469,7 @@
       </c>
       <c r="G5" s="47"/>
     </row>
-    <row r="6" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
@@ -8505,50 +8506,50 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.453125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="46" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="20.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="46" customWidth="1"/>
     <col min="7" max="7" width="15" style="46" customWidth="1"/>
-    <col min="8" max="8" width="8.36328125" style="46" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" style="46" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="46" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" style="46" customWidth="1"/>
     <col min="10" max="10" width="16" style="46" customWidth="1"/>
-    <col min="11" max="11" width="19.1796875" style="46" customWidth="1"/>
-    <col min="12" max="12" width="7.81640625" style="46" customWidth="1"/>
-    <col min="13" max="13" width="8.453125" style="46" customWidth="1"/>
-    <col min="14" max="14" width="17.08984375" style="46" customWidth="1"/>
-    <col min="15" max="15" width="15.6328125" style="46" customWidth="1"/>
-    <col min="16" max="16" width="18.90625" customWidth="1"/>
-    <col min="17" max="17" width="12.36328125" customWidth="1"/>
+    <col min="11" max="11" width="19.21875" style="46" customWidth="1"/>
+    <col min="12" max="12" width="7.77734375" style="46" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" style="46" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" style="46" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" style="46" customWidth="1"/>
+    <col min="16" max="16" width="18.88671875" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="107" t="s">
         <v>478</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="109" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="110" t="s">
         <v>472</v>
       </c>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -8601,7 +8602,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -8622,7 +8623,7 @@
       <c r="P3" s="47"/>
       <c r="Q3" s="47"/>
     </row>
-    <row r="4" spans="1:17" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
@@ -8661,7 +8662,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="47"/>
       <c r="C5" s="30"/>
@@ -8686,7 +8687,7 @@
       <c r="P5" s="47"/>
       <c r="Q5" s="47"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -8710,7 +8711,7 @@
       <c r="P6" s="47"/>
       <c r="Q6" s="47"/>
     </row>
-    <row r="7" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>5</v>
       </c>
@@ -8743,7 +8744,7 @@
       <c r="P7" s="47"/>
       <c r="Q7" s="47"/>
     </row>
-    <row r="8" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>5</v>
       </c>
@@ -8782,7 +8783,7 @@
       </c>
       <c r="Q8" s="47"/>
     </row>
-    <row r="9" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>5</v>
       </c>
@@ -8819,7 +8820,7 @@
       <c r="P9" s="47"/>
       <c r="Q9" s="47"/>
     </row>
-    <row r="10" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>5</v>
       </c>
@@ -8870,41 +8871,41 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.6328125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" style="46" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="46" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" style="46" customWidth="1"/>
     <col min="8" max="8" width="25" style="46" customWidth="1"/>
-    <col min="9" max="9" width="31.08984375" style="46" customWidth="1"/>
-    <col min="11" max="11" width="7.453125" style="46" customWidth="1"/>
-    <col min="13" max="13" width="28.1796875" style="46" customWidth="1"/>
-    <col min="14" max="14" width="13.6328125" customWidth="1"/>
+    <col min="9" max="9" width="31.109375" style="46" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" style="46" customWidth="1"/>
+    <col min="13" max="13" width="28.21875" style="46" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="122.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:16" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>464</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-    </row>
-    <row r="2" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+    </row>
+    <row r="2" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -8954,7 +8955,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>4</v>
       </c>
@@ -8974,7 +8975,7 @@
       <c r="O3" s="47"/>
       <c r="P3" s="47"/>
     </row>
-    <row r="4" spans="1:16" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
@@ -9018,7 +9019,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="37.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -9042,7 +9043,7 @@
       <c r="O5" s="47"/>
       <c r="P5" s="47"/>
     </row>
-    <row r="6" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
@@ -9103,49 +9104,49 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.1796875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="46" customWidth="1"/>
     <col min="3" max="3" width="11" style="46" customWidth="1"/>
-    <col min="4" max="5" width="10.90625" style="46" customWidth="1"/>
+    <col min="4" max="5" width="10.88671875" style="46" customWidth="1"/>
     <col min="6" max="6" width="18" style="46" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" style="46" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="46" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" style="46" customWidth="1"/>
-    <col min="10" max="11" width="14.6328125" style="46" customWidth="1"/>
-    <col min="12" max="12" width="14.36328125" style="46" customWidth="1"/>
-    <col min="14" max="14" width="23.6328125" style="46" customWidth="1"/>
-    <col min="16" max="16" width="12.6328125" style="46" customWidth="1"/>
-    <col min="17" max="17" width="14.81640625" style="46" customWidth="1"/>
-    <col min="21" max="21" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" style="46" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="46" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="46" customWidth="1"/>
+    <col min="10" max="11" width="14.6640625" style="46" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="46" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" style="46" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" style="46" customWidth="1"/>
+    <col min="17" max="17" width="14.77734375" style="46" customWidth="1"/>
+    <col min="21" max="21" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="87.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:21" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="97" t="s">
         <v>485</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="98"/>
-    </row>
-    <row r="2" spans="1:21" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="99"/>
+    </row>
+    <row r="2" spans="1:21" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
@@ -9210,7 +9211,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -9235,7 +9236,7 @@
       <c r="T3" s="47"/>
       <c r="U3" s="47"/>
     </row>
-    <row r="4" spans="1:21" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
@@ -9298,7 +9299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -9341,7 +9342,7 @@
       <c r="T5" s="47"/>
       <c r="U5" s="47"/>
     </row>
-    <row r="6" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
@@ -9405,49 +9406,49 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.81640625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="17.36328125" style="46" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="19.1796875" style="46" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" style="46" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" style="46" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" style="46" customWidth="1"/>
-    <col min="13" max="13" width="15.1796875" style="46" customWidth="1"/>
-    <col min="14" max="16" width="13.81640625" style="46" customWidth="1"/>
-    <col min="17" max="17" width="21.08984375" style="46" customWidth="1"/>
-    <col min="18" max="18" width="17.1796875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" style="46" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="46" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="46" customWidth="1"/>
+    <col min="8" max="8" width="19.21875" style="46" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="46" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" style="46" customWidth="1"/>
+    <col min="13" max="13" width="15.21875" style="46" customWidth="1"/>
+    <col min="14" max="16" width="13.77734375" style="46" customWidth="1"/>
+    <col min="17" max="17" width="21.109375" style="46" customWidth="1"/>
+    <col min="18" max="18" width="17.21875" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:19" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="97" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="99" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="111"/>
-    </row>
-    <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="112"/>
+    </row>
+    <row r="2" spans="1:19" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -9506,7 +9507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -9529,7 +9530,7 @@
       <c r="R3" s="47"/>
       <c r="S3" s="47"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
@@ -9562,7 +9563,7 @@
       </c>
       <c r="S4" s="47"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -9585,7 +9586,7 @@
       <c r="R5" s="47"/>
       <c r="S5" s="47"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
       <c r="C6" s="47"/>
@@ -9608,7 +9609,7 @@
       <c r="R6" s="47"/>
       <c r="S6" s="47"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="47"/>
       <c r="B7" s="47"/>
       <c r="C7" s="47"/>
@@ -9631,7 +9632,7 @@
       <c r="R7" s="47"/>
       <c r="S7" s="47"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
@@ -9654,7 +9655,7 @@
       <c r="R8" s="47"/>
       <c r="S8" s="47"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="47"/>
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
@@ -9681,7 +9682,7 @@
       <c r="R9" s="47"/>
       <c r="S9" s="47"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
@@ -9710,7 +9711,7 @@
       <c r="R10" s="47"/>
       <c r="S10" s="47"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
@@ -9745,7 +9746,7 @@
       <c r="R11" s="47"/>
       <c r="S11" s="47"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="47"/>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
@@ -9780,7 +9781,7 @@
       <c r="R12" s="47"/>
       <c r="S12" s="47"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="47"/>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
@@ -9807,7 +9808,7 @@
       <c r="R13" s="47"/>
       <c r="S13" s="47"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
@@ -9834,7 +9835,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="47"/>
       <c r="B15" s="47"/>
       <c r="C15" s="47"/>
@@ -9859,7 +9860,7 @@
       <c r="R15" s="47"/>
       <c r="S15" s="47"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="47"/>
       <c r="B16" s="47"/>
       <c r="C16" s="47"/>
@@ -9886,7 +9887,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="47"/>
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
@@ -9911,7 +9912,7 @@
       <c r="R17" s="47"/>
       <c r="S17" s="47"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="47"/>
       <c r="B18" s="47"/>
       <c r="C18" s="47"/>
@@ -9938,7 +9939,7 @@
       <c r="R18" s="47"/>
       <c r="S18" s="47"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="47"/>
       <c r="B19" s="47"/>
       <c r="C19" s="47"/>
@@ -9959,7 +9960,7 @@
       <c r="R19" s="47"/>
       <c r="S19" s="47"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="47"/>
       <c r="B20" s="47"/>
       <c r="C20" s="47" t="s">
@@ -9986,7 +9987,7 @@
       <c r="R20" s="47"/>
       <c r="S20" s="47"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="47"/>
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
@@ -10009,7 +10010,7 @@
       <c r="R21" s="47"/>
       <c r="S21" s="47"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
         <v>5</v>
       </c>
@@ -10040,7 +10041,7 @@
       <c r="R22" s="47"/>
       <c r="S22" s="47"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="47"/>
       <c r="B23" s="47"/>
       <c r="C23" s="47"/>
@@ -10101,28 +10102,28 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="40.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.54296875" style="46" customWidth="1"/>
-    <col min="5" max="5" width="25.90625" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="40.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" style="46" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="54" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:5" s="54" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>457</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
@@ -10139,7 +10140,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>321</v>
       </c>
@@ -10152,7 +10153,7 @@
       <c r="D3" s="47"/>
       <c r="E3" s="47"/>
     </row>
-    <row r="4" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>321</v>
       </c>
@@ -10165,7 +10166,7 @@
       <c r="D4" s="47"/>
       <c r="E4" s="47"/>
     </row>
-    <row r="5" spans="1:5" s="46" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="46" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
@@ -10191,25 +10192,25 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.36328125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="26.08984375" style="46" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="46" customWidth="1"/>
-    <col min="6" max="6" width="28.6328125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="46" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:6" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="113" t="s">
         <v>456</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="115"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -10229,7 +10230,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -10239,7 +10240,7 @@
       <c r="E3" s="47"/>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
@@ -10259,7 +10260,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -10273,7 +10274,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
       <c r="C6" s="47" t="s">
@@ -10289,7 +10290,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>5</v>
       </c>
@@ -10330,40 +10331,40 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.54296875" style="46" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" style="46" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" style="46" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="46" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" style="46" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="46" customWidth="1"/>
     <col min="9" max="9" width="15" style="46" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" style="46" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" style="46" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="88.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:16" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>484</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-    </row>
-    <row r="2" spans="1:16" ht="46.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+    </row>
+    <row r="2" spans="1:16" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -10413,7 +10414,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -10433,7 +10434,7 @@
       <c r="O3" s="47"/>
       <c r="P3" s="47"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
@@ -10475,7 +10476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47" t="s">
@@ -10503,7 +10504,7 @@
       <c r="O5" s="47"/>
       <c r="P5" s="47"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
@@ -10562,17 +10563,17 @@
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="28.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.453125" style="46" customWidth="1"/>
-    <col min="2" max="2" width="35.08984375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.81640625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" style="46" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" style="46" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>250</v>
       </c>
@@ -10592,7 +10593,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>215</v>
       </c>
@@ -10612,7 +10613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>219</v>
       </c>
@@ -10632,7 +10633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>199</v>
       </c>
@@ -10652,7 +10653,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>192</v>
       </c>
@@ -10670,7 +10671,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>212</v>
       </c>
@@ -10683,7 +10684,7 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>224</v>
       </c>
@@ -10692,7 +10693,7 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>198</v>
       </c>
@@ -10700,7 +10701,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>203</v>
       </c>
@@ -10708,7 +10709,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>217</v>
       </c>
@@ -10716,7 +10717,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>222</v>
       </c>
@@ -10724,153 +10725,153 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="34" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="34" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="34" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="34" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="34" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="34" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="34" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="34" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="34" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="34" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="34" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="34" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="34" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="34" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="34" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="34" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="34" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="34" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="34" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="34" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="34" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="34" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="34" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="34" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="34" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="34" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="34" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="34" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="34" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="10"/>
     </row>
   </sheetData>
@@ -10887,34 +10888,34 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.90625" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" style="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.90625" style="46"/>
+    <col min="3" max="3" width="16.5546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="46"/>
     <col min="8" max="8" width="11" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.90625" style="46" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="46"/>
+    <col min="9" max="9" width="13.88671875" style="46" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="115" t="s">
+    <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="116" t="s">
         <v>479</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -10943,7 +10944,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="64" t="s">
         <v>4</v>
       </c>
@@ -10956,7 +10957,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
     </row>
-    <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>321</v>
       </c>
@@ -10986,7 +10987,7 @@
       </c>
       <c r="J4" s="60"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>321</v>
       </c>
@@ -11031,60 +11032,60 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" style="46" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" style="46" customWidth="1"/>
     <col min="2" max="2" width="14" style="46" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" style="46" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" style="46" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="27.54296875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="46" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="46" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="46" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" style="46" customWidth="1"/>
     <col min="9" max="9" width="13" style="46" customWidth="1"/>
-    <col min="10" max="10" width="16.54296875" style="46" customWidth="1"/>
-    <col min="11" max="11" width="14.36328125" style="68" customWidth="1"/>
-    <col min="12" max="13" width="20.54296875" style="46"/>
-    <col min="14" max="14" width="20.54296875" style="3"/>
-    <col min="15" max="17" width="20.54296875" style="46"/>
+    <col min="10" max="10" width="16.5546875" style="46" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="68" customWidth="1"/>
+    <col min="12" max="13" width="20.5546875" style="46"/>
+    <col min="14" max="14" width="20.5546875" style="3"/>
+    <col min="15" max="17" width="20.5546875" style="46"/>
     <col min="18" max="18" width="23" style="46" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="20.54296875" style="46"/>
-    <col min="22" max="22" width="23.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1796875" style="46" customWidth="1"/>
-    <col min="24" max="24" width="20.54296875" style="46"/>
-    <col min="25" max="25" width="23.08984375" style="46" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="20.54296875" style="46"/>
+    <col min="19" max="21" width="20.5546875" style="46"/>
+    <col min="22" max="22" width="23.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.21875" style="46" customWidth="1"/>
+    <col min="24" max="24" width="20.5546875" style="46"/>
+    <col min="25" max="25" width="23.109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="20.5546875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="65" customFormat="1" ht="135.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:24" s="65" customFormat="1" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="97" t="s">
         <v>604</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="98"/>
-    </row>
-    <row r="2" spans="1:24" s="81" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="99"/>
+    </row>
+    <row r="2" spans="1:24" s="81" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
@@ -11158,7 +11159,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="56" t="s">
         <v>4</v>
       </c>
@@ -11186,7 +11187,7 @@
       <c r="W3" s="47"/>
       <c r="X3" s="47"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="66" t="s">
         <v>321</v>
       </c>
@@ -11260,7 +11261,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="66" t="s">
         <v>321</v>
       </c>
@@ -11374,67 +11375,67 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.54296875" style="46" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.81640625" style="68" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.90625" style="46" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" style="46" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.77734375" style="68" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" style="46" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.21875" style="46" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="46" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.90625" style="46" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.08984375" style="46" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1796875" style="46" customWidth="1"/>
-    <col min="24" max="24" width="15.1796875" style="46" customWidth="1"/>
-    <col min="25" max="25" width="14.90625" style="46" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.21875" style="46" customWidth="1"/>
+    <col min="24" max="24" width="15.21875" style="46" customWidth="1"/>
+    <col min="25" max="25" width="14.88671875" style="46" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="42" style="46" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.81640625" style="46"/>
+    <col min="27" max="27" width="15.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="65" customFormat="1" ht="133.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:24" s="65" customFormat="1" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="97" t="s">
         <v>605</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="98"/>
-    </row>
-    <row r="2" spans="1:24" s="81" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="99"/>
+    </row>
+    <row r="2" spans="1:24" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
@@ -11508,7 +11509,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="56" t="s">
         <v>4</v>
       </c>
@@ -11536,7 +11537,7 @@
       <c r="W3" s="47"/>
       <c r="X3" s="47"/>
     </row>
-    <row r="4" spans="1:24" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="66" t="s">
         <v>321</v>
       </c>
@@ -11610,7 +11611,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="66" t="s">
         <v>321</v>
       </c>
@@ -11725,65 +11726,65 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="46" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.54296875" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.54296875" style="46" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.81640625" style="68" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.90625" style="46" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" style="46" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" style="68" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" style="46" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.21875" style="46" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="46" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.90625" style="46" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.08984375" style="46" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1796875" style="46" customWidth="1"/>
-    <col min="24" max="25" width="14.54296875" style="46" customWidth="1"/>
-    <col min="26" max="26" width="15.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.81640625" style="46"/>
+    <col min="19" max="19" width="13.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.21875" style="46" customWidth="1"/>
+    <col min="24" max="25" width="14.5546875" style="46" customWidth="1"/>
+    <col min="26" max="26" width="15.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.77734375" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="65" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:24" s="65" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="97" t="s">
         <v>606</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="98"/>
-    </row>
-    <row r="2" spans="1:24" s="81" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="99"/>
+    </row>
+    <row r="2" spans="1:24" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
@@ -11857,7 +11858,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="72" t="s">
         <v>4</v>
       </c>
@@ -11884,7 +11885,7 @@
       <c r="W3" s="71"/>
       <c r="X3" s="64"/>
     </row>
-    <row r="4" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="66" t="s">
         <v>5</v>
       </c>
@@ -11958,7 +11959,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="63"/>
       <c r="B5" s="60"/>
       <c r="C5" s="70"/>
@@ -12001,20 +12002,20 @@
       <selection activeCell="I2" sqref="I2:I108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.90625" style="46" customWidth="1"/>
-    <col min="9" max="9" width="15.90625" style="46" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="46"/>
+    <col min="3" max="3" width="9.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="46" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="46" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
         <v>344</v>
       </c>
@@ -12043,7 +12044,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
         <v>94</v>
       </c>
@@ -12072,7 +12073,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>345</v>
       </c>
@@ -12101,7 +12102,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>346</v>
       </c>
@@ -12121,7 +12122,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>343</v>
       </c>
@@ -12141,7 +12142,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>347</v>
       </c>
@@ -12159,7 +12160,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>332</v>
       </c>
@@ -12177,7 +12178,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47" t="s">
@@ -12193,7 +12194,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="47"/>
       <c r="B9" s="47"/>
       <c r="C9" s="47" t="s">
@@ -12209,7 +12210,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47" t="s">
@@ -12225,7 +12226,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
       <c r="B11" s="47"/>
       <c r="C11" s="47" t="s">
@@ -12241,7 +12242,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="47"/>
       <c r="B12" s="47"/>
       <c r="C12" s="47" t="s">
@@ -12255,7 +12256,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="47"/>
       <c r="B13" s="47"/>
       <c r="C13" s="47" t="s">
@@ -12269,7 +12270,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
       <c r="C14" s="47" t="s">
@@ -12283,472 +12284,472 @@
         <v>502</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I15" s="47" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I16" s="47" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I17" s="47" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I18" s="47" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I19" s="47" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I20" s="47" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I21" s="47" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I22" s="47" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I23" s="47" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I24" s="47" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I25" s="47" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I26" s="47" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I27" s="47" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I28" s="47" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I29" s="47" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I30" s="47" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I31" s="47" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I32" s="47" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I33" s="47" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I34" s="47" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I35" s="47" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I36" s="47" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I37" s="47" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I38" s="47" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I39" s="47" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I40" s="47" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I41" s="47" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I42" s="47" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I43" s="47" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I44" s="47" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I45" s="47" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I46" s="47" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I47" s="47" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I48" s="47" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I49" s="47" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I50" s="47" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I51" s="47" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I52" s="47" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I53" s="47" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I54" s="47" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I55" s="47" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I56" s="47" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I57" s="47" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I58" s="47" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I59" s="47" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I60" s="47" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I61" s="47" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I62" s="47" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I63" s="47" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I64" s="47" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I65" s="47" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I66" s="47" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I67" s="47" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I68" s="47" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I69" s="47" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I70" s="47" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I71" s="47" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I72" s="47" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I73" s="47" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I74" s="47" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I75" s="47" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I76" s="47" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I77" s="47" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I78" s="47" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I79" s="47" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I80" s="47" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I81" s="47" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I82" s="47" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I83" s="47" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I84" s="47" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I85" s="47" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I86" s="47" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I87" s="47" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I88" s="47" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I89" s="47" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I90" s="47" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I91" s="47" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I92" s="47" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I93" s="47" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I94" s="47" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I95" s="47" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I96" s="47" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I97" s="47" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I98" s="47" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I99" s="47" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I100" s="47" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I101" s="47" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I102" s="47" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I103" s="47" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I104" s="47" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I105" s="47" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I106" s="47" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I107" s="47" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I108" s="47" t="s">
         <v>596</v>
       </c>
@@ -12764,31 +12765,31 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="46" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" style="46" customWidth="1"/>
-    <col min="4" max="4" width="31.36328125" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="54" customFormat="1" ht="105.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:5" s="54" customFormat="1" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -12805,7 +12806,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>321</v>
       </c>
@@ -12818,7 +12819,7 @@
       <c r="D3" s="47"/>
       <c r="E3" s="47"/>
     </row>
-    <row r="4" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>321</v>
       </c>
@@ -12831,7 +12832,7 @@
       <c r="D4" s="47"/>
       <c r="E4" s="47"/>
     </row>
-    <row r="5" spans="1:5" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>321</v>
       </c>
@@ -12844,7 +12845,7 @@
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
     </row>
-    <row r="6" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>321</v>
       </c>
@@ -12857,8 +12858,8 @@
       <c r="D6" s="47"/>
       <c r="E6" s="47"/>
     </row>
-    <row r="7" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="47" t="s">
+    <row r="7" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
         <v>321</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -12870,7 +12871,7 @@
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:5" s="47" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="60" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>321</v>
       </c>
@@ -12883,7 +12884,7 @@
       <c r="D8" s="45"/>
       <c r="E8" s="45"/>
     </row>
-    <row r="9" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>321</v>
       </c>
@@ -12893,8 +12894,10 @@
       <c r="C9" s="45" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+    </row>
+    <row r="10" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>321</v>
       </c>
@@ -12904,8 +12907,10 @@
       <c r="C10" s="45" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+    </row>
+    <row r="11" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>321</v>
       </c>
@@ -12915,8 +12920,10 @@
       <c r="C11" s="45" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+    </row>
+    <row r="12" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>321</v>
       </c>
@@ -12926,19 +12933,23 @@
       <c r="C12" s="45" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="47" t="s">
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+    </row>
+    <row r="13" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="95" t="s">
         <v>648</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="24" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+    </row>
+    <row r="14" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>321</v>
       </c>
@@ -12948,8 +12959,10 @@
       <c r="C14" s="45" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+    </row>
+    <row r="15" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
         <v>321</v>
       </c>
@@ -12959,6 +12972,17 @@
       <c r="C15" s="45" t="s">
         <v>652</v>
       </c>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12976,34 +13000,34 @@
   </sheetPr>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.36328125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="46" customWidth="1"/>
     <col min="4" max="4" width="16" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.36328125" style="46" customWidth="1"/>
-    <col min="6" max="7" width="28.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6328125" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" style="46" customWidth="1"/>
+    <col min="6" max="7" width="28.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="54" customFormat="1" ht="102.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:8" s="54" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-    </row>
-    <row r="2" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+    </row>
+    <row r="2" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -13029,7 +13053,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="46" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="46" customFormat="1" ht="52.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>321</v>
       </c>
@@ -13049,7 +13073,7 @@
       <c r="G3" s="45"/>
       <c r="H3" s="94"/>
     </row>
-    <row r="4" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>321</v>
       </c>
@@ -13067,8 +13091,9 @@
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
-    </row>
-    <row r="5" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H4" s="47"/>
+    </row>
+    <row r="5" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>321</v>
       </c>
@@ -13086,8 +13111,9 @@
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
-    </row>
-    <row r="6" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="47"/>
+    </row>
+    <row r="6" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47"/>
       <c r="B6" s="45"/>
       <c r="C6" s="47"/>
@@ -13097,8 +13123,9 @@
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
-    </row>
-    <row r="7" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="47"/>
+    </row>
+    <row r="7" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47"/>
       <c r="B7" s="45"/>
       <c r="C7" s="47"/>
@@ -13108,8 +13135,9 @@
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="47"/>
-    </row>
-    <row r="8" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H7" s="47"/>
+    </row>
+    <row r="8" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="47"/>
       <c r="B8" s="45"/>
       <c r="C8" s="47"/>
@@ -13119,8 +13147,9 @@
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="47"/>
-    </row>
-    <row r="9" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="47"/>
+    </row>
+    <row r="9" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47"/>
       <c r="B9" s="45"/>
       <c r="C9" s="47"/>
@@ -13130,8 +13159,9 @@
       </c>
       <c r="F9" s="47"/>
       <c r="G9" s="47"/>
-    </row>
-    <row r="10" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H9" s="47"/>
+    </row>
+    <row r="10" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="47"/>
       <c r="B10" s="45"/>
       <c r="C10" s="47"/>
@@ -13141,8 +13171,9 @@
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
-    </row>
-    <row r="11" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H10" s="47"/>
+    </row>
+    <row r="11" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
       <c r="B11" s="45"/>
       <c r="C11" s="47"/>
@@ -13152,8 +13183,9 @@
       </c>
       <c r="F11" s="47"/>
       <c r="G11" s="47"/>
-    </row>
-    <row r="12" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H11" s="47"/>
+    </row>
+    <row r="12" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>321</v>
       </c>
@@ -13171,8 +13203,9 @@
       </c>
       <c r="F12" s="47"/>
       <c r="G12" s="47"/>
-    </row>
-    <row r="13" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H12" s="47"/>
+    </row>
+    <row r="13" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>321</v>
       </c>
@@ -13190,8 +13223,9 @@
       </c>
       <c r="F13" s="47"/>
       <c r="G13" s="47"/>
-    </row>
-    <row r="14" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H13" s="47"/>
+    </row>
+    <row r="14" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
       <c r="B14" s="45"/>
       <c r="C14" s="47"/>
@@ -13201,8 +13235,9 @@
       </c>
       <c r="F14" s="47"/>
       <c r="G14" s="47"/>
-    </row>
-    <row r="15" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H14" s="47"/>
+    </row>
+    <row r="15" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="47"/>
       <c r="B15" s="45"/>
       <c r="C15" s="47"/>
@@ -13212,8 +13247,9 @@
       </c>
       <c r="F15" s="47"/>
       <c r="G15" s="47"/>
-    </row>
-    <row r="16" spans="1:8" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H15" s="47"/>
+    </row>
+    <row r="16" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="47"/>
       <c r="B16" s="45"/>
       <c r="C16" s="47"/>
@@ -13223,8 +13259,9 @@
       </c>
       <c r="F16" s="47"/>
       <c r="G16" s="47"/>
-    </row>
-    <row r="17" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H16" s="47"/>
+    </row>
+    <row r="17" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>321</v>
       </c>
@@ -13242,8 +13279,9 @@
       </c>
       <c r="F17" s="47"/>
       <c r="G17" s="47"/>
-    </row>
-    <row r="18" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H17" s="47"/>
+    </row>
+    <row r="18" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="47"/>
       <c r="B18" s="45"/>
       <c r="C18" s="47"/>
@@ -13253,8 +13291,9 @@
       </c>
       <c r="F18" s="47"/>
       <c r="G18" s="47"/>
-    </row>
-    <row r="19" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H18" s="47"/>
+    </row>
+    <row r="19" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="47"/>
       <c r="B19" s="45"/>
       <c r="C19" s="47"/>
@@ -13264,8 +13303,9 @@
       </c>
       <c r="F19" s="47"/>
       <c r="G19" s="47"/>
-    </row>
-    <row r="20" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H19" s="47"/>
+    </row>
+    <row r="20" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="47"/>
       <c r="B20" s="45"/>
       <c r="C20" s="47"/>
@@ -13275,8 +13315,9 @@
       </c>
       <c r="F20" s="47"/>
       <c r="G20" s="47"/>
-    </row>
-    <row r="21" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H20" s="47"/>
+    </row>
+    <row r="21" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="47"/>
       <c r="B21" s="45"/>
       <c r="C21" s="47"/>
@@ -13286,8 +13327,9 @@
       </c>
       <c r="F21" s="47"/>
       <c r="G21" s="47"/>
-    </row>
-    <row r="22" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H21" s="47"/>
+    </row>
+    <row r="22" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="47"/>
       <c r="B22" s="45"/>
       <c r="C22" s="47"/>
@@ -13297,8 +13339,9 @@
       </c>
       <c r="F22" s="47"/>
       <c r="G22" s="47"/>
-    </row>
-    <row r="23" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H22" s="47"/>
+    </row>
+    <row r="23" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="47"/>
       <c r="B23" s="45"/>
       <c r="C23" s="47"/>
@@ -13308,8 +13351,9 @@
       </c>
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
-    </row>
-    <row r="24" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H23" s="47"/>
+    </row>
+    <row r="24" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47"/>
       <c r="B24" s="45"/>
       <c r="C24" s="47"/>
@@ -13319,8 +13363,9 @@
       </c>
       <c r="F24" s="47"/>
       <c r="G24" s="47"/>
-    </row>
-    <row r="25" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H24" s="47"/>
+    </row>
+    <row r="25" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="47"/>
       <c r="B25" s="45"/>
       <c r="C25" s="47"/>
@@ -13330,8 +13375,9 @@
       </c>
       <c r="F25" s="47"/>
       <c r="G25" s="47"/>
-    </row>
-    <row r="26" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H25" s="47"/>
+    </row>
+    <row r="26" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="47" t="s">
         <v>321</v>
       </c>
@@ -13349,8 +13395,9 @@
       </c>
       <c r="F26" s="47"/>
       <c r="G26" s="47"/>
-    </row>
-    <row r="27" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H26" s="47"/>
+    </row>
+    <row r="27" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="47"/>
       <c r="B27" s="45"/>
       <c r="C27" s="47"/>
@@ -13360,8 +13407,9 @@
       </c>
       <c r="F27" s="47"/>
       <c r="G27" s="47"/>
-    </row>
-    <row r="28" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H27" s="47"/>
+    </row>
+    <row r="28" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="47"/>
       <c r="B28" s="45"/>
       <c r="C28" s="47"/>
@@ -13371,8 +13419,9 @@
       </c>
       <c r="F28" s="47"/>
       <c r="G28" s="47"/>
-    </row>
-    <row r="29" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H28" s="47"/>
+    </row>
+    <row r="29" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="47"/>
       <c r="B29" s="45"/>
       <c r="C29" s="47"/>
@@ -13382,8 +13431,9 @@
       </c>
       <c r="F29" s="47"/>
       <c r="G29" s="47"/>
-    </row>
-    <row r="30" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H29" s="47"/>
+    </row>
+    <row r="30" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="47" t="s">
         <v>321</v>
       </c>
@@ -13401,8 +13451,9 @@
       </c>
       <c r="F30" s="47"/>
       <c r="G30" s="47"/>
-    </row>
-    <row r="31" spans="1:7" s="46" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H30" s="47"/>
+    </row>
+    <row r="31" spans="1:8" s="46" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="47"/>
       <c r="B31" s="45"/>
       <c r="C31" s="47"/>
@@ -13412,8 +13463,9 @@
       </c>
       <c r="F31" s="47"/>
       <c r="G31" s="47"/>
-    </row>
-    <row r="32" spans="1:7" s="46" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H31" s="47"/>
+    </row>
+    <row r="32" spans="1:8" s="46" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="47"/>
       <c r="B32" s="45"/>
       <c r="C32" s="47"/>
@@ -13423,8 +13475,9 @@
       </c>
       <c r="F32" s="47"/>
       <c r="G32" s="47"/>
-    </row>
-    <row r="33" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H32" s="47"/>
+    </row>
+    <row r="33" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="47"/>
       <c r="B33" s="45"/>
       <c r="C33" s="47"/>
@@ -13434,8 +13487,9 @@
       </c>
       <c r="F33" s="47"/>
       <c r="G33" s="47"/>
-    </row>
-    <row r="34" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H33" s="47"/>
+    </row>
+    <row r="34" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="47"/>
       <c r="B34" s="45"/>
       <c r="C34" s="47"/>
@@ -13445,8 +13499,9 @@
       </c>
       <c r="F34" s="47"/>
       <c r="G34" s="47"/>
-    </row>
-    <row r="35" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H34" s="47"/>
+    </row>
+    <row r="35" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="47"/>
       <c r="B35" s="45"/>
       <c r="C35" s="47"/>
@@ -13456,8 +13511,9 @@
       </c>
       <c r="F35" s="47"/>
       <c r="G35" s="47"/>
-    </row>
-    <row r="36" spans="1:7" s="46" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H35" s="47"/>
+    </row>
+    <row r="36" spans="1:8" s="46" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>321</v>
       </c>
@@ -13475,8 +13531,9 @@
       </c>
       <c r="F36" s="47"/>
       <c r="G36" s="47"/>
-    </row>
-    <row r="37" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H36" s="47"/>
+    </row>
+    <row r="37" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="47"/>
       <c r="B37" s="45"/>
       <c r="C37" s="47"/>
@@ -13486,8 +13543,9 @@
       </c>
       <c r="F37" s="47"/>
       <c r="G37" s="47"/>
-    </row>
-    <row r="38" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H37" s="47"/>
+    </row>
+    <row r="38" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="47"/>
       <c r="B38" s="45"/>
       <c r="C38" s="47"/>
@@ -13497,8 +13555,9 @@
       </c>
       <c r="F38" s="47"/>
       <c r="G38" s="47"/>
-    </row>
-    <row r="39" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H38" s="47"/>
+    </row>
+    <row r="39" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="47"/>
       <c r="B39" s="45"/>
       <c r="C39" s="47"/>
@@ -13508,8 +13567,9 @@
       </c>
       <c r="F39" s="47"/>
       <c r="G39" s="47"/>
-    </row>
-    <row r="40" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H39" s="47"/>
+    </row>
+    <row r="40" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="47"/>
       <c r="B40" s="45"/>
       <c r="C40" s="47"/>
@@ -13519,8 +13579,9 @@
       </c>
       <c r="F40" s="47"/>
       <c r="G40" s="47"/>
-    </row>
-    <row r="41" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H40" s="47"/>
+    </row>
+    <row r="41" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="47" t="s">
         <v>321</v>
       </c>
@@ -13538,8 +13599,9 @@
       </c>
       <c r="F41" s="47"/>
       <c r="G41" s="47"/>
-    </row>
-    <row r="42" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H41" s="47"/>
+    </row>
+    <row r="42" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>321</v>
       </c>
@@ -13557,8 +13619,9 @@
       </c>
       <c r="F42" s="47"/>
       <c r="G42" s="47"/>
-    </row>
-    <row r="43" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H42" s="47"/>
+    </row>
+    <row r="43" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="47"/>
       <c r="B43" s="45"/>
       <c r="C43" s="47"/>
@@ -13568,8 +13631,9 @@
       </c>
       <c r="F43" s="47"/>
       <c r="G43" s="47"/>
-    </row>
-    <row r="44" spans="1:7" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H43" s="47"/>
+    </row>
+    <row r="44" spans="1:8" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>321</v>
       </c>
@@ -13587,8 +13651,9 @@
       </c>
       <c r="F44" s="47"/>
       <c r="G44" s="47"/>
-    </row>
-    <row r="45" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H44" s="47"/>
+    </row>
+    <row r="45" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="47" t="s">
         <v>4</v>
       </c>
@@ -13598,6 +13663,7 @@
       <c r="E45" s="45"/>
       <c r="F45" s="47"/>
       <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13615,37 +13681,37 @@
       <selection activeCell="A3" sqref="A3:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="4"/>
-    <col min="2" max="2" width="19.1796875" style="46" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="21.90625" style="46" customWidth="1"/>
-    <col min="7" max="7" width="21.6328125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="19.21875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="46" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="46" customWidth="1"/>
     <col min="8" max="8" width="21" style="46" customWidth="1"/>
-    <col min="9" max="9" width="23.81640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.77734375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="97" t="s">
         <v>490</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="99" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="100" t="s">
         <v>487</v>
       </c>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="101"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="102"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
@@ -13677,7 +13743,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
         <v>4</v>
       </c>
@@ -13691,7 +13757,7 @@
       <c r="I3" s="52"/>
       <c r="J3" s="53"/>
     </row>
-    <row r="4" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
         <v>5</v>
       </c>
@@ -13721,7 +13787,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="59"/>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
@@ -13741,7 +13807,7 @@
       </c>
       <c r="J5" s="38"/>
     </row>
-    <row r="6" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
         <v>5</v>
       </c>
@@ -13761,7 +13827,7 @@
       <c r="I6" s="59"/>
       <c r="J6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="59" t="s">
         <v>5</v>
       </c>
@@ -13783,7 +13849,7 @@
       <c r="I7" s="33"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="59"/>
       <c r="B8" s="35"/>
       <c r="C8" s="36"/>
@@ -13797,7 +13863,7 @@
       <c r="I8" s="37"/>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="59" t="s">
         <v>5</v>
       </c>
@@ -13825,7 +13891,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="38"/>
       <c r="B10" s="35"/>
       <c r="C10" s="36"/>
@@ -13839,7 +13905,7 @@
       <c r="I10" s="37"/>
       <c r="J10" s="38"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="59"/>
       <c r="B11" s="35"/>
       <c r="C11" s="39"/>
@@ -13853,7 +13919,7 @@
       <c r="I11" s="37"/>
       <c r="J11" s="38"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="59"/>
       <c r="B12" s="35"/>
       <c r="C12" s="39"/>
@@ -13890,40 +13956,40 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="46" customWidth="1"/>
-    <col min="2" max="3" width="16.453125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" style="46" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="46" customWidth="1"/>
+    <col min="2" max="3" width="16.44140625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="46" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="46" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="46" customWidth="1"/>
     <col min="9" max="9" width="14" style="46" customWidth="1"/>
-    <col min="10" max="10" width="22.54296875" style="46" customWidth="1"/>
-    <col min="11" max="11" width="26.453125" style="46" customWidth="1"/>
+    <col min="10" max="10" width="22.5546875" style="46" customWidth="1"/>
+    <col min="11" max="11" width="26.44140625" style="46" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="46" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:12" s="46" customFormat="1" ht="187.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="97" t="s">
         <v>473</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="96" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="97" t="s">
         <v>474</v>
       </c>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="98"/>
-    </row>
-    <row r="2" spans="1:12" s="54" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="99"/>
+    </row>
+    <row r="2" spans="1:12" s="54" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -13961,7 +14027,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>321</v>
       </c>
@@ -13995,7 +14061,7 @@
       <c r="K3" s="47"/>
       <c r="L3" s="42"/>
     </row>
-    <row r="4" spans="1:12" s="46" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" s="46" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>4</v>
       </c>
@@ -14032,21 +14098,21 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.1796875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="46" customWidth="1"/>
-    <col min="3" max="10" width="9.1796875" style="46" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="46"/>
+    <col min="1" max="1" width="32.21875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" style="46" customWidth="1"/>
+    <col min="3" max="10" width="9.21875" style="46" customWidth="1"/>
+    <col min="11" max="16384" width="9.21875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="54" customFormat="1" ht="121.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:2" s="54" customFormat="1" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>453</v>
       </c>
-      <c r="B1" s="101"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="102"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -14054,13 +14120,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="47"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -14068,7 +14134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -14076,7 +14142,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -14104,31 +14170,31 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.54296875" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="46" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="46" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:8" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-    </row>
-    <row r="2" spans="1:8" s="54" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+    </row>
+    <row r="2" spans="1:8" s="54" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -14154,7 +14220,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
@@ -14186,52 +14252,52 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1796875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" style="46" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.453125" style="46" customWidth="1"/>
-    <col min="11" max="11" width="11.36328125" style="46" customWidth="1"/>
-    <col min="12" max="12" width="14.36328125" style="46" customWidth="1"/>
-    <col min="13" max="13" width="15.81640625" style="46" customWidth="1"/>
-    <col min="14" max="14" width="13.6328125" style="46" customWidth="1"/>
-    <col min="15" max="15" width="11.90625" style="46" customWidth="1"/>
-    <col min="16" max="16" width="14.08984375" style="46" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="46" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" style="46" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.44140625" style="46" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="46" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="46" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" style="46" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="46" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" style="46" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" style="46" customWidth="1"/>
     <col min="17" max="17" width="10" style="46" customWidth="1"/>
-    <col min="18" max="18" width="24.1796875" customWidth="1"/>
+    <col min="18" max="18" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="173.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:18" ht="173.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="97" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="102" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="103" t="s">
         <v>461</v>
       </c>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-    </row>
-    <row r="2" spans="1:18" s="54" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+    </row>
+    <row r="2" spans="1:18" s="54" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -14287,7 +14353,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
         <v>5</v>
       </c>
@@ -14333,7 +14399,7 @@
       <c r="Q3" s="58"/>
       <c r="R3" s="42"/>
     </row>
-    <row r="4" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
@@ -14379,7 +14445,7 @@
       <c r="Q4" s="58"/>
       <c r="R4" s="47"/>
     </row>
-    <row r="5" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
         <v>5</v>
       </c>
@@ -14425,7 +14491,7 @@
       <c r="Q5" s="58"/>
       <c r="R5" s="47"/>
     </row>
-    <row r="6" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>4</v>
       </c>
